--- a/AFRM.xlsx
+++ b/AFRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FA6F68-FDF4-3646-8A57-3DC741E2D577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC5CC38-E4E1-814A-89CF-D535E657F49D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-67820" yWindow="-5940" windowWidth="28240" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-56520" yWindow="-5940" windowWidth="28240" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -308,7 +308,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -595,20 +595,20 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1011,7 +1011,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
+      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2242,11 +2242,11 @@
         <v>784.67311999999993</v>
       </c>
       <c r="E18" s="44">
-        <f t="shared" ref="E18:H18" si="2">E16*E15</f>
+        <f>E16*E15</f>
         <v>1165.2395832</v>
       </c>
       <c r="F18" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E18:G18" si="2">F16*F15</f>
         <v>1666.2926039760002</v>
       </c>
       <c r="G18" s="44">
@@ -2766,7 +2766,7 @@
         <v>793.82822399999964</v>
       </c>
       <c r="J21" s="22">
-        <f t="shared" ref="I21:J21" si="11">I21*1.1</f>
+        <f t="shared" ref="J21" si="11">I21*1.1</f>
         <v>873.21104639999965</v>
       </c>
       <c r="K21" s="22">
@@ -3254,7 +3254,7 @@
         <v>460.88249999999994</v>
       </c>
       <c r="F24" s="22">
-        <f t="shared" ref="F24:J24" si="24">SUM(F21:F23)</f>
+        <f t="shared" ref="F24:I24" si="24">SUM(F21:F23)</f>
         <v>608.10937499999989</v>
       </c>
       <c r="G24" s="22">
@@ -3286,7 +3286,7 @@
         <v>1620.6938893164483</v>
       </c>
       <c r="N24" s="22">
-        <f t="shared" ref="K24:N24" si="26">SUM(N21:N23)</f>
+        <f t="shared" ref="N24" si="26">SUM(N21:N23)</f>
         <v>1662.8728400605778</v>
       </c>
       <c r="O24" s="22">
@@ -3582,63 +3582,63 @@
         <v>-4</v>
       </c>
       <c r="D26" s="22">
-        <f>C43*$F$3</f>
+        <f t="shared" ref="D26:R26" si="32">C43*$F$3</f>
         <v>9.4</v>
       </c>
       <c r="E26" s="22">
-        <f>D43*$F$3</f>
+        <f t="shared" si="32"/>
         <v>7.5195495999999977</v>
       </c>
       <c r="F26" s="22">
-        <f>E43*$F$3</f>
+        <f t="shared" si="32"/>
         <v>5.8097967479999957</v>
       </c>
       <c r="G26" s="22">
-        <f>F43*$F$3</f>
+        <f t="shared" si="32"/>
         <v>4.2850389860399947</v>
       </c>
       <c r="H26" s="22">
-        <f>G43*$F$3</f>
+        <f t="shared" si="32"/>
         <v>2.7082351199957944</v>
       </c>
       <c r="I26" s="22">
-        <f>H43*$F$3</f>
+        <f t="shared" si="32"/>
         <v>0.36421765623591484</v>
       </c>
       <c r="J26" s="22">
-        <f>I43*$F$3</f>
+        <f t="shared" si="32"/>
         <v>-0.88878215409361971</v>
       </c>
       <c r="K26" s="22">
-        <f>J43*$F$3</f>
+        <f t="shared" si="32"/>
         <v>0.56617376699740951</v>
       </c>
       <c r="L26" s="22">
-        <f>K43*$F$3</f>
+        <f t="shared" si="32"/>
         <v>5.269506039735627</v>
       </c>
       <c r="M26" s="22">
-        <f>L43*$F$3</f>
+        <f t="shared" si="32"/>
         <v>14.040175636732391</v>
       </c>
       <c r="N26" s="22">
-        <f>M43*$F$3</f>
+        <f t="shared" si="32"/>
         <v>27.885759768151015</v>
       </c>
       <c r="O26" s="22">
-        <f>N43*$F$3</f>
+        <f t="shared" si="32"/>
         <v>45.497878398306206</v>
       </c>
       <c r="P26" s="22">
-        <f>O43*$F$3</f>
+        <f t="shared" si="32"/>
         <v>67.307857894149478</v>
       </c>
       <c r="Q26" s="22">
-        <f>P43*$F$3</f>
+        <f t="shared" si="32"/>
         <v>93.795479666207342</v>
       </c>
       <c r="R26" s="22">
-        <f>Q43*$F$3</f>
+        <f t="shared" si="32"/>
         <v>125.49397210513833</v>
       </c>
       <c r="S26" s="37"/>
@@ -3742,71 +3742,71 @@
         <v>9</v>
       </c>
       <c r="B27" s="25">
-        <f t="shared" ref="B27:C27" si="32">B25+B26</f>
+        <f t="shared" ref="B27:C27" si="33">B25+B26</f>
         <v>-119.60499999999999</v>
       </c>
       <c r="C27" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-112.13800000000009</v>
       </c>
       <c r="D27" s="22">
-        <f t="shared" ref="D27:E27" si="33">D25+D26</f>
+        <f t="shared" ref="D27:E27" si="34">D25+D26</f>
         <v>-94.0225200000001</v>
       </c>
       <c r="E27" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-85.487642600000129</v>
       </c>
       <c r="F27" s="22">
-        <f t="shared" ref="F27" si="34">F25+F26</f>
+        <f t="shared" ref="F27" si="35">F25+F26</f>
         <v>-76.237888098000042</v>
       </c>
       <c r="G27" s="22">
-        <f t="shared" ref="G27" si="35">G25+G26</f>
+        <f t="shared" ref="G27" si="36">G25+G26</f>
         <v>-78.840193302210011</v>
       </c>
       <c r="H27" s="22">
-        <f t="shared" ref="H27" si="36">H25+H26</f>
+        <f t="shared" ref="H27" si="37">H25+H26</f>
         <v>-117.20087318799396</v>
       </c>
       <c r="I27" s="22">
-        <f t="shared" ref="I27" si="37">I25+I26</f>
+        <f t="shared" ref="I27" si="38">I25+I26</f>
         <v>-62.649990516476727</v>
       </c>
       <c r="J27" s="22">
-        <f t="shared" ref="J27" si="38">J25+J26</f>
+        <f t="shared" ref="J27" si="39">J25+J26</f>
         <v>80.83088450505717</v>
       </c>
       <c r="K27" s="22">
-        <f t="shared" ref="K27" si="39">K25+K26</f>
+        <f t="shared" ref="K27" si="40">K25+K26</f>
         <v>261.29623737434542</v>
       </c>
       <c r="L27" s="22">
-        <f t="shared" ref="L27" si="40">L25+L26</f>
+        <f t="shared" ref="L27" si="41">L25+L26</f>
         <v>487.25942205537575</v>
       </c>
       <c r="M27" s="22">
-        <f t="shared" ref="M27:N27" si="41">M25+M26</f>
+        <f t="shared" ref="M27:N27" si="42">M25+M26</f>
         <v>769.19911841214582</v>
       </c>
       <c r="N27" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>978.45103500862137</v>
       </c>
       <c r="O27" s="22">
-        <f t="shared" ref="O27:R27" si="42">O25+O26</f>
+        <f t="shared" ref="O27:R27" si="43">O25+O26</f>
         <v>1211.6655275468488</v>
       </c>
       <c r="P27" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1471.5345428921032</v>
       </c>
       <c r="Q27" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1761.0273577183882</v>
       </c>
       <c r="R27" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2083.4190369784938</v>
       </c>
       <c r="S27" s="37"/>
@@ -3936,39 +3936,39 @@
         <v>0</v>
       </c>
       <c r="J28" s="22">
-        <f t="shared" ref="E28:N28" si="43">J27*0.1</f>
+        <f t="shared" ref="J28:N28" si="44">J27*0.1</f>
         <v>8.0830884505057181</v>
       </c>
       <c r="K28" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>26.129623737434542</v>
       </c>
       <c r="L28" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>48.725942205537578</v>
       </c>
       <c r="M28" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>76.919911841214585</v>
       </c>
       <c r="N28" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>97.845103500862137</v>
       </c>
       <c r="O28" s="22">
-        <f t="shared" ref="O28:R28" si="44">O27*0.1</f>
+        <f t="shared" ref="O28:R28" si="45">O27*0.1</f>
         <v>121.16655275468489</v>
       </c>
       <c r="P28" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>147.15345428921032</v>
       </c>
       <c r="Q28" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>176.10273577183884</v>
       </c>
       <c r="R28" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>208.34190369784938</v>
       </c>
       <c r="S28" s="37"/>
@@ -4076,779 +4076,779 @@
         <v>-119.60499999999999</v>
       </c>
       <c r="C29" s="23">
-        <f t="shared" ref="C29:E29" si="45">C27-C28</f>
+        <f t="shared" ref="C29:E29" si="46">C27-C28</f>
         <v>-112.13800000000009</v>
       </c>
       <c r="D29" s="23">
-        <f t="shared" ref="D29" si="46">D27-D28</f>
+        <f t="shared" ref="D29" si="47">D27-D28</f>
         <v>-94.0225200000001</v>
       </c>
       <c r="E29" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-85.487642600000129</v>
       </c>
       <c r="F29" s="23">
-        <f t="shared" ref="F29:N29" si="47">F27-F28</f>
+        <f t="shared" ref="F29:N29" si="48">F27-F28</f>
         <v>-76.237888098000042</v>
       </c>
       <c r="G29" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-78.840193302210011</v>
       </c>
       <c r="H29" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-117.20087318799396</v>
       </c>
       <c r="I29" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-62.649990516476727</v>
       </c>
       <c r="J29" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>72.747796054551458</v>
       </c>
       <c r="K29" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>235.16661363691088</v>
       </c>
       <c r="L29" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>438.53347984983816</v>
       </c>
       <c r="M29" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>692.27920657093125</v>
       </c>
       <c r="N29" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>880.60593150775924</v>
       </c>
       <c r="O29" s="23">
-        <f t="shared" ref="O29:R29" si="48">O27-O28</f>
+        <f t="shared" ref="O29:R29" si="49">O27-O28</f>
         <v>1090.4989747921638</v>
       </c>
       <c r="P29" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1324.381088602893</v>
       </c>
       <c r="Q29" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1584.9246219465495</v>
       </c>
       <c r="R29" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1875.0771332806444</v>
       </c>
       <c r="S29" s="23">
-        <f>R29*($F$2+1)</f>
+        <f t="shared" ref="S29:AX29" si="50">R29*($F$2+1)</f>
         <v>1884.4525189470473</v>
       </c>
       <c r="T29" s="23">
-        <f>S29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>1893.8747815417823</v>
       </c>
       <c r="U29" s="23">
-        <f>T29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>1903.3441554494912</v>
       </c>
       <c r="V29" s="23">
-        <f>U29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>1912.8608762267384</v>
       </c>
       <c r="W29" s="23">
-        <f>V29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>1922.4251806078719</v>
       </c>
       <c r="X29" s="23">
-        <f>W29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>1932.0373065109111</v>
       </c>
       <c r="Y29" s="23">
-        <f>X29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>1941.6974930434656</v>
       </c>
       <c r="Z29" s="23">
-        <f>Y29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>1951.4059805086827</v>
       </c>
       <c r="AA29" s="23">
-        <f>Z29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>1961.163010411226</v>
       </c>
       <c r="AB29" s="23">
-        <f>AA29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>1970.968825463282</v>
       </c>
       <c r="AC29" s="23">
-        <f>AB29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>1980.8236695905982</v>
       </c>
       <c r="AD29" s="23">
-        <f>AC29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>1990.727787938551</v>
       </c>
       <c r="AE29" s="23">
-        <f>AD29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2000.6814268782437</v>
       </c>
       <c r="AF29" s="23">
-        <f>AE29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2010.6848340126346</v>
       </c>
       <c r="AG29" s="23">
-        <f>AF29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2020.7382581826976</v>
       </c>
       <c r="AH29" s="23">
-        <f>AG29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2030.8419494736108</v>
       </c>
       <c r="AI29" s="23">
-        <f>AH29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2040.9961592209786</v>
       </c>
       <c r="AJ29" s="23">
-        <f>AI29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2051.2011400170832</v>
       </c>
       <c r="AK29" s="23">
-        <f>AJ29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2061.4571457171683</v>
       </c>
       <c r="AL29" s="23">
-        <f>AK29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2071.7644314457539</v>
       </c>
       <c r="AM29" s="23">
-        <f>AL29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2082.1232536029825</v>
       </c>
       <c r="AN29" s="23">
-        <f>AM29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2092.533869870997</v>
       </c>
       <c r="AO29" s="23">
-        <f>AN29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2102.9965392203517</v>
       </c>
       <c r="AP29" s="23">
-        <f>AO29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2113.5115219164531</v>
       </c>
       <c r="AQ29" s="23">
-        <f>AP29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2124.079079526035</v>
       </c>
       <c r="AR29" s="23">
-        <f>AQ29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2134.6994749236651</v>
       </c>
       <c r="AS29" s="23">
-        <f>AR29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2145.372972298283</v>
       </c>
       <c r="AT29" s="23">
-        <f>AS29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2156.0998371597743</v>
       </c>
       <c r="AU29" s="23">
-        <f>AT29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2166.8803363455731</v>
       </c>
       <c r="AV29" s="23">
-        <f>AU29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2177.7147380273009</v>
       </c>
       <c r="AW29" s="23">
-        <f>AV29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2188.603311717437</v>
       </c>
       <c r="AX29" s="23">
-        <f>AW29*($F$2+1)</f>
+        <f t="shared" si="50"/>
         <v>2199.5463282760238</v>
       </c>
       <c r="AY29" s="23">
-        <f>AX29*($F$2+1)</f>
+        <f t="shared" ref="AY29:CD29" si="51">AX29*($F$2+1)</f>
         <v>2210.5440599174035</v>
       </c>
       <c r="AZ29" s="23">
-        <f>AY29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2221.5967802169903</v>
       </c>
       <c r="BA29" s="23">
-        <f>AZ29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2232.7047641180752</v>
       </c>
       <c r="BB29" s="23">
-        <f>BA29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2243.8682879386652</v>
       </c>
       <c r="BC29" s="23">
-        <f>BB29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2255.0876293783581</v>
       </c>
       <c r="BD29" s="23">
-        <f>BC29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2266.3630675252498</v>
       </c>
       <c r="BE29" s="23">
-        <f>BD29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2277.6948828628756</v>
       </c>
       <c r="BF29" s="23">
-        <f>BE29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2289.0833572771899</v>
       </c>
       <c r="BG29" s="23">
-        <f>BF29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2300.5287740635754</v>
       </c>
       <c r="BH29" s="23">
-        <f>BG29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2312.031417933893</v>
       </c>
       <c r="BI29" s="23">
-        <f>BH29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2323.5915750235622</v>
       </c>
       <c r="BJ29" s="23">
-        <f>BI29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2335.2095328986798</v>
       </c>
       <c r="BK29" s="23">
-        <f>BJ29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2346.8855805631729</v>
       </c>
       <c r="BL29" s="23">
-        <f>BK29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2358.6200084659886</v>
       </c>
       <c r="BM29" s="23">
-        <f>BL29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2370.4131085083181</v>
       </c>
       <c r="BN29" s="23">
-        <f>BM29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2382.2651740508595</v>
       </c>
       <c r="BO29" s="23">
-        <f>BN29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2394.1764999211136</v>
       </c>
       <c r="BP29" s="23">
-        <f>BO29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2406.1473824207192</v>
       </c>
       <c r="BQ29" s="23">
-        <f>BP29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2418.1781193328225</v>
       </c>
       <c r="BR29" s="23">
-        <f>BQ29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2430.2690099294864</v>
       </c>
       <c r="BS29" s="23">
-        <f>BR29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2442.4203549791337</v>
       </c>
       <c r="BT29" s="23">
-        <f>BS29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2454.6324567540291</v>
       </c>
       <c r="BU29" s="23">
-        <f>BT29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2466.9056190377992</v>
       </c>
       <c r="BV29" s="23">
-        <f>BU29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2479.2401471329881</v>
       </c>
       <c r="BW29" s="23">
-        <f>BV29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2491.6363478686526</v>
       </c>
       <c r="BX29" s="23">
-        <f>BW29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2504.0945296079958</v>
       </c>
       <c r="BY29" s="23">
-        <f>BX29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2516.6150022560355</v>
       </c>
       <c r="BZ29" s="23">
-        <f>BY29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2529.1980772673155</v>
       </c>
       <c r="CA29" s="23">
-        <f>BZ29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2541.844067653652</v>
       </c>
       <c r="CB29" s="23">
-        <f>CA29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2554.5532879919201</v>
       </c>
       <c r="CC29" s="23">
-        <f>CB29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2567.3260544318796</v>
       </c>
       <c r="CD29" s="23">
-        <f>CC29*($F$2+1)</f>
+        <f t="shared" si="51"/>
         <v>2580.1626847040388</v>
       </c>
       <c r="CE29" s="23">
-        <f>CD29*($F$2+1)</f>
+        <f t="shared" ref="CE29:DJ29" si="52">CD29*($F$2+1)</f>
         <v>2593.0634981275589</v>
       </c>
       <c r="CF29" s="23">
-        <f>CE29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2606.0288156181964</v>
       </c>
       <c r="CG29" s="23">
-        <f>CF29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2619.0589596962873</v>
       </c>
       <c r="CH29" s="23">
-        <f>CG29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2632.1542544947683</v>
       </c>
       <c r="CI29" s="23">
-        <f>CH29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2645.3150257672419</v>
       </c>
       <c r="CJ29" s="23">
-        <f>CI29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2658.5416008960779</v>
       </c>
       <c r="CK29" s="23">
-        <f>CJ29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2671.834308900558</v>
       </c>
       <c r="CL29" s="23">
-        <f>CK29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2685.1934804450607</v>
       </c>
       <c r="CM29" s="23">
-        <f>CL29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2698.6194478472858</v>
       </c>
       <c r="CN29" s="23">
-        <f>CM29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2712.112545086522</v>
       </c>
       <c r="CO29" s="23">
-        <f>CN29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2725.6731078119542</v>
       </c>
       <c r="CP29" s="23">
-        <f>CO29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2739.3014733510136</v>
       </c>
       <c r="CQ29" s="23">
-        <f>CP29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2752.9979807177683</v>
       </c>
       <c r="CR29" s="23">
-        <f>CQ29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2766.762970621357</v>
       </c>
       <c r="CS29" s="23">
-        <f>CR29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2780.5967854744636</v>
       </c>
       <c r="CT29" s="23">
-        <f>CS29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2794.4997694018357</v>
       </c>
       <c r="CU29" s="23">
-        <f>CT29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2808.4722682488446</v>
       </c>
       <c r="CV29" s="23">
-        <f>CU29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2822.5146295900886</v>
       </c>
       <c r="CW29" s="23">
-        <f>CV29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2836.6272027380387</v>
       </c>
       <c r="CX29" s="23">
-        <f>CW29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2850.8103387517285</v>
       </c>
       <c r="CY29" s="23">
-        <f>CX29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2865.0643904454869</v>
       </c>
       <c r="CZ29" s="23">
-        <f>CY29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2879.389712397714</v>
       </c>
       <c r="DA29" s="23">
-        <f>CZ29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2893.7866609597022</v>
       </c>
       <c r="DB29" s="23">
-        <f>DA29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2908.2555942645004</v>
       </c>
       <c r="DC29" s="23">
-        <f>DB29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2922.7968722358228</v>
       </c>
       <c r="DD29" s="23">
-        <f>DC29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2937.4108565970014</v>
       </c>
       <c r="DE29" s="23">
-        <f>DD29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2952.0979108799861</v>
       </c>
       <c r="DF29" s="23">
-        <f>DE29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2966.8584004343857</v>
       </c>
       <c r="DG29" s="23">
-        <f>DF29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2981.6926924365571</v>
       </c>
       <c r="DH29" s="23">
-        <f>DG29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>2996.6011558987398</v>
       </c>
       <c r="DI29" s="23">
-        <f>DH29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>3011.5841616782332</v>
       </c>
       <c r="DJ29" s="23">
-        <f>DI29*($F$2+1)</f>
+        <f t="shared" si="52"/>
         <v>3026.6420824866241</v>
       </c>
       <c r="DK29" s="23">
-        <f>DJ29*($F$2+1)</f>
+        <f t="shared" ref="DK29:EP29" si="53">DJ29*($F$2+1)</f>
         <v>3041.7752928990567</v>
       </c>
       <c r="DL29" s="23">
-        <f>DK29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3056.9841693635517</v>
       </c>
       <c r="DM29" s="23">
-        <f>DL29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3072.2690902103691</v>
       </c>
       <c r="DN29" s="23">
-        <f>DM29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3087.6304356614205</v>
       </c>
       <c r="DO29" s="23">
-        <f>DN29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3103.0685878397271</v>
       </c>
       <c r="DP29" s="23">
-        <f>DO29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3118.5839307789256</v>
       </c>
       <c r="DQ29" s="23">
-        <f>DP29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3134.1768504328197</v>
       </c>
       <c r="DR29" s="23">
-        <f>DQ29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3149.8477346849836</v>
       </c>
       <c r="DS29" s="23">
-        <f>DR29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3165.5969733584084</v>
       </c>
       <c r="DT29" s="23">
-        <f>DS29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3181.4249582252</v>
       </c>
       <c r="DU29" s="23">
-        <f>DT29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3197.3320830163257</v>
       </c>
       <c r="DV29" s="23">
-        <f>DU29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3213.3187434314068</v>
       </c>
       <c r="DW29" s="23">
-        <f>DV29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3229.3853371485634</v>
       </c>
       <c r="DX29" s="23">
-        <f>DW29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3245.5322638343059</v>
       </c>
       <c r="DY29" s="23">
-        <f>DX29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3261.7599251534771</v>
       </c>
       <c r="DZ29" s="23">
-        <f>DY29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3278.0687247792439</v>
       </c>
       <c r="EA29" s="23">
-        <f>DZ29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3294.4590684031396</v>
       </c>
       <c r="EB29" s="23">
-        <f>EA29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3310.9313637451551</v>
       </c>
       <c r="EC29" s="23">
-        <f>EB29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3327.4860205638806</v>
       </c>
       <c r="ED29" s="23">
-        <f>EC29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3344.1234506666997</v>
       </c>
       <c r="EE29" s="23">
-        <f>ED29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3360.844067920033</v>
       </c>
       <c r="EF29" s="23">
-        <f>EE29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3377.6482882596329</v>
       </c>
       <c r="EG29" s="23">
-        <f>EF29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3394.5365297009307</v>
       </c>
       <c r="EH29" s="23">
-        <f>EG29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3411.5092123494351</v>
       </c>
       <c r="EI29" s="23">
-        <f>EH29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3428.566758411182</v>
       </c>
       <c r="EJ29" s="23">
-        <f>EI29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3445.7095922032377</v>
       </c>
       <c r="EK29" s="23">
-        <f>EJ29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3462.9381401642536</v>
       </c>
       <c r="EL29" s="23">
-        <f>EK29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3480.2528308650744</v>
       </c>
       <c r="EM29" s="23">
-        <f>EL29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3497.6540950193994</v>
       </c>
       <c r="EN29" s="23">
-        <f>EM29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3515.1423654944961</v>
       </c>
       <c r="EO29" s="23">
-        <f>EN29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3532.7180773219684</v>
       </c>
       <c r="EP29" s="23">
-        <f>EO29*($F$2+1)</f>
+        <f t="shared" si="53"/>
         <v>3550.3816677085779</v>
       </c>
       <c r="EQ29" s="23">
-        <f>EP29*($F$2+1)</f>
+        <f t="shared" ref="EQ29:FV29" si="54">EP29*($F$2+1)</f>
         <v>3568.1335760471202</v>
       </c>
       <c r="ER29" s="23">
-        <f>EQ29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3585.9742439273555</v>
       </c>
       <c r="ES29" s="23">
-        <f>ER29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3603.9041151469919</v>
       </c>
       <c r="ET29" s="23">
-        <f>ES29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3621.9236357227264</v>
       </c>
       <c r="EU29" s="23">
-        <f>ET29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3640.0332539013398</v>
       </c>
       <c r="EV29" s="23">
-        <f>EU29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3658.2334201708459</v>
       </c>
       <c r="EW29" s="23">
-        <f>EV29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3676.5245872716996</v>
       </c>
       <c r="EX29" s="23">
-        <f>EW29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3694.9072102080577</v>
       </c>
       <c r="EY29" s="23">
-        <f>EX29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3713.3817462590978</v>
       </c>
       <c r="EZ29" s="23">
-        <f>EY29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3731.9486549903927</v>
       </c>
       <c r="FA29" s="23">
-        <f>EZ29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3750.6083982653445</v>
       </c>
       <c r="FB29" s="23">
-        <f>FA29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3769.3614402566709</v>
       </c>
       <c r="FC29" s="23">
-        <f>FB29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3788.2082474579538</v>
       </c>
       <c r="FD29" s="23">
-        <f>FC29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3807.1492886952433</v>
       </c>
       <c r="FE29" s="23">
-        <f>FD29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3826.1850351387193</v>
       </c>
       <c r="FF29" s="23">
-        <f>FE29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3845.3159603144127</v>
       </c>
       <c r="FG29" s="23">
-        <f>FF29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3864.5425401159841</v>
       </c>
       <c r="FH29" s="23">
-        <f>FG29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3883.8652528165635</v>
       </c>
       <c r="FI29" s="23">
-        <f>FH29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3903.2845790806459</v>
       </c>
       <c r="FJ29" s="23">
-        <f>FI29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3922.8010019760486</v>
       </c>
       <c r="FK29" s="23">
-        <f>FJ29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3942.4150069859284</v>
       </c>
       <c r="FL29" s="23">
-        <f>FK29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3962.1270820208574</v>
       </c>
       <c r="FM29" s="23">
-        <f>FL29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>3981.9377174309611</v>
       </c>
       <c r="FN29" s="23">
-        <f>FM29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>4001.8474060181156</v>
       </c>
       <c r="FO29" s="23">
-        <f>FN29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>4021.8566430482056</v>
       </c>
       <c r="FP29" s="23">
-        <f>FO29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>4041.9659262634464</v>
       </c>
       <c r="FQ29" s="23">
-        <f>FP29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>4062.1757558947634</v>
       </c>
       <c r="FR29" s="23">
-        <f>FQ29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>4082.4866346742369</v>
       </c>
       <c r="FS29" s="23">
-        <f>FR29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>4102.8990678476075</v>
       </c>
       <c r="FT29" s="23">
-        <f>FS29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>4123.4135631868448</v>
       </c>
       <c r="FU29" s="23">
-        <f>FT29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>4144.030631002779</v>
       </c>
       <c r="FV29" s="23">
-        <f>FU29*($F$2+1)</f>
+        <f t="shared" si="54"/>
         <v>4164.7507841577926</v>
       </c>
       <c r="FW29" s="23">
-        <f>FV29*($F$2+1)</f>
+        <f t="shared" ref="FW29:GN29" si="55">FV29*($F$2+1)</f>
         <v>4185.5745380785811</v>
       </c>
       <c r="FX29" s="23">
-        <f>FW29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4206.5024107689733</v>
       </c>
       <c r="FY29" s="23">
-        <f>FX29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4227.5349228228179</v>
       </c>
       <c r="FZ29" s="23">
-        <f>FY29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4248.6725974369319</v>
       </c>
       <c r="GA29" s="23">
-        <f>FZ29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4269.9159604241158</v>
       </c>
       <c r="GB29" s="23">
-        <f>GA29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4291.2655402262362</v>
       </c>
       <c r="GC29" s="23">
-        <f>GB29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4312.7218679273674</v>
       </c>
       <c r="GD29" s="23">
-        <f>GC29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4334.2854772670034</v>
       </c>
       <c r="GE29" s="23">
-        <f>GD29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4355.9569046533379</v>
       </c>
       <c r="GF29" s="23">
-        <f>GE29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4377.7366891766042</v>
       </c>
       <c r="GG29" s="23">
-        <f>GF29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4399.6253726224868</v>
       </c>
       <c r="GH29" s="23">
-        <f>GG29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4421.6234994855986</v>
       </c>
       <c r="GI29" s="23">
-        <f>GH29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4443.7316169830265</v>
       </c>
       <c r="GJ29" s="23">
-        <f>GI29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4465.9502750679412</v>
       </c>
       <c r="GK29" s="23">
-        <f>GJ29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4488.2800264432808</v>
       </c>
       <c r="GL29" s="23">
-        <f>GK29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4510.7214265754965</v>
       </c>
       <c r="GM29" s="23">
-        <f>GL29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4533.2750337083735</v>
       </c>
       <c r="GN29" s="23">
-        <f>GM29*($F$2+1)</f>
+        <f t="shared" si="55"/>
         <v>4555.9414088769145</v>
       </c>
     </row>
@@ -4857,71 +4857,71 @@
         <v>12</v>
       </c>
       <c r="B30" s="27">
-        <f t="shared" ref="B30:C30" si="49">B29/B31</f>
+        <f t="shared" ref="B30:C30" si="56">B29/B31</f>
         <v>-2.526226030158667</v>
       </c>
       <c r="C30" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>-2.3432027936724475</v>
       </c>
       <c r="D30" s="45">
-        <f t="shared" ref="D30:E30" si="50">D29/D31</f>
+        <f t="shared" ref="D30:E30" si="57">D29/D31</f>
         <v>-1.9646670310877989</v>
       </c>
       <c r="E30" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>-1.7863247334961552</v>
       </c>
       <c r="F30" s="45">
-        <f t="shared" ref="F30:N30" si="51">F29/F31</f>
+        <f t="shared" ref="F30:N30" si="58">F29/F31</f>
         <v>-1.5930445734266794</v>
       </c>
       <c r="G30" s="45">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>-1.6474215805473089</v>
       </c>
       <c r="H30" s="45">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>-2.4489951084820261</v>
       </c>
       <c r="I30" s="45">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>-1.309115846561919</v>
       </c>
       <c r="J30" s="45">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>1.5201166326181872</v>
       </c>
       <c r="K30" s="45">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>4.9139726591565589</v>
       </c>
       <c r="L30" s="45">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>9.1634671128702117</v>
       </c>
       <c r="M30" s="45">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>14.465663475702707</v>
       </c>
       <c r="N30" s="45">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>18.400883543789863</v>
       </c>
       <c r="O30" s="45">
-        <f t="shared" ref="O30:R30" si="52">O29/O31</f>
+        <f t="shared" ref="O30:R30" si="59">O29/O31</f>
         <v>22.786747081541815</v>
       </c>
       <c r="P30" s="45">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>27.6738792086648</v>
       </c>
       <c r="Q30" s="45">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>33.118120547052733</v>
       </c>
       <c r="R30" s="45">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>39.181062414654498</v>
       </c>
       <c r="S30" s="37"/>
@@ -5033,63 +5033,63 @@
         <v>47.856720000000003</v>
       </c>
       <c r="D31" s="22">
-        <f t="shared" ref="D31:E31" si="53">C31</f>
+        <f t="shared" ref="D31:E31" si="60">C31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="E31" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>47.856720000000003</v>
       </c>
       <c r="F31" s="22">
-        <f t="shared" ref="F31" si="54">E31</f>
+        <f t="shared" ref="F31" si="61">E31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="G31" s="22">
-        <f t="shared" ref="G31" si="55">F31</f>
+        <f t="shared" ref="G31" si="62">F31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="H31" s="22">
-        <f t="shared" ref="H31" si="56">G31</f>
+        <f t="shared" ref="H31" si="63">G31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="I31" s="22">
-        <f t="shared" ref="I31" si="57">H31</f>
+        <f t="shared" ref="I31" si="64">H31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="J31" s="22">
-        <f t="shared" ref="J31" si="58">I31</f>
+        <f t="shared" ref="J31" si="65">I31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="K31" s="22">
-        <f t="shared" ref="K31" si="59">J31</f>
+        <f t="shared" ref="K31" si="66">J31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="L31" s="22">
-        <f t="shared" ref="L31" si="60">K31</f>
+        <f t="shared" ref="L31" si="67">K31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="M31" s="22">
-        <f t="shared" ref="M31:R31" si="61">L31</f>
+        <f t="shared" ref="M31:R31" si="68">L31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="N31" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>47.856720000000003</v>
       </c>
       <c r="O31" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>47.856720000000003</v>
       </c>
       <c r="P31" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>47.856720000000003</v>
       </c>
       <c r="Q31" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>47.856720000000003</v>
       </c>
       <c r="R31" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>47.856720000000003</v>
       </c>
       <c r="S31" s="36"/>
@@ -5311,7 +5311,7 @@
         <v>0.20575563515869985</v>
       </c>
       <c r="C33" s="32">
-        <f t="shared" ref="C33:N33" si="62">IFERROR(C20/C18,0)</f>
+        <f t="shared" ref="C33:N33" si="69">IFERROR(C20/C18,0)</f>
         <v>0.31570787081377261</v>
       </c>
       <c r="D33" s="32">
@@ -5323,55 +5323,55 @@
         <v>0.31570787081377261</v>
       </c>
       <c r="F33" s="32">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="G33" s="32">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="H33" s="32">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="I33" s="32">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="J33" s="32">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="K33" s="32">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="L33" s="32">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="M33" s="32">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="N33" s="32">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="O33" s="32">
-        <f t="shared" ref="O33:R33" si="63">IFERROR(O20/O18,0)</f>
+        <f t="shared" ref="O33:R33" si="70">IFERROR(O20/O18,0)</f>
         <v>0.31570787081377261</v>
       </c>
       <c r="P33" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="Q33" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="R33" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="S33" s="37"/>
@@ -5479,67 +5479,67 @@
         <v>-0.47889865225236122</v>
       </c>
       <c r="C34" s="34">
-        <f t="shared" ref="C34:N34" si="64">IFERROR(C25/C18,0)</f>
+        <f t="shared" ref="C34:N34" si="71">IFERROR(C25/C18,0)</f>
         <v>-0.2122317124868508</v>
       </c>
       <c r="D34" s="34">
-        <f t="shared" ref="D34" si="65">IFERROR(D25/D18,0)</f>
+        <f t="shared" ref="D34" si="72">IFERROR(D25/D18,0)</f>
         <v>-0.13180331702964429</v>
       </c>
       <c r="E34" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-7.9818085088203289E-2</v>
       </c>
       <c r="F34" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-4.9239662139904557E-2</v>
       </c>
       <c r="G34" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-3.6280971449552973E-2</v>
       </c>
       <c r="H34" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-3.9648273211123915E-2</v>
       </c>
       <c r="I34" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-1.7363182949352001E-2</v>
       </c>
       <c r="J34" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>1.8764465505856816E-2</v>
       </c>
       <c r="K34" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>4.9890686099122429E-2</v>
       </c>
       <c r="L34" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>7.6857290864280239E-2</v>
       </c>
       <c r="M34" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.10034696540513131</v>
       </c>
       <c r="N34" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.11482993890640003</v>
       </c>
       <c r="O34" s="34">
-        <f t="shared" ref="O34:R34" si="66">IFERROR(O25/O18,0)</f>
+        <f t="shared" ref="O34:R34" si="73">IFERROR(O25/O18,0)</f>
         <v>0.12806825522602949</v>
       </c>
       <c r="P34" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>0.1401925838183995</v>
       </c>
       <c r="Q34" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>0.15131819029300397</v>
       </c>
       <c r="R34" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>0.16154685742392408</v>
       </c>
       <c r="S34" s="37"/>
@@ -5647,67 +5647,67 @@
         <v>0</v>
       </c>
       <c r="C35" s="34">
-        <f t="shared" ref="C35:N35" si="67">IFERROR(C28/C27,0)</f>
+        <f t="shared" ref="C35:N35" si="74">IFERROR(C28/C27,0)</f>
         <v>0</v>
       </c>
       <c r="D35" s="34">
-        <f t="shared" ref="D35" si="68">IFERROR(D28/D27,0)</f>
+        <f t="shared" ref="D35" si="75">IFERROR(D28/D27,0)</f>
         <v>0</v>
       </c>
       <c r="E35" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="F35" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="G35" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H35" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I35" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="J35" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="K35" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0.1</v>
       </c>
       <c r="L35" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0.1</v>
       </c>
       <c r="M35" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0.1</v>
       </c>
       <c r="N35" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0.1</v>
       </c>
       <c r="O35" s="34">
-        <f t="shared" ref="O35:R35" si="69">IFERROR(O28/O27,0)</f>
+        <f t="shared" ref="O35:R35" si="76">IFERROR(O28/O27,0)</f>
         <v>0.1</v>
       </c>
       <c r="P35" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="Q35" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>0.1</v>
       </c>
       <c r="R35" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>0.1</v>
       </c>
       <c r="S35" s="37"/>
@@ -5930,7 +5930,7 @@
         <v>0.92735099312697833</v>
       </c>
       <c r="D37" s="46">
-        <f t="shared" ref="D37:R37" si="70">D18/C18-1</f>
+        <f t="shared" ref="D37:R37" si="77">D18/C18-1</f>
         <v>0.54</v>
       </c>
       <c r="E37" s="46">
@@ -5938,55 +5938,55 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="F37" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.43000000000000016</v>
       </c>
       <c r="G37" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.375</v>
       </c>
       <c r="H37" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.32000000000000006</v>
       </c>
       <c r="I37" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J37" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="K37" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="L37" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="M37" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="N37" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O37" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P37" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q37" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R37" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="S37" s="37"/>
@@ -6091,67 +6091,67 @@
       </c>
       <c r="B38" s="34"/>
       <c r="C38" s="34">
-        <f t="shared" ref="C38:R38" si="71">C21/B21-1</f>
+        <f t="shared" ref="C38:R38" si="78">C21/B21-1</f>
         <v>0.61842105263157898</v>
       </c>
       <c r="D38" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="E38" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="F38" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0.40000000000000013</v>
       </c>
       <c r="G38" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="H38" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="I38" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J38" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="K38" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="L38" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="M38" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N38" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="O38" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="P38" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Q38" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="R38" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="S38" s="37"/>
@@ -6256,67 +6256,67 @@
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="34">
-        <f t="shared" ref="C39:R39" si="72">C22/B22-1</f>
+        <f t="shared" ref="C39:R39" si="79">C22/B22-1</f>
         <v>0.5625</v>
       </c>
       <c r="D39" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="E39" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="F39" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="G39" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="H39" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="I39" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="J39" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="K39" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="L39" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="M39" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="N39" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="O39" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>-4.9999999999999933E-2</v>
       </c>
       <c r="P39" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="Q39" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="R39" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>-5.0000000000000155E-2</v>
       </c>
       <c r="S39" s="37"/>
@@ -6421,67 +6421,67 @@
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="34">
-        <f t="shared" ref="C40:R40" si="73">C23/B23-1</f>
+        <f t="shared" ref="C40:R40" si="80">C23/B23-1</f>
         <v>0.3595505617977528</v>
       </c>
       <c r="D40" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="E40" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="F40" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="G40" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H40" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="I40" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>-5.0000000000000155E-2</v>
       </c>
       <c r="J40" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="K40" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>-4.9999999999999933E-2</v>
       </c>
       <c r="L40" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="M40" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="N40" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="O40" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P40" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="Q40" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R40" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="S40" s="37"/>
@@ -6586,27 +6586,27 @@
       </c>
       <c r="B41" s="42"/>
       <c r="C41" s="42">
-        <f t="shared" ref="C41:R41" si="74">C24/B24-1</f>
+        <f t="shared" ref="C41:R41" si="81">C24/B24-1</f>
         <v>0.48618784530386749</v>
       </c>
       <c r="D41" s="42">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>0.30539033457249065</v>
       </c>
       <c r="E41" s="42">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>0.31249466040153773</v>
       </c>
       <c r="F41" s="42">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>0.31944557452279043</v>
       </c>
       <c r="G41" s="42">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>0.32617599630000771</v>
       </c>
       <c r="H41" s="42">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>0.3326277818827803</v>
       </c>
       <c r="I41" s="42">
@@ -6614,39 +6614,39 @@
         <v>0.12474561432585585</v>
       </c>
       <c r="J41" s="42">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>6.9838049099629318E-2</v>
       </c>
       <c r="K41" s="42">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>7.421352337093623E-2</v>
       </c>
       <c r="L41" s="42">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>7.8262476698310213E-2</v>
       </c>
       <c r="M41" s="42">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>8.1986430784543485E-2</v>
       </c>
       <c r="N41" s="42">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>2.6025242041184615E-2</v>
       </c>
       <c r="O41" s="42">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>2.7507477733755392E-2</v>
       </c>
       <c r="P41" s="42">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>2.8923530301251832E-2</v>
       </c>
       <c r="Q41" s="42">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>3.0272927608935074E-2</v>
       </c>
       <c r="R41" s="42">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>3.1555716828644664E-2</v>
       </c>
       <c r="S41" s="37"/>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="B43" s="42"/>
       <c r="C43" s="23">
-        <f t="shared" ref="B43:C43" si="75">C44-C45</f>
+        <f t="shared" ref="C43" si="82">C44-C45</f>
         <v>470</v>
       </c>
       <c r="D43" s="47">
@@ -6877,55 +6877,55 @@
         <v>290.48983739999977</v>
       </c>
       <c r="F43" s="47">
-        <f t="shared" ref="F43:R43" si="76">E43+F29</f>
+        <f t="shared" ref="F43:R43" si="83">E43+F29</f>
         <v>214.25194930199973</v>
       </c>
       <c r="G43" s="47">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>135.4117559997897</v>
       </c>
       <c r="H43" s="47">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>18.210882811795742</v>
       </c>
       <c r="I43" s="47">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>-44.439107704680985</v>
       </c>
       <c r="J43" s="47">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>28.308688349870472</v>
       </c>
       <c r="K43" s="47">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>263.47530198678135</v>
       </c>
       <c r="L43" s="47">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>702.00878183661951</v>
       </c>
       <c r="M43" s="47">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>1394.2879884075508</v>
       </c>
       <c r="N43" s="47">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>2274.8939199153101</v>
       </c>
       <c r="O43" s="47">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>3365.3928947074737</v>
       </c>
       <c r="P43" s="47">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>4689.7739833103669</v>
       </c>
       <c r="Q43" s="47">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>6274.6986052569164</v>
       </c>
       <c r="R43" s="47">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>8149.7757385375608</v>
       </c>
       <c r="S43" s="37"/>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="B51" s="42"/>
       <c r="C51" s="51">
-        <f t="shared" ref="B51:C51" si="77">C48-C47-C44</f>
+        <f t="shared" ref="C51" si="84">C48-C47-C44</f>
         <v>40</v>
       </c>
       <c r="D51" s="36"/>
@@ -7978,7 +7978,7 @@
       </c>
       <c r="B52" s="42"/>
       <c r="C52" s="51">
-        <f t="shared" ref="B52:C52" si="78">C48-C49</f>
+        <f t="shared" ref="C52" si="85">C48-C49</f>
         <v>-367</v>
       </c>
       <c r="D52" s="36"/>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="B54" s="42"/>
       <c r="C54" s="52">
-        <f t="shared" ref="B54:C54" si="79">C29/C52</f>
+        <f t="shared" ref="C54" si="86">C29/C52</f>
         <v>0.30555313351498664</v>
       </c>
       <c r="D54" s="37"/>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B55" s="42"/>
       <c r="C55" s="52">
-        <f t="shared" ref="B55:C55" si="80">C29/C48</f>
+        <f t="shared" ref="C55" si="87">C29/C48</f>
         <v>-7.9984308131241147E-2</v>
       </c>
       <c r="D55" s="37"/>
@@ -8452,7 +8452,7 @@
       </c>
       <c r="B56" s="42"/>
       <c r="C56" s="52">
-        <f t="shared" ref="B56:C56" si="81">C29/(C52-C47)</f>
+        <f t="shared" ref="C56" si="88">C29/(C52-C47)</f>
         <v>0.30555313351498664</v>
       </c>
       <c r="D56" s="37"/>
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B57" s="42"/>
       <c r="C57" s="52">
-        <f t="shared" ref="B57:C57" si="82">C29/C51</f>
+        <f t="shared" ref="C57" si="89">C29/C51</f>
         <v>-2.8034500000000024</v>
       </c>
       <c r="D57" s="37"/>
@@ -8854,23 +8854,23 @@
         <v>0.76919315403422983</v>
       </c>
       <c r="D64" s="18">
-        <f t="shared" ref="D64:H64" si="83">D15/C15-1</f>
+        <f t="shared" ref="D64:H64" si="90">D15/C15-1</f>
         <v>0.40000000000000013</v>
       </c>
       <c r="E64" s="18">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="F64" s="18">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="G64" s="18">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0.25</v>
       </c>
       <c r="H64" s="18">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -8883,23 +8883,23 @@
         <v>8.9395461842087132E-2</v>
       </c>
       <c r="D65" s="18">
-        <f t="shared" ref="D65:H65" si="84">D16/C16-1</f>
+        <f t="shared" ref="D65:H65" si="91">D16/C16-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="E65" s="18">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="F65" s="18">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="G65" s="18">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="H65" s="18">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -8953,19 +8953,19 @@
         <v>0.59486481124466795</v>
       </c>
       <c r="E68" s="18">
-        <f t="shared" ref="E68:H68" si="85">E67/D67-1</f>
+        <f t="shared" ref="E68:H68" si="92">E67/D67-1</f>
         <v>0.49999999999999978</v>
       </c>
       <c r="F68" s="18">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="G68" s="18">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="H68" s="18">
-        <f t="shared" si="85"/>
+        <f t="shared" si="92"/>
         <v>0.35000000000000009</v>
       </c>
     </row>
@@ -8989,19 +8989,19 @@
         <v>0.10609800048379209</v>
       </c>
       <c r="E70" s="18">
-        <f t="shared" ref="E70:H70" si="86">E18/E67</f>
+        <f t="shared" ref="E70:H70" si="93">E18/E67</f>
         <v>0.10503702047895418</v>
       </c>
       <c r="F70" s="18">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>0.10358823398958932</v>
       </c>
       <c r="G70" s="18">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>0.1017384440969181</v>
       </c>
       <c r="H70" s="18">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>9.9477589783653245E-2</v>
       </c>
     </row>
@@ -9025,7 +9025,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9485,7 +9485,7 @@
         <v>25.319000000000003</v>
       </c>
       <c r="G13" s="25">
-        <f t="shared" ref="G13:L13" si="1">G11-G12</f>
+        <f t="shared" ref="G13:K13" si="1">G11-G12</f>
         <v>37.317999999999998</v>
       </c>
       <c r="H13" s="25">
@@ -9655,7 +9655,7 @@
         <v>68</v>
       </c>
       <c r="J17" s="26">
-        <f t="shared" ref="J17:L17" si="7">SUM(J14:J16)</f>
+        <f t="shared" ref="J17:K17" si="7">SUM(J14:J16)</f>
         <v>89</v>
       </c>
       <c r="K17" s="25">
@@ -9702,7 +9702,7 @@
         <v>39.568999999999988</v>
       </c>
       <c r="J18" s="26">
-        <f t="shared" ref="J18:L18" si="11">J13-J17</f>
+        <f t="shared" ref="J18:K18" si="11">J13-J17</f>
         <v>-45.006999999999977</v>
       </c>
       <c r="K18" s="25">
@@ -9786,7 +9786,7 @@
         <v>35.568999999999988</v>
       </c>
       <c r="J20" s="26">
-        <f t="shared" ref="J20:L20" si="16">J18+J19</f>
+        <f t="shared" ref="J20:K20" si="16">J18+J19</f>
         <v>-15.006999999999977</v>
       </c>
       <c r="K20" s="25">
@@ -9917,7 +9917,7 @@
         <v>0.74323940295114221</v>
       </c>
       <c r="J23" s="57">
-        <f t="shared" ref="J23:L23" si="20">IFERROR(J22/J24,0)</f>
+        <f t="shared" ref="J23:K23" si="20">IFERROR(J22/J24,0)</f>
         <v>0</v>
       </c>
       <c r="K23" s="56">
@@ -10125,31 +10125,31 @@
         <v>0.69184156358809612</v>
       </c>
       <c r="G30" s="28">
-        <f>IFERROR((G11/C11)-1,0)</f>
+        <f t="shared" ref="G30:M30" si="28">IFERROR((G11/C11)-1,0)</f>
         <v>0.8660770688566013</v>
       </c>
       <c r="H30" s="28">
-        <f>IFERROR((H11/D11)-1,0)</f>
+        <f t="shared" si="28"/>
         <v>0.89088696222957653</v>
       </c>
       <c r="I30" s="28">
-        <f>IFERROR((I11/E11)-1,0)</f>
+        <f t="shared" si="28"/>
         <v>1.2028560756256641</v>
       </c>
       <c r="J30" s="29">
-        <f>IFERROR((J11/F11)-1,0)</f>
+        <f t="shared" si="28"/>
         <v>0.97821415170500425</v>
       </c>
       <c r="K30" s="28">
-        <f>IFERROR((K11/G11)-1,0)</f>
+        <f t="shared" si="28"/>
         <v>0.5698359697174864</v>
       </c>
       <c r="L30" s="28">
-        <f>IFERROR((L11/H11)-1,0)</f>
+        <f t="shared" si="28"/>
         <v>0.30177258033021626</v>
       </c>
       <c r="M30" s="28">
-        <f>IFERROR((M11/I11)-1,0)</f>
+        <f t="shared" si="28"/>
         <v>0.31727884590300781</v>
       </c>
     </row>
@@ -10162,27 +10162,27 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="31">
-        <f t="shared" ref="F31:K33" si="28">F14/B14-1</f>
+        <f t="shared" ref="F31:K33" si="29">F14/B14-1</f>
         <v>0.5625</v>
       </c>
       <c r="G31" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.52380952380952372</v>
       </c>
       <c r="H31" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="I31" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.52380952380952372</v>
       </c>
       <c r="J31" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.3600000000000001</v>
       </c>
       <c r="K31" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.3125</v>
       </c>
       <c r="L31" s="22"/>
@@ -10197,27 +10197,27 @@
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.25</v>
       </c>
       <c r="G32" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="H32" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.75</v>
       </c>
       <c r="I32" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J32" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="K32" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.875</v>
       </c>
       <c r="L32" s="22"/>
@@ -10232,27 +10232,27 @@
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.75</v>
       </c>
       <c r="G33" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.40909090909090917</v>
       </c>
       <c r="H33" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.63157894736842102</v>
       </c>
       <c r="I33" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-3.125E-2</v>
       </c>
       <c r="J33" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.14285714285714279</v>
       </c>
       <c r="K33" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.32258064516129026</v>
       </c>
       <c r="L33" s="22"/>
@@ -10267,27 +10267,27 @@
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="33">
-        <f t="shared" ref="F34:K34" si="29">F17/B17-1</f>
+        <f t="shared" ref="F34:K34" si="30">F17/B17-1</f>
         <v>0.61111111111111116</v>
       </c>
       <c r="G34" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.54347826086956519</v>
       </c>
       <c r="H34" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.75609756097560976</v>
       </c>
       <c r="I34" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.17241379310344818</v>
       </c>
       <c r="J34" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.53448275862068972</v>
       </c>
       <c r="K34" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.71830985915492951</v>
       </c>
       <c r="L34" s="22"/>
@@ -10315,12 +10315,12 @@
       <c r="G36" s="42"/>
       <c r="H36" s="19"/>
       <c r="I36" s="23">
-        <f t="shared" ref="I36:K36" si="30">I37-I38</f>
+        <f t="shared" ref="I36:K36" si="31">I37-I38</f>
         <v>470</v>
       </c>
       <c r="J36" s="20"/>
       <c r="K36" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>903</v>
       </c>
       <c r="L36" s="22"/>
@@ -10479,12 +10479,12 @@
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="25">
-        <f t="shared" ref="E44:I44" si="31">I41-I37-I40</f>
+        <f t="shared" ref="I44" si="32">I41-I37-I40</f>
         <v>40</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="25">
-        <f t="shared" ref="K44" si="32">K41-K37-K40</f>
+        <f t="shared" ref="K44" si="33">K41-K37-K40</f>
         <v>183</v>
       </c>
       <c r="L44" s="22"/>
@@ -10540,12 +10540,12 @@
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="I47" s="23">
-        <f t="shared" ref="E47:K47" si="33">SUM(F22:I22)</f>
+        <f t="shared" ref="I47:K47" si="34">SUM(F22:I22)</f>
         <v>-112.13800000000001</v>
       </c>
       <c r="J47" s="21"/>
       <c r="K47" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-94.838999999999999</v>
       </c>
       <c r="L47" s="22"/>
@@ -10563,12 +10563,12 @@
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="32">
-        <f t="shared" ref="E48:I48" si="34">I47/I45</f>
+        <f t="shared" ref="I48" si="35">I47/I45</f>
         <v>0.30555313351498636</v>
       </c>
       <c r="J48" s="21"/>
       <c r="K48" s="32">
-        <f t="shared" ref="K48" si="35">K47/K45</f>
+        <f t="shared" ref="K48" si="36">K47/K45</f>
         <v>0.27174498567335242</v>
       </c>
       <c r="L48" s="22"/>
@@ -10586,12 +10586,12 @@
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="32">
-        <f t="shared" ref="E49:I49" si="36">I47/I41</f>
+        <f t="shared" ref="I49" si="37">I47/I41</f>
         <v>-7.9984308131241091E-2</v>
       </c>
       <c r="J49" s="21"/>
       <c r="K49" s="32">
-        <f t="shared" ref="K49" si="37">K47/K41</f>
+        <f t="shared" ref="K49" si="38">K47/K41</f>
         <v>-3.5021787296898081E-2</v>
       </c>
       <c r="L49" s="22"/>
@@ -10609,12 +10609,12 @@
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="32">
-        <f t="shared" ref="E50:I50" si="38">I47/(I45-I40)</f>
+        <f t="shared" ref="I50" si="39">I47/(I45-I40)</f>
         <v>0.30555313351498636</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="32">
-        <f t="shared" ref="K50" si="39">K47/(K45-K40)</f>
+        <f t="shared" ref="K50" si="40">K47/(K45-K40)</f>
         <v>0.27174498567335242</v>
       </c>
       <c r="L50" s="22"/>
@@ -10632,12 +10632,12 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="32">
-        <f t="shared" ref="E51:I51" si="40">I47/I44</f>
+        <f t="shared" ref="I51" si="41">I47/I44</f>
         <v>-2.8034500000000002</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="32">
-        <f t="shared" ref="K51" si="41">K47/K44</f>
+        <f t="shared" ref="K51" si="42">K47/K44</f>
         <v>-0.51824590163934425</v>
       </c>
       <c r="L51" s="22"/>
@@ -10658,27 +10658,27 @@
       <c r="D53" s="32"/>
       <c r="E53" s="42"/>
       <c r="F53" s="33">
-        <f>F3/B3-1</f>
+        <f t="shared" ref="F53:K56" si="43">F3/B3-1</f>
         <v>0.56397472815575722</v>
       </c>
       <c r="G53" s="32">
-        <f>G3/C3-1</f>
+        <f t="shared" si="43"/>
         <v>0.70017813683920016</v>
       </c>
       <c r="H53" s="32">
-        <f>H3/D3-1</f>
+        <f t="shared" si="43"/>
         <v>0.85762356575463361</v>
       </c>
       <c r="I53" s="32">
-        <f>I3/E3-1</f>
+        <f t="shared" si="43"/>
         <v>1.584634508686293</v>
       </c>
       <c r="J53" s="33">
-        <f>J3/F3-1</f>
+        <f t="shared" si="43"/>
         <v>1.5629998076341751</v>
       </c>
       <c r="K53" s="32">
-        <f>K3/G3-1</f>
+        <f t="shared" si="43"/>
         <v>0.47024969010093853</v>
       </c>
       <c r="L53" s="32"/>
@@ -10693,27 +10693,27 @@
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
       <c r="F54" s="33">
-        <f>F4/B4-1</f>
+        <f t="shared" si="43"/>
         <v>1.4766162310866577</v>
       </c>
       <c r="G54" s="32">
-        <f>G4/C4-1</f>
+        <f t="shared" si="43"/>
         <v>3.4548872180451129</v>
       </c>
       <c r="H54" s="32">
-        <f>H4/D4-1</f>
+        <f t="shared" si="43"/>
         <v>2.0519814719505916</v>
       </c>
       <c r="I54" s="32">
-        <f>I4/E4-1</f>
+        <f t="shared" si="43"/>
         <v>-7.505140507196717E-2</v>
       </c>
       <c r="J54" s="33">
-        <f>J4/F4-1</f>
+        <f t="shared" si="43"/>
         <v>0.65454040544293268</v>
       </c>
       <c r="K54" s="32">
-        <f>K4/G4-1</f>
+        <f t="shared" si="43"/>
         <v>0.52180028129395217</v>
       </c>
       <c r="L54" s="32"/>
@@ -10728,27 +10728,27 @@
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
       <c r="F55" s="33">
-        <f>F5/B5-1</f>
+        <f t="shared" si="43"/>
         <v>0.6443425577206483</v>
       </c>
       <c r="G55" s="32">
-        <f>G5/C5-1</f>
+        <f t="shared" si="43"/>
         <v>0.64439985406785838</v>
       </c>
       <c r="H55" s="32">
-        <f>H5/D5-1</f>
+        <f t="shared" si="43"/>
         <v>0.63836576362385022</v>
       </c>
       <c r="I55" s="32">
-        <f>I5/E5-1</f>
+        <f t="shared" si="43"/>
         <v>0.37969101123595483</v>
       </c>
       <c r="J55" s="33">
-        <f>J5/F5-1</f>
+        <f t="shared" si="43"/>
         <v>0.3502539334793866</v>
       </c>
       <c r="K55" s="32">
-        <f>K5/G5-1</f>
+        <f t="shared" si="43"/>
         <v>0.63860847957757416</v>
       </c>
       <c r="L55" s="32"/>
@@ -10763,27 +10763,27 @@
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
       <c r="F56" s="33">
-        <f>F6/B6-1</f>
+        <f t="shared" si="43"/>
         <v>1.7484121383203957</v>
       </c>
       <c r="G56" s="32">
-        <f>G6/C6-1</f>
+        <f t="shared" si="43"/>
         <v>11.711026615969583</v>
       </c>
       <c r="H56" s="32">
-        <f>H6/D6-1</f>
+        <f t="shared" si="43"/>
         <v>3.2624113475177294</v>
       </c>
       <c r="I56" s="32">
-        <f>I6/E6-1</f>
+        <f t="shared" si="43"/>
         <v>-9.5841688654353572</v>
       </c>
       <c r="J56" s="33">
-        <f>J6/F6-1</f>
+        <f t="shared" si="43"/>
         <v>1.634227757093337</v>
       </c>
       <c r="K56" s="32">
-        <f>K6/G6-1</f>
+        <f t="shared" si="43"/>
         <v>0.96769368830391889</v>
       </c>
       <c r="L56" s="32"/>

--- a/AFRM.xlsx
+++ b/AFRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC5CC38-E4E1-814A-89CF-D535E657F49D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EEAB36-4B69-C048-BE1A-3690DD863FEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-56520" yWindow="-5940" windowWidth="28240" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
   <si>
     <t>Revenue</t>
   </si>
@@ -300,6 +300,9 @@
   <si>
     <t>POST IPO</t>
   </si>
+  <si>
+    <t>5% of US E-commerce sales</t>
+  </si>
 </sst>
 </file>
 
@@ -416,7 +419,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -609,6 +612,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1011,7 +1018,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1087,7 +1094,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>55</v>
@@ -1113,7 +1120,7 @@
       </c>
       <c r="F5" s="10">
         <f>NPV(F4,D29:GN29)</f>
-        <v>13616.539340653655</v>
+        <v>31981.344905493952</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>57</v>
@@ -1137,7 +1144,7 @@
       </c>
       <c r="F6" s="12">
         <f>F5+C5</f>
-        <v>14519.539340653655</v>
+        <v>32884.344905493956</v>
       </c>
       <c r="I6" s="18"/>
     </row>
@@ -1158,11 +1165,11 @@
       </c>
       <c r="F7" s="40">
         <f>F6/C3</f>
-        <v>119.653716273526</v>
+        <v>270.99579283109722</v>
       </c>
       <c r="G7" s="18">
         <f>F7/C2-1</f>
-        <v>-5.0065764738599472E-2</v>
+        <v>1.1514432584240808</v>
       </c>
     </row>
     <row r="8" spans="1:113" x14ac:dyDescent="0.15">
@@ -1954,24 +1961,24 @@
         <v>3.6179999999999999</v>
       </c>
       <c r="D15" s="80">
-        <f>C15*1.4</f>
-        <v>5.0651999999999999</v>
+        <f>C15*1.45</f>
+        <v>5.2460999999999993</v>
       </c>
       <c r="E15" s="80">
-        <f>D15*1.35</f>
-        <v>6.8380200000000002</v>
+        <f t="shared" ref="E15:H15" si="1">D15*1.45</f>
+        <v>7.606844999999999</v>
       </c>
       <c r="F15" s="80">
-        <f>E15*1.3</f>
-        <v>8.8894260000000003</v>
+        <f t="shared" si="1"/>
+        <v>11.029925249999998</v>
       </c>
       <c r="G15" s="80">
-        <f>F15*1.25</f>
-        <v>11.1117825</v>
+        <f t="shared" si="1"/>
+        <v>15.993391612499996</v>
       </c>
       <c r="H15" s="80">
-        <f>G15*1.2</f>
-        <v>13.334139</v>
+        <f t="shared" si="1"/>
+        <v>23.190417838124993</v>
       </c>
       <c r="I15" s="80"/>
       <c r="J15" s="80"/>
@@ -2092,24 +2099,24 @@
         <v>140.83139856274184</v>
       </c>
       <c r="D16" s="15">
-        <f>C16*1.1</f>
-        <v>154.91453841901603</v>
+        <f>C16*1.05</f>
+        <v>147.87296849087895</v>
       </c>
       <c r="E16" s="15">
-        <f t="shared" ref="E16:H16" si="1">D16*1.1</f>
-        <v>170.40599226091763</v>
+        <f t="shared" ref="E16:H16" si="2">D16*1.05</f>
+        <v>155.2666169154229</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" si="1"/>
-        <v>187.44659148700941</v>
+        <f t="shared" si="2"/>
+        <v>163.02994776119405</v>
       </c>
       <c r="G16" s="15">
-        <f t="shared" si="1"/>
-        <v>206.19125063571036</v>
+        <f t="shared" si="2"/>
+        <v>171.18144514925376</v>
       </c>
       <c r="H16" s="15">
-        <f t="shared" si="1"/>
-        <v>226.81037569928142</v>
+        <f t="shared" si="2"/>
+        <v>179.74051740671646</v>
       </c>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
@@ -2239,63 +2246,63 @@
       </c>
       <c r="D18" s="44">
         <f>D16*D15</f>
-        <v>784.67311999999993</v>
+        <v>775.75637999999992</v>
       </c>
       <c r="E18" s="44">
         <f>E16*E15</f>
-        <v>1165.2395832</v>
+        <v>1181.08908855</v>
       </c>
       <c r="F18" s="44">
-        <f t="shared" ref="E18:G18" si="2">F16*F15</f>
-        <v>1666.2926039760002</v>
+        <f t="shared" ref="F18:G18" si="3">F16*F15</f>
+        <v>1798.2081373173748</v>
       </c>
       <c r="G18" s="44">
-        <f t="shared" si="2"/>
-        <v>2291.1523304670004</v>
+        <f t="shared" si="3"/>
+        <v>2737.7718890657034</v>
       </c>
       <c r="H18" s="44">
         <f>H16*H15</f>
-        <v>3024.3210762164408</v>
+        <v>4168.2577011025332</v>
       </c>
       <c r="I18" s="44">
-        <f>H18*1.2</f>
-        <v>3629.1852914597289</v>
+        <f>H18*1.25</f>
+        <v>5210.322126378167</v>
       </c>
       <c r="J18" s="44">
-        <f t="shared" ref="J18:M18" si="3">I18*1.2</f>
-        <v>4355.0223497516745</v>
+        <f t="shared" ref="J18:M18" si="4">I18*1.25</f>
+        <v>6512.9026579727088</v>
       </c>
       <c r="K18" s="44">
-        <f t="shared" si="3"/>
-        <v>5226.0268197020096</v>
+        <f t="shared" si="4"/>
+        <v>8141.1283224658855</v>
       </c>
       <c r="L18" s="44">
-        <f t="shared" si="3"/>
-        <v>6271.2321836424117</v>
+        <f t="shared" si="4"/>
+        <v>10176.410403082356</v>
       </c>
       <c r="M18" s="44">
-        <f t="shared" si="3"/>
-        <v>7525.4786203708936</v>
+        <f t="shared" si="4"/>
+        <v>12720.513003852946</v>
       </c>
       <c r="N18" s="44">
         <f>M18*1.1</f>
-        <v>8278.0264824079841</v>
+        <v>13992.564304238242</v>
       </c>
       <c r="O18" s="44">
-        <f t="shared" ref="O18:R18" si="4">N18*1.1</f>
-        <v>9105.8291306487827</v>
+        <f t="shared" ref="O18:R18" si="5">N18*1.1</f>
+        <v>15391.820734662067</v>
       </c>
       <c r="P18" s="44">
-        <f t="shared" si="4"/>
-        <v>10016.412043713663</v>
+        <f t="shared" si="5"/>
+        <v>16931.002808128276</v>
       </c>
       <c r="Q18" s="44">
-        <f t="shared" si="4"/>
-        <v>11018.053248085029</v>
+        <f t="shared" si="5"/>
+        <v>18624.103088941105</v>
       </c>
       <c r="R18" s="44">
-        <f t="shared" si="4"/>
-        <v>12119.858572893532</v>
+        <f t="shared" si="5"/>
+        <v>20486.513397835217</v>
       </c>
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
@@ -2406,64 +2413,64 @@
         <v>348.666</v>
       </c>
       <c r="D19" s="22">
-        <f t="shared" ref="D19:E19" si="5">D18-D20</f>
-        <v>536.94564000000003</v>
+        <f t="shared" ref="D19:E19" si="6">D18-D20</f>
+        <v>530.84398500000009</v>
       </c>
       <c r="E19" s="22">
-        <f t="shared" si="5"/>
-        <v>797.36427540000022</v>
+        <f t="shared" si="6"/>
+        <v>808.20996716250022</v>
       </c>
       <c r="F19" s="22">
-        <f t="shared" ref="F19:N19" si="6">F18-F20</f>
-        <v>1140.2309138220003</v>
+        <f t="shared" ref="F19:N19" si="7">F18-F20</f>
+        <v>1230.4996750049063</v>
       </c>
       <c r="G19" s="22">
-        <f t="shared" si="6"/>
-        <v>1567.8175065052505</v>
+        <f t="shared" si="7"/>
+        <v>1873.4357551949702</v>
       </c>
       <c r="H19" s="22">
         <f>H18-H20</f>
-        <v>2069.519108586931</v>
+        <v>2852.3059372843418</v>
       </c>
       <c r="I19" s="22">
-        <f t="shared" si="6"/>
-        <v>2483.4229303043171</v>
+        <f t="shared" si="7"/>
+        <v>3565.3824216054277</v>
       </c>
       <c r="J19" s="22">
-        <f t="shared" si="6"/>
-        <v>2980.1075163651803</v>
+        <f t="shared" si="7"/>
+        <v>4456.728027006784</v>
       </c>
       <c r="K19" s="22">
-        <f t="shared" si="6"/>
-        <v>3576.129019638217</v>
+        <f t="shared" si="7"/>
+        <v>5570.9100337584805</v>
       </c>
       <c r="L19" s="22">
-        <f t="shared" si="6"/>
-        <v>4291.35482356586</v>
+        <f t="shared" si="7"/>
+        <v>6963.6375421981002</v>
       </c>
       <c r="M19" s="22">
-        <f t="shared" si="6"/>
-        <v>5149.6257882790323</v>
+        <f t="shared" si="7"/>
+        <v>8704.5469277476259</v>
       </c>
       <c r="N19" s="22">
-        <f t="shared" si="6"/>
-        <v>5664.5883671069359</v>
+        <f t="shared" si="7"/>
+        <v>9575.0016205223892</v>
       </c>
       <c r="O19" s="22">
-        <f t="shared" ref="O19:R19" si="7">O18-O20</f>
-        <v>6231.0472038176295</v>
+        <f t="shared" ref="O19:R19" si="8">O18-O20</f>
+        <v>10532.501782574629</v>
       </c>
       <c r="P19" s="22">
-        <f t="shared" si="7"/>
-        <v>6854.1519241993938</v>
+        <f t="shared" si="8"/>
+        <v>11585.751960832094</v>
       </c>
       <c r="Q19" s="22">
-        <f t="shared" si="7"/>
-        <v>7539.5671166193333</v>
+        <f t="shared" si="8"/>
+        <v>12744.327156915304</v>
       </c>
       <c r="R19" s="22">
-        <f t="shared" si="7"/>
-        <v>8293.5238282812661</v>
+        <f t="shared" si="8"/>
+        <v>14018.759872606835</v>
       </c>
       <c r="S19" s="37"/>
       <c r="T19" s="37"/>
@@ -2566,72 +2573,72 @@
         <v>2</v>
       </c>
       <c r="B20" s="25">
-        <f t="shared" ref="B20:C20" si="8">B18-B19</f>
+        <f t="shared" ref="B20:C20" si="9">B18-B19</f>
         <v>54.39500000000001</v>
       </c>
       <c r="C20" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>160.86199999999991</v>
       </c>
       <c r="D20" s="22">
-        <f t="shared" ref="D20:R20" si="9">D18*C33</f>
-        <v>247.72747999999987</v>
+        <f t="shared" ref="D20:R20" si="10">D18*C33</f>
+        <v>244.91239499999986</v>
       </c>
       <c r="E20" s="22">
-        <f t="shared" si="9"/>
-        <v>367.8753077999998</v>
+        <f t="shared" si="10"/>
+        <v>372.87912138749982</v>
       </c>
       <c r="F20" s="22">
-        <f t="shared" si="9"/>
-        <v>526.06169015399985</v>
+        <f t="shared" si="10"/>
+        <v>567.70846231246844</v>
       </c>
       <c r="G20" s="22">
-        <f t="shared" si="9"/>
-        <v>723.33482396174986</v>
+        <f t="shared" si="10"/>
+        <v>864.33613387073331</v>
       </c>
       <c r="H20" s="22">
         <f>H18*G33</f>
-        <v>954.80196762950982</v>
+        <v>1315.9517638181915</v>
       </c>
       <c r="I20" s="22">
-        <f t="shared" si="9"/>
-        <v>1145.7623611554118</v>
+        <f t="shared" si="10"/>
+        <v>1644.9397047727393</v>
       </c>
       <c r="J20" s="22">
-        <f t="shared" si="9"/>
-        <v>1374.9148333864941</v>
+        <f t="shared" si="10"/>
+        <v>2056.1746309659243</v>
       </c>
       <c r="K20" s="22">
-        <f t="shared" si="9"/>
-        <v>1649.8978000637928</v>
+        <f t="shared" si="10"/>
+        <v>2570.218288707405</v>
       </c>
       <c r="L20" s="22">
-        <f t="shared" si="9"/>
-        <v>1979.8773600765517</v>
+        <f t="shared" si="10"/>
+        <v>3212.7728608842563</v>
       </c>
       <c r="M20" s="22">
-        <f t="shared" si="9"/>
-        <v>2375.8528320918617</v>
+        <f t="shared" si="10"/>
+        <v>4015.9660761053206</v>
       </c>
       <c r="N20" s="22">
-        <f t="shared" si="9"/>
-        <v>2613.4381153010481</v>
+        <f t="shared" si="10"/>
+        <v>4417.5626837158525</v>
       </c>
       <c r="O20" s="22">
-        <f t="shared" si="9"/>
-        <v>2874.7819268311532</v>
+        <f t="shared" si="10"/>
+        <v>4859.3189520874384</v>
       </c>
       <c r="P20" s="22">
-        <f t="shared" si="9"/>
-        <v>3162.2601195142688</v>
+        <f t="shared" si="10"/>
+        <v>5345.2508472961827</v>
       </c>
       <c r="Q20" s="22">
-        <f t="shared" si="9"/>
-        <v>3478.486131465696</v>
+        <f t="shared" si="10"/>
+        <v>5879.7759320258019</v>
       </c>
       <c r="R20" s="22">
-        <f t="shared" si="9"/>
-        <v>3826.3347446122657</v>
+        <f t="shared" si="10"/>
+        <v>6467.7535252283824</v>
       </c>
       <c r="S20" s="37"/>
       <c r="T20" s="37"/>
@@ -2742,64 +2749,64 @@
         <v>123</v>
       </c>
       <c r="D21" s="22">
-        <f>C21*1.4</f>
-        <v>172.2</v>
+        <f>SUM(Reports!J14:M14)</f>
+        <v>161.80000000000001</v>
       </c>
       <c r="E21" s="22">
-        <f t="shared" ref="E21:H21" si="10">D21*1.4</f>
-        <v>241.07999999999996</v>
+        <f>D21*1.3</f>
+        <v>210.34000000000003</v>
       </c>
       <c r="F21" s="22">
-        <f t="shared" si="10"/>
-        <v>337.51199999999994</v>
+        <f t="shared" ref="F21:H21" si="11">E21*1.3</f>
+        <v>273.44200000000006</v>
       </c>
       <c r="G21" s="22">
-        <f t="shared" si="10"/>
-        <v>472.51679999999988</v>
+        <f t="shared" si="11"/>
+        <v>355.47460000000012</v>
       </c>
       <c r="H21" s="22">
-        <f t="shared" si="10"/>
-        <v>661.52351999999973</v>
+        <f t="shared" si="11"/>
+        <v>462.11698000000018</v>
       </c>
       <c r="I21" s="22">
         <f>H21*1.2</f>
-        <v>793.82822399999964</v>
+        <v>554.54037600000015</v>
       </c>
       <c r="J21" s="22">
-        <f t="shared" ref="J21" si="11">I21*1.1</f>
-        <v>873.21104639999965</v>
+        <f t="shared" ref="J21:M21" si="12">I21*1.2</f>
+        <v>665.44845120000014</v>
       </c>
       <c r="K21" s="22">
-        <f t="shared" ref="K21" si="12">J21*1.1</f>
-        <v>960.53215103999969</v>
+        <f t="shared" si="12"/>
+        <v>798.53814144000012</v>
       </c>
       <c r="L21" s="22">
-        <f t="shared" ref="L21" si="13">K21*1.1</f>
-        <v>1056.5853661439996</v>
+        <f t="shared" si="12"/>
+        <v>958.24576972800014</v>
       </c>
       <c r="M21" s="22">
-        <f t="shared" ref="M21" si="14">L21*1.1</f>
-        <v>1162.2439027583996</v>
+        <f t="shared" si="12"/>
+        <v>1149.8949236736</v>
       </c>
       <c r="N21" s="22">
         <f>M21*1.05</f>
-        <v>1220.3560978963196</v>
+        <v>1207.3896698572801</v>
       </c>
       <c r="O21" s="22">
         <f>N21*1.05</f>
-        <v>1281.3739027911356</v>
+        <v>1267.7591533501441</v>
       </c>
       <c r="P21" s="22">
-        <f t="shared" ref="P21:R21" si="15">O21*1.05</f>
-        <v>1345.4425979306925</v>
+        <f t="shared" ref="P21:R21" si="13">O21*1.05</f>
+        <v>1331.1471110176512</v>
       </c>
       <c r="Q21" s="22">
-        <f t="shared" si="15"/>
-        <v>1412.7147278272271</v>
+        <f t="shared" si="13"/>
+        <v>1397.7044665685339</v>
       </c>
       <c r="R21" s="22">
-        <f t="shared" si="15"/>
-        <v>1483.3504642185885</v>
+        <f t="shared" si="13"/>
+        <v>1467.5896898969606</v>
       </c>
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
@@ -2910,64 +2917,64 @@
         <v>25</v>
       </c>
       <c r="D22" s="22">
-        <f>C22*1.35</f>
-        <v>33.75</v>
+        <f>SUM(Reports!J15:M15)</f>
+        <v>105</v>
       </c>
       <c r="E22" s="22">
-        <f t="shared" ref="E22:H22" si="16">D22*1.35</f>
-        <v>45.5625</v>
+        <f>D22*1.4</f>
+        <v>147</v>
       </c>
       <c r="F22" s="22">
-        <f t="shared" si="16"/>
-        <v>61.509375000000006</v>
+        <f t="shared" ref="F22:H22" si="14">E22*1.4</f>
+        <v>205.79999999999998</v>
       </c>
       <c r="G22" s="22">
-        <f t="shared" si="16"/>
-        <v>83.037656250000012</v>
+        <f t="shared" si="14"/>
+        <v>288.11999999999995</v>
       </c>
       <c r="H22" s="22">
-        <f t="shared" si="16"/>
-        <v>112.10083593750002</v>
+        <f t="shared" si="14"/>
+        <v>403.36799999999988</v>
       </c>
       <c r="I22" s="22">
-        <f>H22*1.15</f>
-        <v>128.91596132812501</v>
+        <f>H22*1.25</f>
+        <v>504.20999999999987</v>
       </c>
       <c r="J22" s="22">
-        <f t="shared" ref="J22:M22" si="17">I22*1.15</f>
-        <v>148.25335552734376</v>
+        <f t="shared" ref="J22:M22" si="15">I22*1.25</f>
+        <v>630.26249999999982</v>
       </c>
       <c r="K22" s="22">
-        <f t="shared" si="17"/>
-        <v>170.49135885644532</v>
+        <f t="shared" si="15"/>
+        <v>787.82812499999977</v>
       </c>
       <c r="L22" s="22">
-        <f t="shared" si="17"/>
-        <v>196.06506268491211</v>
+        <f t="shared" si="15"/>
+        <v>984.78515624999977</v>
       </c>
       <c r="M22" s="22">
-        <f t="shared" si="17"/>
-        <v>225.4748220876489</v>
+        <f t="shared" si="15"/>
+        <v>1230.9814453124998</v>
       </c>
       <c r="N22" s="22">
         <f>M22*0.95</f>
-        <v>214.20108098326645</v>
+        <v>1169.4323730468748</v>
       </c>
       <c r="O22" s="22">
-        <f>N22*0.95</f>
-        <v>203.49102693410313</v>
+        <f t="shared" ref="O22:R22" si="16">N22*0.95</f>
+        <v>1110.960754394531</v>
       </c>
       <c r="P22" s="22">
-        <f t="shared" ref="P22:R22" si="18">O22*0.95</f>
-        <v>193.31647558739797</v>
+        <f t="shared" si="16"/>
+        <v>1055.4127166748044</v>
       </c>
       <c r="Q22" s="22">
-        <f t="shared" si="18"/>
-        <v>183.65065180802807</v>
+        <f t="shared" si="16"/>
+        <v>1002.6420808410642</v>
       </c>
       <c r="R22" s="22">
-        <f t="shared" si="18"/>
-        <v>174.46811921762665</v>
+        <f t="shared" si="16"/>
+        <v>952.50997679901093</v>
       </c>
       <c r="S22" s="37"/>
       <c r="T22" s="37"/>
@@ -3078,64 +3085,64 @@
         <v>121</v>
       </c>
       <c r="D23" s="22">
-        <f>C23*1.2</f>
-        <v>145.19999999999999</v>
+        <f>SUM(Reports!J16:M16)</f>
+        <v>150.5</v>
       </c>
       <c r="E23" s="22">
-        <f t="shared" ref="E23:H23" si="19">D23*1.2</f>
-        <v>174.23999999999998</v>
+        <f>D23*1.25</f>
+        <v>188.125</v>
       </c>
       <c r="F23" s="22">
+        <f t="shared" ref="F23:H23" si="17">E23*1.25</f>
+        <v>235.15625</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="17"/>
+        <v>293.9453125</v>
+      </c>
+      <c r="H23" s="22">
+        <f t="shared" si="17"/>
+        <v>367.431640625</v>
+      </c>
+      <c r="I23" s="22">
+        <f>H23*1.1</f>
+        <v>404.17480468750006</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" ref="J23:M23" si="18">I23*1.1</f>
+        <v>444.59228515625011</v>
+      </c>
+      <c r="K23" s="22">
+        <f t="shared" si="18"/>
+        <v>489.05151367187517</v>
+      </c>
+      <c r="L23" s="22">
+        <f t="shared" si="18"/>
+        <v>537.95666503906273</v>
+      </c>
+      <c r="M23" s="22">
+        <f t="shared" si="18"/>
+        <v>591.75233154296905</v>
+      </c>
+      <c r="N23" s="22">
+        <f t="shared" ref="N23:R23" si="19">M23*0.98</f>
+        <v>579.91728491210961</v>
+      </c>
+      <c r="O23" s="22">
         <f t="shared" si="19"/>
-        <v>209.08799999999997</v>
-      </c>
-      <c r="G23" s="22">
+        <v>568.31893921386745</v>
+      </c>
+      <c r="P23" s="22">
         <f t="shared" si="19"/>
-        <v>250.90559999999994</v>
-      </c>
-      <c r="H23" s="22">
+        <v>556.95256042959011</v>
+      </c>
+      <c r="Q23" s="22">
         <f t="shared" si="19"/>
-        <v>301.0867199999999</v>
-      </c>
-      <c r="I23" s="22">
-        <f>H23*0.95</f>
-        <v>286.03238399999987</v>
-      </c>
-      <c r="J23" s="22">
-        <f t="shared" ref="J23:M23" si="20">I23*0.95</f>
-        <v>271.73076479999986</v>
-      </c>
-      <c r="K23" s="22">
-        <f t="shared" si="20"/>
-        <v>258.14422655999988</v>
-      </c>
-      <c r="L23" s="22">
-        <f t="shared" si="20"/>
-        <v>245.23701523199986</v>
-      </c>
-      <c r="M23" s="22">
-        <f t="shared" si="20"/>
-        <v>232.97516447039985</v>
-      </c>
-      <c r="N23" s="22">
-        <f t="shared" ref="N23:R23" si="21">M23*0.98</f>
-        <v>228.31566118099184</v>
-      </c>
-      <c r="O23" s="22">
-        <f t="shared" si="21"/>
-        <v>223.74934795737201</v>
-      </c>
-      <c r="P23" s="22">
-        <f t="shared" si="21"/>
-        <v>219.27436099822455</v>
-      </c>
-      <c r="Q23" s="22">
-        <f t="shared" si="21"/>
-        <v>214.88887377826006</v>
+        <v>545.8135092209983</v>
       </c>
       <c r="R23" s="22">
-        <f t="shared" si="21"/>
-        <v>210.59109630269487</v>
+        <f t="shared" si="19"/>
+        <v>534.8972390365783</v>
       </c>
       <c r="S23" s="37"/>
       <c r="T23" s="37"/>
@@ -3238,72 +3245,72 @@
         <v>6</v>
       </c>
       <c r="B24" s="25">
-        <f t="shared" ref="B24:C24" si="22">SUM(B21:B23)</f>
+        <f t="shared" ref="B24:C24" si="20">SUM(B21:B23)</f>
         <v>181</v>
       </c>
       <c r="C24" s="25">
+        <f t="shared" si="20"/>
+        <v>269</v>
+      </c>
+      <c r="D24" s="22">
+        <f t="shared" ref="D24:E24" si="21">SUM(D21:D23)</f>
+        <v>417.3</v>
+      </c>
+      <c r="E24" s="22">
+        <f t="shared" si="21"/>
+        <v>545.46500000000003</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" ref="F24:I24" si="22">SUM(F21:F23)</f>
+        <v>714.39825000000008</v>
+      </c>
+      <c r="G24" s="22">
         <f t="shared" si="22"/>
-        <v>269</v>
-      </c>
-      <c r="D24" s="22">
-        <f t="shared" ref="D24:E24" si="23">SUM(D21:D23)</f>
-        <v>351.15</v>
-      </c>
-      <c r="E24" s="22">
+        <v>937.53991250000013</v>
+      </c>
+      <c r="H24" s="22">
+        <f t="shared" si="22"/>
+        <v>1232.9166206250002</v>
+      </c>
+      <c r="I24" s="22">
+        <f t="shared" si="22"/>
+        <v>1462.9251806875</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" ref="J24:M24" si="23">SUM(J21:J23)</f>
+        <v>1740.3032363562502</v>
+      </c>
+      <c r="K24" s="22">
         <f t="shared" si="23"/>
-        <v>460.88249999999994</v>
-      </c>
-      <c r="F24" s="22">
-        <f t="shared" ref="F24:I24" si="24">SUM(F21:F23)</f>
-        <v>608.10937499999989</v>
-      </c>
-      <c r="G24" s="22">
-        <f t="shared" si="24"/>
-        <v>806.46005624999987</v>
-      </c>
-      <c r="H24" s="22">
-        <f t="shared" si="24"/>
-        <v>1074.7110759374996</v>
-      </c>
-      <c r="I24" s="22">
-        <f t="shared" si="24"/>
-        <v>1208.7765693281244</v>
-      </c>
-      <c r="J24" s="22">
-        <f t="shared" ref="J24:M24" si="25">SUM(J21:J23)</f>
-        <v>1293.1951667273433</v>
-      </c>
-      <c r="K24" s="22">
+        <v>2075.4177801118749</v>
+      </c>
+      <c r="L24" s="22">
+        <f t="shared" si="23"/>
+        <v>2480.9875910170626</v>
+      </c>
+      <c r="M24" s="22">
+        <f t="shared" si="23"/>
+        <v>2972.6287005290687</v>
+      </c>
+      <c r="N24" s="22">
+        <f t="shared" ref="N24" si="24">SUM(N21:N23)</f>
+        <v>2956.7393278162644</v>
+      </c>
+      <c r="O24" s="22">
+        <f t="shared" ref="O24:R24" si="25">SUM(O21:O23)</f>
+        <v>2947.0388469585423</v>
+      </c>
+      <c r="P24" s="22">
         <f t="shared" si="25"/>
-        <v>1389.1677364564448</v>
-      </c>
-      <c r="L24" s="22">
+        <v>2943.5123881220456</v>
+      </c>
+      <c r="Q24" s="22">
         <f t="shared" si="25"/>
-        <v>1497.8874440609115</v>
-      </c>
-      <c r="M24" s="22">
+        <v>2946.1600566305965</v>
+      </c>
+      <c r="R24" s="22">
         <f t="shared" si="25"/>
-        <v>1620.6938893164483</v>
-      </c>
-      <c r="N24" s="22">
-        <f t="shared" ref="N24" si="26">SUM(N21:N23)</f>
-        <v>1662.8728400605778</v>
-      </c>
-      <c r="O24" s="22">
-        <f t="shared" ref="O24:R24" si="27">SUM(O21:O23)</f>
-        <v>1708.6142776826107</v>
-      </c>
-      <c r="P24" s="22">
-        <f t="shared" si="27"/>
-        <v>1758.0334345163151</v>
-      </c>
-      <c r="Q24" s="22">
-        <f t="shared" si="27"/>
-        <v>1811.254253413515</v>
-      </c>
-      <c r="R24" s="22">
-        <f t="shared" si="27"/>
-        <v>1868.4096797389102</v>
+        <v>2954.9969057325502</v>
       </c>
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
@@ -3406,72 +3413,72 @@
         <v>7</v>
       </c>
       <c r="B25" s="25">
-        <f t="shared" ref="B25:C25" si="28">B20-B24</f>
+        <f t="shared" ref="B25:C25" si="26">B20-B24</f>
         <v>-126.60499999999999</v>
       </c>
       <c r="C25" s="25">
+        <f t="shared" si="26"/>
+        <v>-108.13800000000009</v>
+      </c>
+      <c r="D25" s="22">
+        <f t="shared" ref="D25:E25" si="27">D20-D24</f>
+        <v>-172.38760500000015</v>
+      </c>
+      <c r="E25" s="22">
+        <f t="shared" si="27"/>
+        <v>-172.58587861250021</v>
+      </c>
+      <c r="F25" s="22">
+        <f t="shared" ref="F25:N25" si="28">F20-F24</f>
+        <v>-146.68978768753163</v>
+      </c>
+      <c r="G25" s="22">
         <f t="shared" si="28"/>
-        <v>-108.13800000000009</v>
-      </c>
-      <c r="D25" s="22">
-        <f t="shared" ref="D25:E25" si="29">D20-D24</f>
-        <v>-103.42252000000011</v>
-      </c>
-      <c r="E25" s="22">
+        <v>-73.203778629266822</v>
+      </c>
+      <c r="H25" s="22">
+        <f t="shared" si="28"/>
+        <v>83.035143193191288</v>
+      </c>
+      <c r="I25" s="22">
+        <f t="shared" si="28"/>
+        <v>182.01452408523937</v>
+      </c>
+      <c r="J25" s="22">
+        <f t="shared" si="28"/>
+        <v>315.8713946096741</v>
+      </c>
+      <c r="K25" s="22">
+        <f t="shared" si="28"/>
+        <v>494.80050859553012</v>
+      </c>
+      <c r="L25" s="22">
+        <f t="shared" si="28"/>
+        <v>731.78526986719362</v>
+      </c>
+      <c r="M25" s="22">
+        <f t="shared" si="28"/>
+        <v>1043.3373755762518</v>
+      </c>
+      <c r="N25" s="22">
+        <f t="shared" si="28"/>
+        <v>1460.823355899588</v>
+      </c>
+      <c r="O25" s="22">
+        <f t="shared" ref="O25:R25" si="29">O20-O24</f>
+        <v>1912.2801051288961</v>
+      </c>
+      <c r="P25" s="22">
         <f t="shared" si="29"/>
-        <v>-93.007192200000134</v>
-      </c>
-      <c r="F25" s="22">
-        <f t="shared" ref="F25:N25" si="30">F20-F24</f>
-        <v>-82.047684846000038</v>
-      </c>
-      <c r="G25" s="22">
-        <f t="shared" si="30"/>
-        <v>-83.125232288250004</v>
-      </c>
-      <c r="H25" s="22">
-        <f t="shared" si="30"/>
-        <v>-119.90910830798975</v>
-      </c>
-      <c r="I25" s="22">
-        <f t="shared" si="30"/>
-        <v>-63.014208172712642</v>
-      </c>
-      <c r="J25" s="22">
-        <f t="shared" si="30"/>
-        <v>81.719666659150789</v>
-      </c>
-      <c r="K25" s="22">
-        <f t="shared" si="30"/>
-        <v>260.73006360734803</v>
-      </c>
-      <c r="L25" s="22">
-        <f t="shared" si="30"/>
-        <v>481.98991601564012</v>
-      </c>
-      <c r="M25" s="22">
-        <f t="shared" si="30"/>
-        <v>755.15894277541338</v>
-      </c>
-      <c r="N25" s="22">
-        <f t="shared" si="30"/>
-        <v>950.56527524047033</v>
-      </c>
-      <c r="O25" s="22">
-        <f t="shared" ref="O25:R25" si="31">O20-O24</f>
-        <v>1166.1676491485425</v>
-      </c>
-      <c r="P25" s="22">
-        <f t="shared" si="31"/>
-        <v>1404.2266849979537</v>
+        <v>2401.738459174137</v>
       </c>
       <c r="Q25" s="22">
-        <f t="shared" si="31"/>
-        <v>1667.2318780521809</v>
+        <f t="shared" si="29"/>
+        <v>2933.6158753952054</v>
       </c>
       <c r="R25" s="22">
-        <f t="shared" si="31"/>
-        <v>1957.9250648733555</v>
+        <f t="shared" si="29"/>
+        <v>3512.7566194958322</v>
       </c>
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
@@ -3582,64 +3589,64 @@
         <v>-4</v>
       </c>
       <c r="D26" s="22">
-        <f t="shared" ref="D26:R26" si="32">C43*$F$3</f>
+        <f t="shared" ref="D26:R26" si="30">C43*$F$3</f>
         <v>9.4</v>
       </c>
       <c r="E26" s="22">
-        <f t="shared" si="32"/>
-        <v>7.5195495999999977</v>
+        <f t="shared" si="30"/>
+        <v>6.1402478999999976</v>
       </c>
       <c r="F26" s="22">
-        <f t="shared" si="32"/>
-        <v>5.8097967479999957</v>
+        <f t="shared" si="30"/>
+        <v>2.8113352857499927</v>
       </c>
       <c r="G26" s="22">
-        <f t="shared" si="32"/>
-        <v>4.2850389860399947</v>
+        <f t="shared" si="30"/>
+        <v>-6.6233762285639847E-2</v>
       </c>
       <c r="H26" s="22">
-        <f t="shared" si="32"/>
-        <v>2.7082351199957944</v>
+        <f t="shared" si="30"/>
+        <v>-1.531634010116689</v>
       </c>
       <c r="I26" s="22">
-        <f t="shared" si="32"/>
-        <v>0.36421765623591484</v>
+        <f t="shared" si="30"/>
+        <v>-6.4570844821346327E-2</v>
       </c>
       <c r="J26" s="22">
-        <f t="shared" si="32"/>
-        <v>-0.88878215409361971</v>
+        <f t="shared" si="30"/>
+        <v>3.2105283135061784</v>
       </c>
       <c r="K26" s="22">
-        <f t="shared" si="32"/>
-        <v>0.56617376699740951</v>
+        <f t="shared" si="30"/>
+        <v>8.9540029261234242</v>
       </c>
       <c r="L26" s="22">
-        <f t="shared" si="32"/>
-        <v>5.269506039735627</v>
+        <f t="shared" si="30"/>
+        <v>18.021584133513187</v>
       </c>
       <c r="M26" s="22">
-        <f t="shared" si="32"/>
-        <v>14.040175636732391</v>
+        <f t="shared" si="30"/>
+        <v>31.518107505525915</v>
       </c>
       <c r="N26" s="22">
-        <f t="shared" si="32"/>
-        <v>27.885759768151015</v>
+        <f t="shared" si="30"/>
+        <v>50.865506200997913</v>
       </c>
       <c r="O26" s="22">
-        <f t="shared" si="32"/>
-        <v>45.497878398306206</v>
+        <f t="shared" si="30"/>
+        <v>78.075905718808471</v>
       </c>
       <c r="P26" s="22">
-        <f t="shared" si="32"/>
-        <v>67.307857894149478</v>
+        <f t="shared" si="30"/>
+        <v>113.90231391406715</v>
       </c>
       <c r="Q26" s="22">
-        <f t="shared" si="32"/>
-        <v>93.795479666207342</v>
+        <f t="shared" si="30"/>
+        <v>159.18384782965484</v>
       </c>
       <c r="R26" s="22">
-        <f t="shared" si="32"/>
-        <v>125.49397210513833</v>
+        <f t="shared" si="30"/>
+        <v>214.8542428477023</v>
       </c>
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
@@ -3742,72 +3749,72 @@
         <v>9</v>
       </c>
       <c r="B27" s="25">
-        <f t="shared" ref="B27:C27" si="33">B25+B26</f>
+        <f t="shared" ref="B27:C27" si="31">B25+B26</f>
         <v>-119.60499999999999</v>
       </c>
       <c r="C27" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-112.13800000000009</v>
       </c>
       <c r="D27" s="22">
-        <f t="shared" ref="D27:E27" si="34">D25+D26</f>
-        <v>-94.0225200000001</v>
+        <f t="shared" ref="D27:E27" si="32">D25+D26</f>
+        <v>-162.98760500000014</v>
       </c>
       <c r="E27" s="22">
-        <f t="shared" si="34"/>
-        <v>-85.487642600000129</v>
+        <f t="shared" si="32"/>
+        <v>-166.44563071250022</v>
       </c>
       <c r="F27" s="22">
-        <f t="shared" ref="F27" si="35">F25+F26</f>
-        <v>-76.237888098000042</v>
+        <f t="shared" ref="F27" si="33">F25+F26</f>
+        <v>-143.87845240178163</v>
       </c>
       <c r="G27" s="22">
-        <f t="shared" ref="G27" si="36">G25+G26</f>
-        <v>-78.840193302210011</v>
+        <f t="shared" ref="G27" si="34">G25+G26</f>
+        <v>-73.270012391552456</v>
       </c>
       <c r="H27" s="22">
-        <f t="shared" ref="H27" si="37">H25+H26</f>
-        <v>-117.20087318799396</v>
+        <f t="shared" ref="H27" si="35">H25+H26</f>
+        <v>81.503509183074598</v>
       </c>
       <c r="I27" s="22">
-        <f t="shared" ref="I27" si="38">I25+I26</f>
-        <v>-62.649990516476727</v>
+        <f t="shared" ref="I27" si="36">I25+I26</f>
+        <v>181.94995324041804</v>
       </c>
       <c r="J27" s="22">
-        <f t="shared" ref="J27" si="39">J25+J26</f>
-        <v>80.83088450505717</v>
+        <f t="shared" ref="J27" si="37">J25+J26</f>
+        <v>319.08192292318029</v>
       </c>
       <c r="K27" s="22">
-        <f t="shared" ref="K27" si="40">K25+K26</f>
-        <v>261.29623737434542</v>
+        <f t="shared" ref="K27" si="38">K25+K26</f>
+        <v>503.75451152165357</v>
       </c>
       <c r="L27" s="22">
-        <f t="shared" ref="L27" si="41">L25+L26</f>
-        <v>487.25942205537575</v>
+        <f t="shared" ref="L27" si="39">L25+L26</f>
+        <v>749.80685400070683</v>
       </c>
       <c r="M27" s="22">
-        <f t="shared" ref="M27:N27" si="42">M25+M26</f>
-        <v>769.19911841214582</v>
+        <f t="shared" ref="M27:N27" si="40">M25+M26</f>
+        <v>1074.8554830817777</v>
       </c>
       <c r="N27" s="22">
-        <f t="shared" si="42"/>
-        <v>978.45103500862137</v>
+        <f t="shared" si="40"/>
+        <v>1511.688862100586</v>
       </c>
       <c r="O27" s="22">
-        <f t="shared" ref="O27:R27" si="43">O25+O26</f>
-        <v>1211.6655275468488</v>
+        <f t="shared" ref="O27:R27" si="41">O25+O26</f>
+        <v>1990.3560108477045</v>
       </c>
       <c r="P27" s="22">
-        <f t="shared" si="43"/>
-        <v>1471.5345428921032</v>
+        <f t="shared" si="41"/>
+        <v>2515.6407730882042</v>
       </c>
       <c r="Q27" s="22">
-        <f t="shared" si="43"/>
-        <v>1761.0273577183882</v>
+        <f t="shared" si="41"/>
+        <v>3092.7997232248604</v>
       </c>
       <c r="R27" s="22">
-        <f t="shared" si="43"/>
-        <v>2083.4190369784938</v>
+        <f t="shared" si="41"/>
+        <v>3727.6108623435343</v>
       </c>
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
@@ -3930,46 +3937,48 @@
         <v>0</v>
       </c>
       <c r="H28" s="22">
-        <v>0</v>
+        <f t="shared" ref="G28:N28" si="42">H27*0.1</f>
+        <v>8.1503509183074598</v>
       </c>
       <c r="I28" s="22">
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>18.194995324041805</v>
       </c>
       <c r="J28" s="22">
-        <f t="shared" ref="J28:N28" si="44">J27*0.1</f>
-        <v>8.0830884505057181</v>
+        <f t="shared" si="42"/>
+        <v>31.908192292318031</v>
       </c>
       <c r="K28" s="22">
-        <f t="shared" si="44"/>
-        <v>26.129623737434542</v>
+        <f t="shared" si="42"/>
+        <v>50.375451152165361</v>
       </c>
       <c r="L28" s="22">
-        <f t="shared" si="44"/>
-        <v>48.725942205537578</v>
+        <f t="shared" si="42"/>
+        <v>74.980685400070683</v>
       </c>
       <c r="M28" s="22">
-        <f t="shared" si="44"/>
-        <v>76.919911841214585</v>
+        <f t="shared" si="42"/>
+        <v>107.48554830817778</v>
       </c>
       <c r="N28" s="22">
-        <f t="shared" si="44"/>
-        <v>97.845103500862137</v>
+        <f t="shared" si="42"/>
+        <v>151.16888621005862</v>
       </c>
       <c r="O28" s="22">
-        <f t="shared" ref="O28:R28" si="45">O27*0.1</f>
-        <v>121.16655275468489</v>
+        <f t="shared" ref="O28:R28" si="43">O27*0.1</f>
+        <v>199.03560108477046</v>
       </c>
       <c r="P28" s="22">
-        <f t="shared" si="45"/>
-        <v>147.15345428921032</v>
+        <f t="shared" si="43"/>
+        <v>251.56407730882043</v>
       </c>
       <c r="Q28" s="22">
-        <f t="shared" si="45"/>
-        <v>176.10273577183884</v>
+        <f t="shared" si="43"/>
+        <v>309.27997232248606</v>
       </c>
       <c r="R28" s="22">
-        <f t="shared" si="45"/>
-        <v>208.34190369784938</v>
+        <f t="shared" si="43"/>
+        <v>372.76108623435346</v>
       </c>
       <c r="S28" s="37"/>
       <c r="T28" s="37"/>
@@ -4076,780 +4085,780 @@
         <v>-119.60499999999999</v>
       </c>
       <c r="C29" s="23">
-        <f t="shared" ref="C29:E29" si="46">C27-C28</f>
+        <f t="shared" ref="C29:E29" si="44">C27-C28</f>
         <v>-112.13800000000009</v>
       </c>
       <c r="D29" s="23">
-        <f t="shared" ref="D29" si="47">D27-D28</f>
-        <v>-94.0225200000001</v>
+        <f t="shared" ref="D29" si="45">D27-D28</f>
+        <v>-162.98760500000014</v>
       </c>
       <c r="E29" s="23">
+        <f t="shared" si="44"/>
+        <v>-166.44563071250022</v>
+      </c>
+      <c r="F29" s="23">
+        <f t="shared" ref="F29:N29" si="46">F27-F28</f>
+        <v>-143.87845240178163</v>
+      </c>
+      <c r="G29" s="23">
         <f t="shared" si="46"/>
-        <v>-85.487642600000129</v>
-      </c>
-      <c r="F29" s="23">
-        <f t="shared" ref="F29:N29" si="48">F27-F28</f>
-        <v>-76.237888098000042</v>
-      </c>
-      <c r="G29" s="23">
+        <v>-73.270012391552456</v>
+      </c>
+      <c r="H29" s="23">
+        <f t="shared" si="46"/>
+        <v>73.353158264767131</v>
+      </c>
+      <c r="I29" s="23">
+        <f t="shared" si="46"/>
+        <v>163.75495791637624</v>
+      </c>
+      <c r="J29" s="23">
+        <f t="shared" si="46"/>
+        <v>287.17373063086228</v>
+      </c>
+      <c r="K29" s="23">
+        <f t="shared" si="46"/>
+        <v>453.37906036948823</v>
+      </c>
+      <c r="L29" s="23">
+        <f t="shared" si="46"/>
+        <v>674.82616860063615</v>
+      </c>
+      <c r="M29" s="23">
+        <f t="shared" si="46"/>
+        <v>967.36993477359988</v>
+      </c>
+      <c r="N29" s="23">
+        <f t="shared" si="46"/>
+        <v>1360.5199758905273</v>
+      </c>
+      <c r="O29" s="23">
+        <f t="shared" ref="O29:R29" si="47">O27-O28</f>
+        <v>1791.3204097629341</v>
+      </c>
+      <c r="P29" s="23">
+        <f t="shared" si="47"/>
+        <v>2264.076695779384</v>
+      </c>
+      <c r="Q29" s="23">
+        <f t="shared" si="47"/>
+        <v>2783.5197509023742</v>
+      </c>
+      <c r="R29" s="23">
+        <f t="shared" si="47"/>
+        <v>3354.8497761091808</v>
+      </c>
+      <c r="S29" s="23">
+        <f t="shared" ref="S29:AX29" si="48">R29*($F$2+1)</f>
+        <v>3371.6240249897264</v>
+      </c>
+      <c r="T29" s="23">
         <f t="shared" si="48"/>
-        <v>-78.840193302210011</v>
-      </c>
-      <c r="H29" s="23">
+        <v>3388.4821451146745</v>
+      </c>
+      <c r="U29" s="23">
         <f t="shared" si="48"/>
-        <v>-117.20087318799396</v>
-      </c>
-      <c r="I29" s="23">
+        <v>3405.4245558402476</v>
+      </c>
+      <c r="V29" s="23">
         <f t="shared" si="48"/>
-        <v>-62.649990516476727</v>
-      </c>
-      <c r="J29" s="23">
+        <v>3422.4516786194486</v>
+      </c>
+      <c r="W29" s="23">
         <f t="shared" si="48"/>
-        <v>72.747796054551458</v>
-      </c>
-      <c r="K29" s="23">
+        <v>3439.5639370125455</v>
+      </c>
+      <c r="X29" s="23">
         <f t="shared" si="48"/>
-        <v>235.16661363691088</v>
-      </c>
-      <c r="L29" s="23">
+        <v>3456.7617566976078</v>
+      </c>
+      <c r="Y29" s="23">
         <f t="shared" si="48"/>
-        <v>438.53347984983816</v>
-      </c>
-      <c r="M29" s="23">
+        <v>3474.0455654810953</v>
+      </c>
+      <c r="Z29" s="23">
         <f t="shared" si="48"/>
-        <v>692.27920657093125</v>
-      </c>
-      <c r="N29" s="23">
+        <v>3491.4157933085003</v>
+      </c>
+      <c r="AA29" s="23">
         <f t="shared" si="48"/>
-        <v>880.60593150775924</v>
-      </c>
-      <c r="O29" s="23">
-        <f t="shared" ref="O29:R29" si="49">O27-O28</f>
-        <v>1090.4989747921638</v>
-      </c>
-      <c r="P29" s="23">
+        <v>3508.8728722750425</v>
+      </c>
+      <c r="AB29" s="23">
+        <f t="shared" si="48"/>
+        <v>3526.4172366364173</v>
+      </c>
+      <c r="AC29" s="23">
+        <f t="shared" si="48"/>
+        <v>3544.0493228195992</v>
+      </c>
+      <c r="AD29" s="23">
+        <f t="shared" si="48"/>
+        <v>3561.7695694336967</v>
+      </c>
+      <c r="AE29" s="23">
+        <f t="shared" si="48"/>
+        <v>3579.5784172808649</v>
+      </c>
+      <c r="AF29" s="23">
+        <f t="shared" si="48"/>
+        <v>3597.4763093672686</v>
+      </c>
+      <c r="AG29" s="23">
+        <f t="shared" si="48"/>
+        <v>3615.4636909141045</v>
+      </c>
+      <c r="AH29" s="23">
+        <f t="shared" si="48"/>
+        <v>3633.5410093686746</v>
+      </c>
+      <c r="AI29" s="23">
+        <f t="shared" si="48"/>
+        <v>3651.7087144155175</v>
+      </c>
+      <c r="AJ29" s="23">
+        <f t="shared" si="48"/>
+        <v>3669.9672579875946</v>
+      </c>
+      <c r="AK29" s="23">
+        <f t="shared" si="48"/>
+        <v>3688.3170942775323</v>
+      </c>
+      <c r="AL29" s="23">
+        <f t="shared" si="48"/>
+        <v>3706.7586797489193</v>
+      </c>
+      <c r="AM29" s="23">
+        <f t="shared" si="48"/>
+        <v>3725.2924731476637</v>
+      </c>
+      <c r="AN29" s="23">
+        <f t="shared" si="48"/>
+        <v>3743.9189355134017</v>
+      </c>
+      <c r="AO29" s="23">
+        <f t="shared" si="48"/>
+        <v>3762.6385301909681</v>
+      </c>
+      <c r="AP29" s="23">
+        <f t="shared" si="48"/>
+        <v>3781.4517228419227</v>
+      </c>
+      <c r="AQ29" s="23">
+        <f t="shared" si="48"/>
+        <v>3800.3589814561319</v>
+      </c>
+      <c r="AR29" s="23">
+        <f t="shared" si="48"/>
+        <v>3819.3607763634122</v>
+      </c>
+      <c r="AS29" s="23">
+        <f t="shared" si="48"/>
+        <v>3838.4575802452291</v>
+      </c>
+      <c r="AT29" s="23">
+        <f t="shared" si="48"/>
+        <v>3857.649868146455</v>
+      </c>
+      <c r="AU29" s="23">
+        <f t="shared" si="48"/>
+        <v>3876.9381174871869</v>
+      </c>
+      <c r="AV29" s="23">
+        <f t="shared" si="48"/>
+        <v>3896.3228080746226</v>
+      </c>
+      <c r="AW29" s="23">
+        <f t="shared" si="48"/>
+        <v>3915.8044221149953</v>
+      </c>
+      <c r="AX29" s="23">
+        <f t="shared" si="48"/>
+        <v>3935.3834442255697</v>
+      </c>
+      <c r="AY29" s="23">
+        <f t="shared" ref="AY29:CD29" si="49">AX29*($F$2+1)</f>
+        <v>3955.0603614466972</v>
+      </c>
+      <c r="AZ29" s="23">
         <f t="shared" si="49"/>
-        <v>1324.381088602893</v>
-      </c>
-      <c r="Q29" s="23">
+        <v>3974.8356632539303</v>
+      </c>
+      <c r="BA29" s="23">
         <f t="shared" si="49"/>
-        <v>1584.9246219465495</v>
-      </c>
-      <c r="R29" s="23">
+        <v>3994.7098415701994</v>
+      </c>
+      <c r="BB29" s="23">
         <f t="shared" si="49"/>
-        <v>1875.0771332806444</v>
-      </c>
-      <c r="S29" s="23">
-        <f t="shared" ref="S29:AX29" si="50">R29*($F$2+1)</f>
-        <v>1884.4525189470473</v>
-      </c>
-      <c r="T29" s="23">
+        <v>4014.6833907780501</v>
+      </c>
+      <c r="BC29" s="23">
+        <f t="shared" si="49"/>
+        <v>4034.7568077319402</v>
+      </c>
+      <c r="BD29" s="23">
+        <f t="shared" si="49"/>
+        <v>4054.9305917705992</v>
+      </c>
+      <c r="BE29" s="23">
+        <f t="shared" si="49"/>
+        <v>4075.2052447294518</v>
+      </c>
+      <c r="BF29" s="23">
+        <f t="shared" si="49"/>
+        <v>4095.5812709530987</v>
+      </c>
+      <c r="BG29" s="23">
+        <f t="shared" si="49"/>
+        <v>4116.059177307864</v>
+      </c>
+      <c r="BH29" s="23">
+        <f t="shared" si="49"/>
+        <v>4136.6394731944029</v>
+      </c>
+      <c r="BI29" s="23">
+        <f t="shared" si="49"/>
+        <v>4157.3226705603747</v>
+      </c>
+      <c r="BJ29" s="23">
+        <f t="shared" si="49"/>
+        <v>4178.1092839131761</v>
+      </c>
+      <c r="BK29" s="23">
+        <f t="shared" si="49"/>
+        <v>4198.9998303327411</v>
+      </c>
+      <c r="BL29" s="23">
+        <f t="shared" si="49"/>
+        <v>4219.9948294844044</v>
+      </c>
+      <c r="BM29" s="23">
+        <f t="shared" si="49"/>
+        <v>4241.0948036318259</v>
+      </c>
+      <c r="BN29" s="23">
+        <f t="shared" si="49"/>
+        <v>4262.3002776499843</v>
+      </c>
+      <c r="BO29" s="23">
+        <f t="shared" si="49"/>
+        <v>4283.6117790382341</v>
+      </c>
+      <c r="BP29" s="23">
+        <f t="shared" si="49"/>
+        <v>4305.0298379334245</v>
+      </c>
+      <c r="BQ29" s="23">
+        <f t="shared" si="49"/>
+        <v>4326.5549871230915</v>
+      </c>
+      <c r="BR29" s="23">
+        <f t="shared" si="49"/>
+        <v>4348.1877620587065</v>
+      </c>
+      <c r="BS29" s="23">
+        <f t="shared" si="49"/>
+        <v>4369.9287008689998</v>
+      </c>
+      <c r="BT29" s="23">
+        <f t="shared" si="49"/>
+        <v>4391.7783443733442</v>
+      </c>
+      <c r="BU29" s="23">
+        <f t="shared" si="49"/>
+        <v>4413.7372360952104</v>
+      </c>
+      <c r="BV29" s="23">
+        <f t="shared" si="49"/>
+        <v>4435.8059222756856</v>
+      </c>
+      <c r="BW29" s="23">
+        <f t="shared" si="49"/>
+        <v>4457.9849518870633</v>
+      </c>
+      <c r="BX29" s="23">
+        <f t="shared" si="49"/>
+        <v>4480.2748766464983</v>
+      </c>
+      <c r="BY29" s="23">
+        <f t="shared" si="49"/>
+        <v>4502.6762510297303</v>
+      </c>
+      <c r="BZ29" s="23">
+        <f t="shared" si="49"/>
+        <v>4525.1896322848788</v>
+      </c>
+      <c r="CA29" s="23">
+        <f t="shared" si="49"/>
+        <v>4547.8155804463031</v>
+      </c>
+      <c r="CB29" s="23">
+        <f t="shared" si="49"/>
+        <v>4570.5546583485338</v>
+      </c>
+      <c r="CC29" s="23">
+        <f t="shared" si="49"/>
+        <v>4593.4074316402757</v>
+      </c>
+      <c r="CD29" s="23">
+        <f t="shared" si="49"/>
+        <v>4616.3744687984763</v>
+      </c>
+      <c r="CE29" s="23">
+        <f t="shared" ref="CE29:DJ29" si="50">CD29*($F$2+1)</f>
+        <v>4639.4563411424679</v>
+      </c>
+      <c r="CF29" s="23">
         <f t="shared" si="50"/>
-        <v>1893.8747815417823</v>
-      </c>
-      <c r="U29" s="23">
+        <v>4662.65362284818</v>
+      </c>
+      <c r="CG29" s="23">
         <f t="shared" si="50"/>
-        <v>1903.3441554494912</v>
-      </c>
-      <c r="V29" s="23">
+        <v>4685.9668909624206</v>
+      </c>
+      <c r="CH29" s="23">
         <f t="shared" si="50"/>
-        <v>1912.8608762267384</v>
-      </c>
-      <c r="W29" s="23">
+        <v>4709.3967254172321</v>
+      </c>
+      <c r="CI29" s="23">
         <f t="shared" si="50"/>
-        <v>1922.4251806078719</v>
-      </c>
-      <c r="X29" s="23">
+        <v>4732.943709044318</v>
+      </c>
+      <c r="CJ29" s="23">
         <f t="shared" si="50"/>
-        <v>1932.0373065109111</v>
-      </c>
-      <c r="Y29" s="23">
+        <v>4756.6084275895391</v>
+      </c>
+      <c r="CK29" s="23">
         <f t="shared" si="50"/>
-        <v>1941.6974930434656</v>
-      </c>
-      <c r="Z29" s="23">
+        <v>4780.3914697274868</v>
+      </c>
+      <c r="CL29" s="23">
         <f t="shared" si="50"/>
-        <v>1951.4059805086827</v>
-      </c>
-      <c r="AA29" s="23">
+        <v>4804.2934270761234</v>
+      </c>
+      <c r="CM29" s="23">
         <f t="shared" si="50"/>
-        <v>1961.163010411226</v>
-      </c>
-      <c r="AB29" s="23">
+        <v>4828.3148942115031</v>
+      </c>
+      <c r="CN29" s="23">
         <f t="shared" si="50"/>
-        <v>1970.968825463282</v>
-      </c>
-      <c r="AC29" s="23">
+        <v>4852.4564686825597</v>
+      </c>
+      <c r="CO29" s="23">
         <f t="shared" si="50"/>
-        <v>1980.8236695905982</v>
-      </c>
-      <c r="AD29" s="23">
+        <v>4876.7187510259719</v>
+      </c>
+      <c r="CP29" s="23">
         <f t="shared" si="50"/>
-        <v>1990.727787938551</v>
-      </c>
-      <c r="AE29" s="23">
+        <v>4901.1023447811012</v>
+      </c>
+      <c r="CQ29" s="23">
         <f t="shared" si="50"/>
-        <v>2000.6814268782437</v>
-      </c>
-      <c r="AF29" s="23">
+        <v>4925.6078565050066</v>
+      </c>
+      <c r="CR29" s="23">
         <f t="shared" si="50"/>
-        <v>2010.6848340126346</v>
-      </c>
-      <c r="AG29" s="23">
+        <v>4950.2358957875313</v>
+      </c>
+      <c r="CS29" s="23">
         <f t="shared" si="50"/>
-        <v>2020.7382581826976</v>
-      </c>
-      <c r="AH29" s="23">
+        <v>4974.9870752664683</v>
+      </c>
+      <c r="CT29" s="23">
         <f t="shared" si="50"/>
-        <v>2030.8419494736108</v>
-      </c>
-      <c r="AI29" s="23">
+        <v>4999.8620106427998</v>
+      </c>
+      <c r="CU29" s="23">
         <f t="shared" si="50"/>
-        <v>2040.9961592209786</v>
-      </c>
-      <c r="AJ29" s="23">
+        <v>5024.8613206960135</v>
+      </c>
+      <c r="CV29" s="23">
         <f t="shared" si="50"/>
-        <v>2051.2011400170832</v>
-      </c>
-      <c r="AK29" s="23">
+        <v>5049.985627299493</v>
+      </c>
+      <c r="CW29" s="23">
         <f t="shared" si="50"/>
-        <v>2061.4571457171683</v>
-      </c>
-      <c r="AL29" s="23">
+        <v>5075.2355554359901</v>
+      </c>
+      <c r="CX29" s="23">
         <f t="shared" si="50"/>
-        <v>2071.7644314457539</v>
-      </c>
-      <c r="AM29" s="23">
+        <v>5100.6117332131698</v>
+      </c>
+      <c r="CY29" s="23">
         <f t="shared" si="50"/>
-        <v>2082.1232536029825</v>
-      </c>
-      <c r="AN29" s="23">
+        <v>5126.1147918792349</v>
+      </c>
+      <c r="CZ29" s="23">
         <f t="shared" si="50"/>
-        <v>2092.533869870997</v>
-      </c>
-      <c r="AO29" s="23">
+        <v>5151.7453658386303</v>
+      </c>
+      <c r="DA29" s="23">
         <f t="shared" si="50"/>
-        <v>2102.9965392203517</v>
-      </c>
-      <c r="AP29" s="23">
+        <v>5177.504092667823</v>
+      </c>
+      <c r="DB29" s="23">
         <f t="shared" si="50"/>
-        <v>2113.5115219164531</v>
-      </c>
-      <c r="AQ29" s="23">
+        <v>5203.3916131311616</v>
+      </c>
+      <c r="DC29" s="23">
         <f t="shared" si="50"/>
-        <v>2124.079079526035</v>
-      </c>
-      <c r="AR29" s="23">
+        <v>5229.4085711968173</v>
+      </c>
+      <c r="DD29" s="23">
         <f t="shared" si="50"/>
-        <v>2134.6994749236651</v>
-      </c>
-      <c r="AS29" s="23">
+        <v>5255.5556140528006</v>
+      </c>
+      <c r="DE29" s="23">
         <f t="shared" si="50"/>
-        <v>2145.372972298283</v>
-      </c>
-      <c r="AT29" s="23">
+        <v>5281.8333921230642</v>
+      </c>
+      <c r="DF29" s="23">
         <f t="shared" si="50"/>
-        <v>2156.0998371597743</v>
-      </c>
-      <c r="AU29" s="23">
+        <v>5308.2425590836792</v>
+      </c>
+      <c r="DG29" s="23">
         <f t="shared" si="50"/>
-        <v>2166.8803363455731</v>
-      </c>
-      <c r="AV29" s="23">
+        <v>5334.783771879097</v>
+      </c>
+      <c r="DH29" s="23">
         <f t="shared" si="50"/>
-        <v>2177.7147380273009</v>
-      </c>
-      <c r="AW29" s="23">
+        <v>5361.4576907384917</v>
+      </c>
+      <c r="DI29" s="23">
         <f t="shared" si="50"/>
-        <v>2188.603311717437</v>
-      </c>
-      <c r="AX29" s="23">
+        <v>5388.264979192184</v>
+      </c>
+      <c r="DJ29" s="23">
         <f t="shared" si="50"/>
-        <v>2199.5463282760238</v>
-      </c>
-      <c r="AY29" s="23">
-        <f t="shared" ref="AY29:CD29" si="51">AX29*($F$2+1)</f>
-        <v>2210.5440599174035</v>
-      </c>
-      <c r="AZ29" s="23">
+        <v>5415.206304088144</v>
+      </c>
+      <c r="DK29" s="23">
+        <f t="shared" ref="DK29:EP29" si="51">DJ29*($F$2+1)</f>
+        <v>5442.2823356085837</v>
+      </c>
+      <c r="DL29" s="23">
         <f t="shared" si="51"/>
-        <v>2221.5967802169903</v>
-      </c>
-      <c r="BA29" s="23">
+        <v>5469.4937472866259</v>
+      </c>
+      <c r="DM29" s="23">
         <f t="shared" si="51"/>
-        <v>2232.7047641180752</v>
-      </c>
-      <c r="BB29" s="23">
+        <v>5496.8412160230582</v>
+      </c>
+      <c r="DN29" s="23">
         <f t="shared" si="51"/>
-        <v>2243.8682879386652</v>
-      </c>
-      <c r="BC29" s="23">
+        <v>5524.325422103173</v>
+      </c>
+      <c r="DO29" s="23">
         <f t="shared" si="51"/>
-        <v>2255.0876293783581</v>
-      </c>
-      <c r="BD29" s="23">
+        <v>5551.9470492136879</v>
+      </c>
+      <c r="DP29" s="23">
         <f t="shared" si="51"/>
-        <v>2266.3630675252498</v>
-      </c>
-      <c r="BE29" s="23">
+        <v>5579.7067844597559</v>
+      </c>
+      <c r="DQ29" s="23">
         <f t="shared" si="51"/>
-        <v>2277.6948828628756</v>
-      </c>
-      <c r="BF29" s="23">
+        <v>5607.6053183820541</v>
+      </c>
+      <c r="DR29" s="23">
         <f t="shared" si="51"/>
-        <v>2289.0833572771899</v>
-      </c>
-      <c r="BG29" s="23">
+        <v>5635.6433449739634</v>
+      </c>
+      <c r="DS29" s="23">
         <f t="shared" si="51"/>
-        <v>2300.5287740635754</v>
-      </c>
-      <c r="BH29" s="23">
+        <v>5663.8215616988327</v>
+      </c>
+      <c r="DT29" s="23">
         <f t="shared" si="51"/>
-        <v>2312.031417933893</v>
-      </c>
-      <c r="BI29" s="23">
+        <v>5692.1406695073265</v>
+      </c>
+      <c r="DU29" s="23">
         <f t="shared" si="51"/>
-        <v>2323.5915750235622</v>
-      </c>
-      <c r="BJ29" s="23">
+        <v>5720.6013728548623</v>
+      </c>
+      <c r="DV29" s="23">
         <f t="shared" si="51"/>
-        <v>2335.2095328986798</v>
-      </c>
-      <c r="BK29" s="23">
+        <v>5749.2043797191363</v>
+      </c>
+      <c r="DW29" s="23">
         <f t="shared" si="51"/>
-        <v>2346.8855805631729</v>
-      </c>
-      <c r="BL29" s="23">
+        <v>5777.9504016177316</v>
+      </c>
+      <c r="DX29" s="23">
         <f t="shared" si="51"/>
-        <v>2358.6200084659886</v>
-      </c>
-      <c r="BM29" s="23">
+        <v>5806.8401536258198</v>
+      </c>
+      <c r="DY29" s="23">
         <f t="shared" si="51"/>
-        <v>2370.4131085083181</v>
-      </c>
-      <c r="BN29" s="23">
+        <v>5835.8743543939481</v>
+      </c>
+      <c r="DZ29" s="23">
         <f t="shared" si="51"/>
-        <v>2382.2651740508595</v>
-      </c>
-      <c r="BO29" s="23">
+        <v>5865.0537261659174</v>
+      </c>
+      <c r="EA29" s="23">
         <f t="shared" si="51"/>
-        <v>2394.1764999211136</v>
-      </c>
-      <c r="BP29" s="23">
+        <v>5894.3789947967462</v>
+      </c>
+      <c r="EB29" s="23">
         <f t="shared" si="51"/>
-        <v>2406.1473824207192</v>
-      </c>
-      <c r="BQ29" s="23">
+        <v>5923.8508897707288</v>
+      </c>
+      <c r="EC29" s="23">
         <f t="shared" si="51"/>
-        <v>2418.1781193328225</v>
-      </c>
-      <c r="BR29" s="23">
+        <v>5953.4701442195819</v>
+      </c>
+      <c r="ED29" s="23">
         <f t="shared" si="51"/>
-        <v>2430.2690099294864</v>
-      </c>
-      <c r="BS29" s="23">
+        <v>5983.2374949406794</v>
+      </c>
+      <c r="EE29" s="23">
         <f t="shared" si="51"/>
-        <v>2442.4203549791337</v>
-      </c>
-      <c r="BT29" s="23">
+        <v>6013.1536824153818</v>
+      </c>
+      <c r="EF29" s="23">
         <f t="shared" si="51"/>
-        <v>2454.6324567540291</v>
-      </c>
-      <c r="BU29" s="23">
+        <v>6043.2194508274579</v>
+      </c>
+      <c r="EG29" s="23">
         <f t="shared" si="51"/>
-        <v>2466.9056190377992</v>
-      </c>
-      <c r="BV29" s="23">
+        <v>6073.4355480815948</v>
+      </c>
+      <c r="EH29" s="23">
         <f t="shared" si="51"/>
-        <v>2479.2401471329881</v>
-      </c>
-      <c r="BW29" s="23">
+        <v>6103.8027258220018</v>
+      </c>
+      <c r="EI29" s="23">
         <f t="shared" si="51"/>
-        <v>2491.6363478686526</v>
-      </c>
-      <c r="BX29" s="23">
+        <v>6134.3217394511112</v>
+      </c>
+      <c r="EJ29" s="23">
         <f t="shared" si="51"/>
-        <v>2504.0945296079958</v>
-      </c>
-      <c r="BY29" s="23">
+        <v>6164.9933481483658</v>
+      </c>
+      <c r="EK29" s="23">
         <f t="shared" si="51"/>
-        <v>2516.6150022560355</v>
-      </c>
-      <c r="BZ29" s="23">
+        <v>6195.8183148891067</v>
+      </c>
+      <c r="EL29" s="23">
         <f t="shared" si="51"/>
-        <v>2529.1980772673155</v>
-      </c>
-      <c r="CA29" s="23">
+        <v>6226.7974064635519</v>
+      </c>
+      <c r="EM29" s="23">
         <f t="shared" si="51"/>
-        <v>2541.844067653652</v>
-      </c>
-      <c r="CB29" s="23">
+        <v>6257.9313934958691</v>
+      </c>
+      <c r="EN29" s="23">
         <f t="shared" si="51"/>
-        <v>2554.5532879919201</v>
-      </c>
-      <c r="CC29" s="23">
+        <v>6289.2210504633476</v>
+      </c>
+      <c r="EO29" s="23">
         <f t="shared" si="51"/>
-        <v>2567.3260544318796</v>
-      </c>
-      <c r="CD29" s="23">
+        <v>6320.6671557156633</v>
+      </c>
+      <c r="EP29" s="23">
         <f t="shared" si="51"/>
-        <v>2580.1626847040388</v>
-      </c>
-      <c r="CE29" s="23">
-        <f t="shared" ref="CE29:DJ29" si="52">CD29*($F$2+1)</f>
-        <v>2593.0634981275589</v>
-      </c>
-      <c r="CF29" s="23">
+        <v>6352.2704914942406</v>
+      </c>
+      <c r="EQ29" s="23">
+        <f t="shared" ref="EQ29:FV29" si="52">EP29*($F$2+1)</f>
+        <v>6384.0318439517114</v>
+      </c>
+      <c r="ER29" s="23">
         <f t="shared" si="52"/>
-        <v>2606.0288156181964</v>
-      </c>
-      <c r="CG29" s="23">
+        <v>6415.9520031714692</v>
+      </c>
+      <c r="ES29" s="23">
         <f t="shared" si="52"/>
-        <v>2619.0589596962873</v>
-      </c>
-      <c r="CH29" s="23">
+        <v>6448.0317631873259</v>
+      </c>
+      <c r="ET29" s="23">
         <f t="shared" si="52"/>
-        <v>2632.1542544947683</v>
-      </c>
-      <c r="CI29" s="23">
+        <v>6480.2719220032614</v>
+      </c>
+      <c r="EU29" s="23">
         <f t="shared" si="52"/>
-        <v>2645.3150257672419</v>
-      </c>
-      <c r="CJ29" s="23">
+        <v>6512.6732816132771</v>
+      </c>
+      <c r="EV29" s="23">
         <f t="shared" si="52"/>
-        <v>2658.5416008960779</v>
-      </c>
-      <c r="CK29" s="23">
+        <v>6545.2366480213432</v>
+      </c>
+      <c r="EW29" s="23">
         <f t="shared" si="52"/>
-        <v>2671.834308900558</v>
-      </c>
-      <c r="CL29" s="23">
+        <v>6577.9628312614495</v>
+      </c>
+      <c r="EX29" s="23">
         <f t="shared" si="52"/>
-        <v>2685.1934804450607</v>
-      </c>
-      <c r="CM29" s="23">
+        <v>6610.8526454177563</v>
+      </c>
+      <c r="EY29" s="23">
         <f t="shared" si="52"/>
-        <v>2698.6194478472858</v>
-      </c>
-      <c r="CN29" s="23">
+        <v>6643.9069086448444</v>
+      </c>
+      <c r="EZ29" s="23">
         <f t="shared" si="52"/>
-        <v>2712.112545086522</v>
-      </c>
-      <c r="CO29" s="23">
+        <v>6677.1264431880682</v>
+      </c>
+      <c r="FA29" s="23">
         <f t="shared" si="52"/>
-        <v>2725.6731078119542</v>
-      </c>
-      <c r="CP29" s="23">
+        <v>6710.5120754040081</v>
+      </c>
+      <c r="FB29" s="23">
         <f t="shared" si="52"/>
-        <v>2739.3014733510136</v>
-      </c>
-      <c r="CQ29" s="23">
+        <v>6744.0646357810274</v>
+      </c>
+      <c r="FC29" s="23">
         <f t="shared" si="52"/>
-        <v>2752.9979807177683</v>
-      </c>
-      <c r="CR29" s="23">
+        <v>6777.7849589599318</v>
+      </c>
+      <c r="FD29" s="23">
         <f t="shared" si="52"/>
-        <v>2766.762970621357</v>
-      </c>
-      <c r="CS29" s="23">
+        <v>6811.6738837547309</v>
+      </c>
+      <c r="FE29" s="23">
         <f t="shared" si="52"/>
-        <v>2780.5967854744636</v>
-      </c>
-      <c r="CT29" s="23">
+        <v>6845.7322531735035</v>
+      </c>
+      <c r="FF29" s="23">
         <f t="shared" si="52"/>
-        <v>2794.4997694018357</v>
-      </c>
-      <c r="CU29" s="23">
+        <v>6879.9609144393708</v>
+      </c>
+      <c r="FG29" s="23">
         <f t="shared" si="52"/>
-        <v>2808.4722682488446</v>
-      </c>
-      <c r="CV29" s="23">
+        <v>6914.3607190115672</v>
+      </c>
+      <c r="FH29" s="23">
         <f t="shared" si="52"/>
-        <v>2822.5146295900886</v>
-      </c>
-      <c r="CW29" s="23">
+        <v>6948.9325226066239</v>
+      </c>
+      <c r="FI29" s="23">
         <f t="shared" si="52"/>
-        <v>2836.6272027380387</v>
-      </c>
-      <c r="CX29" s="23">
+        <v>6983.6771852196562</v>
+      </c>
+      <c r="FJ29" s="23">
         <f t="shared" si="52"/>
-        <v>2850.8103387517285</v>
-      </c>
-      <c r="CY29" s="23">
+        <v>7018.5955711457536</v>
+      </c>
+      <c r="FK29" s="23">
         <f t="shared" si="52"/>
-        <v>2865.0643904454869</v>
-      </c>
-      <c r="CZ29" s="23">
+        <v>7053.688549001482</v>
+      </c>
+      <c r="FL29" s="23">
         <f t="shared" si="52"/>
-        <v>2879.389712397714</v>
-      </c>
-      <c r="DA29" s="23">
+        <v>7088.9569917464887</v>
+      </c>
+      <c r="FM29" s="23">
         <f t="shared" si="52"/>
-        <v>2893.7866609597022</v>
-      </c>
-      <c r="DB29" s="23">
+        <v>7124.4017767052201</v>
+      </c>
+      <c r="FN29" s="23">
         <f t="shared" si="52"/>
-        <v>2908.2555942645004</v>
-      </c>
-      <c r="DC29" s="23">
+        <v>7160.0237855887453</v>
+      </c>
+      <c r="FO29" s="23">
         <f t="shared" si="52"/>
-        <v>2922.7968722358228</v>
-      </c>
-      <c r="DD29" s="23">
+        <v>7195.8239045166883</v>
+      </c>
+      <c r="FP29" s="23">
         <f t="shared" si="52"/>
-        <v>2937.4108565970014</v>
-      </c>
-      <c r="DE29" s="23">
+        <v>7231.8030240392709</v>
+      </c>
+      <c r="FQ29" s="23">
         <f t="shared" si="52"/>
-        <v>2952.0979108799861</v>
-      </c>
-      <c r="DF29" s="23">
+        <v>7267.9620391594663</v>
+      </c>
+      <c r="FR29" s="23">
         <f t="shared" si="52"/>
-        <v>2966.8584004343857</v>
-      </c>
-      <c r="DG29" s="23">
+        <v>7304.3018493552627</v>
+      </c>
+      <c r="FS29" s="23">
         <f t="shared" si="52"/>
-        <v>2981.6926924365571</v>
-      </c>
-      <c r="DH29" s="23">
+        <v>7340.8233586020378</v>
+      </c>
+      <c r="FT29" s="23">
         <f t="shared" si="52"/>
-        <v>2996.6011558987398</v>
-      </c>
-      <c r="DI29" s="23">
+        <v>7377.5274753950471</v>
+      </c>
+      <c r="FU29" s="23">
         <f t="shared" si="52"/>
-        <v>3011.5841616782332</v>
-      </c>
-      <c r="DJ29" s="23">
+        <v>7414.4151127720215</v>
+      </c>
+      <c r="FV29" s="23">
         <f t="shared" si="52"/>
-        <v>3026.6420824866241</v>
-      </c>
-      <c r="DK29" s="23">
-        <f t="shared" ref="DK29:EP29" si="53">DJ29*($F$2+1)</f>
-        <v>3041.7752928990567</v>
-      </c>
-      <c r="DL29" s="23">
+        <v>7451.487188335881</v>
+      </c>
+      <c r="FW29" s="23">
+        <f t="shared" ref="FW29:GN29" si="53">FV29*($F$2+1)</f>
+        <v>7488.7446242775595</v>
+      </c>
+      <c r="FX29" s="23">
         <f t="shared" si="53"/>
-        <v>3056.9841693635517</v>
-      </c>
-      <c r="DM29" s="23">
+        <v>7526.1883473989465</v>
+      </c>
+      <c r="FY29" s="23">
         <f t="shared" si="53"/>
-        <v>3072.2690902103691</v>
-      </c>
-      <c r="DN29" s="23">
+        <v>7563.8192891359404</v>
+      </c>
+      <c r="FZ29" s="23">
         <f t="shared" si="53"/>
-        <v>3087.6304356614205</v>
-      </c>
-      <c r="DO29" s="23">
+        <v>7601.6383855816193</v>
+      </c>
+      <c r="GA29" s="23">
         <f t="shared" si="53"/>
-        <v>3103.0685878397271</v>
-      </c>
-      <c r="DP29" s="23">
+        <v>7639.6465775095267</v>
+      </c>
+      <c r="GB29" s="23">
         <f t="shared" si="53"/>
-        <v>3118.5839307789256</v>
-      </c>
-      <c r="DQ29" s="23">
+        <v>7677.8448103970732</v>
+      </c>
+      <c r="GC29" s="23">
         <f t="shared" si="53"/>
-        <v>3134.1768504328197</v>
-      </c>
-      <c r="DR29" s="23">
+        <v>7716.2340344490576</v>
+      </c>
+      <c r="GD29" s="23">
         <f t="shared" si="53"/>
-        <v>3149.8477346849836</v>
-      </c>
-      <c r="DS29" s="23">
+        <v>7754.8152046213017</v>
+      </c>
+      <c r="GE29" s="23">
         <f t="shared" si="53"/>
-        <v>3165.5969733584084</v>
-      </c>
-      <c r="DT29" s="23">
+        <v>7793.5892806444072</v>
+      </c>
+      <c r="GF29" s="23">
         <f t="shared" si="53"/>
-        <v>3181.4249582252</v>
-      </c>
-      <c r="DU29" s="23">
+        <v>7832.5572270476287</v>
+      </c>
+      <c r="GG29" s="23">
         <f t="shared" si="53"/>
-        <v>3197.3320830163257</v>
-      </c>
-      <c r="DV29" s="23">
+        <v>7871.7200131828658</v>
+      </c>
+      <c r="GH29" s="23">
         <f t="shared" si="53"/>
-        <v>3213.3187434314068</v>
-      </c>
-      <c r="DW29" s="23">
+        <v>7911.0786132487792</v>
+      </c>
+      <c r="GI29" s="23">
         <f t="shared" si="53"/>
-        <v>3229.3853371485634</v>
-      </c>
-      <c r="DX29" s="23">
+        <v>7950.6340063150219</v>
+      </c>
+      <c r="GJ29" s="23">
         <f t="shared" si="53"/>
-        <v>3245.5322638343059</v>
-      </c>
-      <c r="DY29" s="23">
+        <v>7990.3871763465959</v>
+      </c>
+      <c r="GK29" s="23">
         <f t="shared" si="53"/>
-        <v>3261.7599251534771</v>
-      </c>
-      <c r="DZ29" s="23">
+        <v>8030.3391122283283</v>
+      </c>
+      <c r="GL29" s="23">
         <f t="shared" si="53"/>
-        <v>3278.0687247792439</v>
-      </c>
-      <c r="EA29" s="23">
+        <v>8070.4908077894688</v>
+      </c>
+      <c r="GM29" s="23">
         <f t="shared" si="53"/>
-        <v>3294.4590684031396</v>
-      </c>
-      <c r="EB29" s="23">
+        <v>8110.8432618284151</v>
+      </c>
+      <c r="GN29" s="23">
         <f t="shared" si="53"/>
-        <v>3310.9313637451551</v>
-      </c>
-      <c r="EC29" s="23">
-        <f t="shared" si="53"/>
-        <v>3327.4860205638806</v>
-      </c>
-      <c r="ED29" s="23">
-        <f t="shared" si="53"/>
-        <v>3344.1234506666997</v>
-      </c>
-      <c r="EE29" s="23">
-        <f t="shared" si="53"/>
-        <v>3360.844067920033</v>
-      </c>
-      <c r="EF29" s="23">
-        <f t="shared" si="53"/>
-        <v>3377.6482882596329</v>
-      </c>
-      <c r="EG29" s="23">
-        <f t="shared" si="53"/>
-        <v>3394.5365297009307</v>
-      </c>
-      <c r="EH29" s="23">
-        <f t="shared" si="53"/>
-        <v>3411.5092123494351</v>
-      </c>
-      <c r="EI29" s="23">
-        <f t="shared" si="53"/>
-        <v>3428.566758411182</v>
-      </c>
-      <c r="EJ29" s="23">
-        <f t="shared" si="53"/>
-        <v>3445.7095922032377</v>
-      </c>
-      <c r="EK29" s="23">
-        <f t="shared" si="53"/>
-        <v>3462.9381401642536</v>
-      </c>
-      <c r="EL29" s="23">
-        <f t="shared" si="53"/>
-        <v>3480.2528308650744</v>
-      </c>
-      <c r="EM29" s="23">
-        <f t="shared" si="53"/>
-        <v>3497.6540950193994</v>
-      </c>
-      <c r="EN29" s="23">
-        <f t="shared" si="53"/>
-        <v>3515.1423654944961</v>
-      </c>
-      <c r="EO29" s="23">
-        <f t="shared" si="53"/>
-        <v>3532.7180773219684</v>
-      </c>
-      <c r="EP29" s="23">
-        <f t="shared" si="53"/>
-        <v>3550.3816677085779</v>
-      </c>
-      <c r="EQ29" s="23">
-        <f t="shared" ref="EQ29:FV29" si="54">EP29*($F$2+1)</f>
-        <v>3568.1335760471202</v>
-      </c>
-      <c r="ER29" s="23">
-        <f t="shared" si="54"/>
-        <v>3585.9742439273555</v>
-      </c>
-      <c r="ES29" s="23">
-        <f t="shared" si="54"/>
-        <v>3603.9041151469919</v>
-      </c>
-      <c r="ET29" s="23">
-        <f t="shared" si="54"/>
-        <v>3621.9236357227264</v>
-      </c>
-      <c r="EU29" s="23">
-        <f t="shared" si="54"/>
-        <v>3640.0332539013398</v>
-      </c>
-      <c r="EV29" s="23">
-        <f t="shared" si="54"/>
-        <v>3658.2334201708459</v>
-      </c>
-      <c r="EW29" s="23">
-        <f t="shared" si="54"/>
-        <v>3676.5245872716996</v>
-      </c>
-      <c r="EX29" s="23">
-        <f t="shared" si="54"/>
-        <v>3694.9072102080577</v>
-      </c>
-      <c r="EY29" s="23">
-        <f t="shared" si="54"/>
-        <v>3713.3817462590978</v>
-      </c>
-      <c r="EZ29" s="23">
-        <f t="shared" si="54"/>
-        <v>3731.9486549903927</v>
-      </c>
-      <c r="FA29" s="23">
-        <f t="shared" si="54"/>
-        <v>3750.6083982653445</v>
-      </c>
-      <c r="FB29" s="23">
-        <f t="shared" si="54"/>
-        <v>3769.3614402566709</v>
-      </c>
-      <c r="FC29" s="23">
-        <f t="shared" si="54"/>
-        <v>3788.2082474579538</v>
-      </c>
-      <c r="FD29" s="23">
-        <f t="shared" si="54"/>
-        <v>3807.1492886952433</v>
-      </c>
-      <c r="FE29" s="23">
-        <f t="shared" si="54"/>
-        <v>3826.1850351387193</v>
-      </c>
-      <c r="FF29" s="23">
-        <f t="shared" si="54"/>
-        <v>3845.3159603144127</v>
-      </c>
-      <c r="FG29" s="23">
-        <f t="shared" si="54"/>
-        <v>3864.5425401159841</v>
-      </c>
-      <c r="FH29" s="23">
-        <f t="shared" si="54"/>
-        <v>3883.8652528165635</v>
-      </c>
-      <c r="FI29" s="23">
-        <f t="shared" si="54"/>
-        <v>3903.2845790806459</v>
-      </c>
-      <c r="FJ29" s="23">
-        <f t="shared" si="54"/>
-        <v>3922.8010019760486</v>
-      </c>
-      <c r="FK29" s="23">
-        <f t="shared" si="54"/>
-        <v>3942.4150069859284</v>
-      </c>
-      <c r="FL29" s="23">
-        <f t="shared" si="54"/>
-        <v>3962.1270820208574</v>
-      </c>
-      <c r="FM29" s="23">
-        <f t="shared" si="54"/>
-        <v>3981.9377174309611</v>
-      </c>
-      <c r="FN29" s="23">
-        <f t="shared" si="54"/>
-        <v>4001.8474060181156</v>
-      </c>
-      <c r="FO29" s="23">
-        <f t="shared" si="54"/>
-        <v>4021.8566430482056</v>
-      </c>
-      <c r="FP29" s="23">
-        <f t="shared" si="54"/>
-        <v>4041.9659262634464</v>
-      </c>
-      <c r="FQ29" s="23">
-        <f t="shared" si="54"/>
-        <v>4062.1757558947634</v>
-      </c>
-      <c r="FR29" s="23">
-        <f t="shared" si="54"/>
-        <v>4082.4866346742369</v>
-      </c>
-      <c r="FS29" s="23">
-        <f t="shared" si="54"/>
-        <v>4102.8990678476075</v>
-      </c>
-      <c r="FT29" s="23">
-        <f t="shared" si="54"/>
-        <v>4123.4135631868448</v>
-      </c>
-      <c r="FU29" s="23">
-        <f t="shared" si="54"/>
-        <v>4144.030631002779</v>
-      </c>
-      <c r="FV29" s="23">
-        <f t="shared" si="54"/>
-        <v>4164.7507841577926</v>
-      </c>
-      <c r="FW29" s="23">
-        <f t="shared" ref="FW29:GN29" si="55">FV29*($F$2+1)</f>
-        <v>4185.5745380785811</v>
-      </c>
-      <c r="FX29" s="23">
-        <f t="shared" si="55"/>
-        <v>4206.5024107689733</v>
-      </c>
-      <c r="FY29" s="23">
-        <f t="shared" si="55"/>
-        <v>4227.5349228228179</v>
-      </c>
-      <c r="FZ29" s="23">
-        <f t="shared" si="55"/>
-        <v>4248.6725974369319</v>
-      </c>
-      <c r="GA29" s="23">
-        <f t="shared" si="55"/>
-        <v>4269.9159604241158</v>
-      </c>
-      <c r="GB29" s="23">
-        <f t="shared" si="55"/>
-        <v>4291.2655402262362</v>
-      </c>
-      <c r="GC29" s="23">
-        <f t="shared" si="55"/>
-        <v>4312.7218679273674</v>
-      </c>
-      <c r="GD29" s="23">
-        <f t="shared" si="55"/>
-        <v>4334.2854772670034</v>
-      </c>
-      <c r="GE29" s="23">
-        <f t="shared" si="55"/>
-        <v>4355.9569046533379</v>
-      </c>
-      <c r="GF29" s="23">
-        <f t="shared" si="55"/>
-        <v>4377.7366891766042</v>
-      </c>
-      <c r="GG29" s="23">
-        <f t="shared" si="55"/>
-        <v>4399.6253726224868</v>
-      </c>
-      <c r="GH29" s="23">
-        <f t="shared" si="55"/>
-        <v>4421.6234994855986</v>
-      </c>
-      <c r="GI29" s="23">
-        <f t="shared" si="55"/>
-        <v>4443.7316169830265</v>
-      </c>
-      <c r="GJ29" s="23">
-        <f t="shared" si="55"/>
-        <v>4465.9502750679412</v>
-      </c>
-      <c r="GK29" s="23">
-        <f t="shared" si="55"/>
-        <v>4488.2800264432808</v>
-      </c>
-      <c r="GL29" s="23">
-        <f t="shared" si="55"/>
-        <v>4510.7214265754965</v>
-      </c>
-      <c r="GM29" s="23">
-        <f t="shared" si="55"/>
-        <v>4533.2750337083735</v>
-      </c>
-      <c r="GN29" s="23">
-        <f t="shared" si="55"/>
-        <v>4555.9414088769145</v>
+        <v>8151.3974781375564</v>
       </c>
     </row>
     <row r="30" spans="1:196" x14ac:dyDescent="0.15">
@@ -4857,72 +4866,72 @@
         <v>12</v>
       </c>
       <c r="B30" s="27">
-        <f t="shared" ref="B30:C30" si="56">B29/B31</f>
+        <f t="shared" ref="B30:C30" si="54">B29/B31</f>
         <v>-2.526226030158667</v>
       </c>
       <c r="C30" s="27">
+        <f t="shared" si="54"/>
+        <v>-2.3432027936724475</v>
+      </c>
+      <c r="D30" s="45">
+        <f t="shared" ref="D30:E30" si="55">D29/D31</f>
+        <v>-3.405741241773363</v>
+      </c>
+      <c r="E30" s="45">
+        <f t="shared" si="55"/>
+        <v>-3.4779991339251879</v>
+      </c>
+      <c r="F30" s="45">
+        <f t="shared" ref="F30:N30" si="56">F29/F31</f>
+        <v>-3.006441987703746</v>
+      </c>
+      <c r="G30" s="45">
         <f t="shared" si="56"/>
-        <v>-2.3432027936724475</v>
-      </c>
-      <c r="D30" s="45">
-        <f t="shared" ref="D30:E30" si="57">D29/D31</f>
-        <v>-1.9646670310877989</v>
-      </c>
-      <c r="E30" s="45">
+        <v>-1.5310287121965829</v>
+      </c>
+      <c r="H30" s="45">
+        <f t="shared" si="56"/>
+        <v>1.5327661040030978</v>
+      </c>
+      <c r="I30" s="45">
+        <f t="shared" si="56"/>
+        <v>3.4217756234939678</v>
+      </c>
+      <c r="J30" s="45">
+        <f t="shared" si="56"/>
+        <v>6.000698138753811</v>
+      </c>
+      <c r="K30" s="45">
+        <f t="shared" si="56"/>
+        <v>9.4736760139325931</v>
+      </c>
+      <c r="L30" s="45">
+        <f t="shared" si="56"/>
+        <v>14.1009699076877</v>
+      </c>
+      <c r="M30" s="45">
+        <f t="shared" si="56"/>
+        <v>20.213878735809722</v>
+      </c>
+      <c r="N30" s="45">
+        <f t="shared" si="56"/>
+        <v>28.429026809412079</v>
+      </c>
+      <c r="O30" s="45">
+        <f t="shared" ref="O30:R30" si="57">O29/O31</f>
+        <v>37.430906459175098</v>
+      </c>
+      <c r="P30" s="45">
         <f t="shared" si="57"/>
-        <v>-1.7863247334961552</v>
-      </c>
-      <c r="F30" s="45">
-        <f t="shared" ref="F30:N30" si="58">F29/F31</f>
-        <v>-1.5930445734266794</v>
-      </c>
-      <c r="G30" s="45">
-        <f t="shared" si="58"/>
-        <v>-1.6474215805473089</v>
-      </c>
-      <c r="H30" s="45">
-        <f t="shared" si="58"/>
-        <v>-2.4489951084820261</v>
-      </c>
-      <c r="I30" s="45">
-        <f t="shared" si="58"/>
-        <v>-1.309115846561919</v>
-      </c>
-      <c r="J30" s="45">
-        <f t="shared" si="58"/>
-        <v>1.5201166326181872</v>
-      </c>
-      <c r="K30" s="45">
-        <f t="shared" si="58"/>
-        <v>4.9139726591565589</v>
-      </c>
-      <c r="L30" s="45">
-        <f t="shared" si="58"/>
-        <v>9.1634671128702117</v>
-      </c>
-      <c r="M30" s="45">
-        <f t="shared" si="58"/>
-        <v>14.465663475702707</v>
-      </c>
-      <c r="N30" s="45">
-        <f t="shared" si="58"/>
-        <v>18.400883543789863</v>
-      </c>
-      <c r="O30" s="45">
-        <f t="shared" ref="O30:R30" si="59">O29/O31</f>
-        <v>22.786747081541815</v>
-      </c>
-      <c r="P30" s="45">
-        <f t="shared" si="59"/>
-        <v>27.6738792086648</v>
+        <v>47.309483303063473</v>
       </c>
       <c r="Q30" s="45">
-        <f t="shared" si="59"/>
-        <v>33.118120547052733</v>
+        <f t="shared" si="57"/>
+        <v>58.163613195855753</v>
       </c>
       <c r="R30" s="45">
-        <f t="shared" si="59"/>
-        <v>39.181062414654498</v>
+        <f t="shared" si="57"/>
+        <v>70.101958013611892</v>
       </c>
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
@@ -5033,63 +5042,63 @@
         <v>47.856720000000003</v>
       </c>
       <c r="D31" s="22">
-        <f t="shared" ref="D31:E31" si="60">C31</f>
+        <f t="shared" ref="D31:E31" si="58">C31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="E31" s="22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>47.856720000000003</v>
       </c>
       <c r="F31" s="22">
-        <f t="shared" ref="F31" si="61">E31</f>
+        <f t="shared" ref="F31" si="59">E31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="G31" s="22">
-        <f t="shared" ref="G31" si="62">F31</f>
+        <f t="shared" ref="G31" si="60">F31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="H31" s="22">
-        <f t="shared" ref="H31" si="63">G31</f>
+        <f t="shared" ref="H31" si="61">G31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="I31" s="22">
-        <f t="shared" ref="I31" si="64">H31</f>
+        <f t="shared" ref="I31" si="62">H31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="J31" s="22">
-        <f t="shared" ref="J31" si="65">I31</f>
+        <f t="shared" ref="J31" si="63">I31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="K31" s="22">
-        <f t="shared" ref="K31" si="66">J31</f>
+        <f t="shared" ref="K31" si="64">J31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="L31" s="22">
-        <f t="shared" ref="L31" si="67">K31</f>
+        <f t="shared" ref="L31" si="65">K31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="M31" s="22">
-        <f t="shared" ref="M31:R31" si="68">L31</f>
+        <f t="shared" ref="M31:R31" si="66">L31</f>
         <v>47.856720000000003</v>
       </c>
       <c r="N31" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>47.856720000000003</v>
       </c>
       <c r="O31" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>47.856720000000003</v>
       </c>
       <c r="P31" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>47.856720000000003</v>
       </c>
       <c r="Q31" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>47.856720000000003</v>
       </c>
       <c r="R31" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>47.856720000000003</v>
       </c>
       <c r="S31" s="36"/>
@@ -5311,7 +5320,7 @@
         <v>0.20575563515869985</v>
       </c>
       <c r="C33" s="32">
-        <f t="shared" ref="C33:N33" si="69">IFERROR(C20/C18,0)</f>
+        <f t="shared" ref="C33:N33" si="67">IFERROR(C20/C18,0)</f>
         <v>0.31570787081377261</v>
       </c>
       <c r="D33" s="32">
@@ -5323,55 +5332,55 @@
         <v>0.31570787081377261</v>
       </c>
       <c r="F33" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="G33" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="H33" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="I33" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="J33" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="K33" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="L33" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="M33" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="N33" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="O33" s="32">
-        <f t="shared" ref="O33:R33" si="70">IFERROR(O20/O18,0)</f>
+        <f t="shared" ref="O33:R33" si="68">IFERROR(O20/O18,0)</f>
         <v>0.31570787081377261</v>
       </c>
       <c r="P33" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="Q33" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="R33" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>0.31570787081377261</v>
       </c>
       <c r="S33" s="37"/>
@@ -5479,68 +5488,68 @@
         <v>-0.47889865225236122</v>
       </c>
       <c r="C34" s="34">
-        <f t="shared" ref="C34:N34" si="71">IFERROR(C25/C18,0)</f>
+        <f t="shared" ref="C34:N34" si="69">IFERROR(C25/C18,0)</f>
         <v>-0.2122317124868508</v>
       </c>
       <c r="D34" s="34">
-        <f t="shared" ref="D34" si="72">IFERROR(D25/D18,0)</f>
-        <v>-0.13180331702964429</v>
+        <f t="shared" ref="D34" si="70">IFERROR(D25/D18,0)</f>
+        <v>-0.22221873959966681</v>
       </c>
       <c r="E34" s="34">
+        <f t="shared" si="69"/>
+        <v>-0.14612435275681068</v>
+      </c>
+      <c r="F34" s="34">
+        <f t="shared" si="69"/>
+        <v>-8.1575533245204987E-2</v>
+      </c>
+      <c r="G34" s="34">
+        <f t="shared" si="69"/>
+        <v>-2.6738450680143577E-2</v>
+      </c>
+      <c r="H34" s="34">
+        <f t="shared" si="69"/>
+        <v>1.9920827632904731E-2</v>
+      </c>
+      <c r="I34" s="34">
+        <f t="shared" si="69"/>
+        <v>3.4933449347355899E-2</v>
+      </c>
+      <c r="J34" s="34">
+        <f t="shared" si="69"/>
+        <v>4.8499326828261913E-2</v>
+      </c>
+      <c r="K34" s="34">
+        <f t="shared" si="69"/>
+        <v>6.0777878568760706E-2</v>
+      </c>
+      <c r="L34" s="34">
+        <f t="shared" si="69"/>
+        <v>7.190996047540904E-2</v>
+      </c>
+      <c r="M34" s="34">
+        <f t="shared" si="69"/>
+        <v>8.2020070673268677E-2</v>
+      </c>
+      <c r="N34" s="34">
+        <f t="shared" si="69"/>
+        <v>0.10439997445336847</v>
+      </c>
+      <c r="O34" s="34">
+        <f t="shared" ref="O34:R34" si="71">IFERROR(O25/O18,0)</f>
+        <v>0.12424001929950237</v>
+      </c>
+      <c r="P34" s="34">
         <f t="shared" si="71"/>
-        <v>-7.9818085088203289E-2</v>
-      </c>
-      <c r="F34" s="34">
+        <v>0.14185447172810725</v>
+      </c>
+      <c r="Q34" s="34">
         <f t="shared" si="71"/>
-        <v>-4.9239662139904557E-2</v>
-      </c>
-      <c r="G34" s="34">
+        <v>0.15751716264592475</v>
+      </c>
+      <c r="R34" s="34">
         <f t="shared" si="71"/>
-        <v>-3.6280971449552973E-2</v>
-      </c>
-      <c r="H34" s="34">
-        <f t="shared" si="71"/>
-        <v>-3.9648273211123915E-2</v>
-      </c>
-      <c r="I34" s="34">
-        <f t="shared" si="71"/>
-        <v>-1.7363182949352001E-2</v>
-      </c>
-      <c r="J34" s="34">
-        <f t="shared" si="71"/>
-        <v>1.8764465505856816E-2</v>
-      </c>
-      <c r="K34" s="34">
-        <f t="shared" si="71"/>
-        <v>4.9890686099122429E-2</v>
-      </c>
-      <c r="L34" s="34">
-        <f t="shared" si="71"/>
-        <v>7.6857290864280239E-2</v>
-      </c>
-      <c r="M34" s="34">
-        <f t="shared" si="71"/>
-        <v>0.10034696540513131</v>
-      </c>
-      <c r="N34" s="34">
-        <f t="shared" si="71"/>
-        <v>0.11482993890640003</v>
-      </c>
-      <c r="O34" s="34">
-        <f t="shared" ref="O34:R34" si="73">IFERROR(O25/O18,0)</f>
-        <v>0.12806825522602949</v>
-      </c>
-      <c r="P34" s="34">
-        <f t="shared" si="73"/>
-        <v>0.1401925838183995</v>
-      </c>
-      <c r="Q34" s="34">
-        <f t="shared" si="73"/>
-        <v>0.15131819029300397</v>
-      </c>
-      <c r="R34" s="34">
-        <f t="shared" si="73"/>
-        <v>0.16154685742392408</v>
+        <v>0.17146678652830308</v>
       </c>
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
@@ -5647,67 +5656,67 @@
         <v>0</v>
       </c>
       <c r="C35" s="34">
-        <f t="shared" ref="C35:N35" si="74">IFERROR(C28/C27,0)</f>
+        <f t="shared" ref="C35:N35" si="72">IFERROR(C28/C27,0)</f>
         <v>0</v>
       </c>
       <c r="D35" s="34">
-        <f t="shared" ref="D35" si="75">IFERROR(D28/D27,0)</f>
+        <f t="shared" ref="D35" si="73">IFERROR(D28/D27,0)</f>
         <v>0</v>
       </c>
       <c r="E35" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F35" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="G35" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="H35" s="34">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="72"/>
+        <v>0.1</v>
       </c>
       <c r="I35" s="34">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="72"/>
+        <v>0.1</v>
       </c>
       <c r="J35" s="34">
-        <f t="shared" si="74"/>
-        <v>0.10000000000000002</v>
+        <f t="shared" si="72"/>
+        <v>0.1</v>
       </c>
       <c r="K35" s="34">
+        <f t="shared" si="72"/>
+        <v>0.1</v>
+      </c>
+      <c r="L35" s="34">
+        <f t="shared" si="72"/>
+        <v>0.1</v>
+      </c>
+      <c r="M35" s="34">
+        <f t="shared" si="72"/>
+        <v>0.1</v>
+      </c>
+      <c r="N35" s="34">
+        <f t="shared" si="72"/>
+        <v>0.1</v>
+      </c>
+      <c r="O35" s="34">
+        <f t="shared" ref="O35:R35" si="74">IFERROR(O28/O27,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="P35" s="34">
         <f t="shared" si="74"/>
         <v>0.1</v>
       </c>
-      <c r="L35" s="34">
+      <c r="Q35" s="34">
         <f t="shared" si="74"/>
         <v>0.1</v>
       </c>
-      <c r="M35" s="34">
+      <c r="R35" s="34">
         <f t="shared" si="74"/>
-        <v>0.1</v>
-      </c>
-      <c r="N35" s="34">
-        <f t="shared" si="74"/>
-        <v>0.1</v>
-      </c>
-      <c r="O35" s="34">
-        <f t="shared" ref="O35:R35" si="76">IFERROR(O28/O27,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="P35" s="34">
-        <f t="shared" si="76"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="Q35" s="34">
-        <f t="shared" si="76"/>
-        <v>0.1</v>
-      </c>
-      <c r="R35" s="34">
-        <f t="shared" si="76"/>
         <v>0.1</v>
       </c>
       <c r="S35" s="37"/>
@@ -5930,63 +5939,63 @@
         <v>0.92735099312697833</v>
       </c>
       <c r="D37" s="46">
-        <f t="shared" ref="D37:R37" si="77">D18/C18-1</f>
-        <v>0.54</v>
+        <f t="shared" ref="D37:R37" si="75">D18/C18-1</f>
+        <v>0.52250000000000019</v>
       </c>
       <c r="E37" s="46">
         <f>E18/D18-1</f>
-        <v>0.4850000000000001</v>
+        <v>0.52250000000000019</v>
       </c>
       <c r="F37" s="46">
-        <f t="shared" si="77"/>
-        <v>0.43000000000000016</v>
+        <f t="shared" si="75"/>
+        <v>0.52249999999999974</v>
       </c>
       <c r="G37" s="46">
-        <f t="shared" si="77"/>
-        <v>0.375</v>
+        <f t="shared" si="75"/>
+        <v>0.52250000000000019</v>
       </c>
       <c r="H37" s="46">
-        <f t="shared" si="77"/>
-        <v>0.32000000000000006</v>
+        <f t="shared" si="75"/>
+        <v>0.52249999999999996</v>
       </c>
       <c r="I37" s="46">
-        <f t="shared" si="77"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="75"/>
+        <v>0.25</v>
       </c>
       <c r="J37" s="46">
-        <f t="shared" si="77"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="75"/>
+        <v>0.25</v>
       </c>
       <c r="K37" s="46">
-        <f t="shared" si="77"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="75"/>
+        <v>0.25</v>
       </c>
       <c r="L37" s="46">
-        <f t="shared" si="77"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="75"/>
+        <v>0.25</v>
       </c>
       <c r="M37" s="46">
-        <f t="shared" si="77"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="75"/>
+        <v>0.25</v>
       </c>
       <c r="N37" s="46">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O37" s="46">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P37" s="46">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q37" s="46">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R37" s="46">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="S37" s="37"/>
@@ -6091,67 +6100,67 @@
       </c>
       <c r="B38" s="34"/>
       <c r="C38" s="34">
-        <f t="shared" ref="C38:R38" si="78">C21/B21-1</f>
+        <f t="shared" ref="C38:R38" si="76">C21/B21-1</f>
         <v>0.61842105263157898</v>
       </c>
       <c r="D38" s="34">
-        <f t="shared" si="78"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="76"/>
+        <v>0.3154471544715447</v>
       </c>
       <c r="E38" s="34">
-        <f t="shared" si="78"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="76"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F38" s="34">
-        <f t="shared" si="78"/>
-        <v>0.40000000000000013</v>
+        <f t="shared" si="76"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G38" s="34">
-        <f t="shared" si="78"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="76"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H38" s="34">
-        <f t="shared" si="78"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="76"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I38" s="34">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J38" s="34">
-        <f t="shared" si="78"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="76"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="K38" s="34">
-        <f t="shared" si="78"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="76"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="L38" s="34">
-        <f t="shared" si="78"/>
-        <v>9.9999999999999867E-2</v>
+        <f t="shared" si="76"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="M38" s="34">
-        <f t="shared" si="78"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="76"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="N38" s="34">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="O38" s="34">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="P38" s="34">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Q38" s="34">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="R38" s="34">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="S38" s="37"/>
@@ -6256,68 +6265,68 @@
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="34">
-        <f t="shared" ref="C39:R39" si="79">C22/B22-1</f>
+        <f t="shared" ref="C39:R39" si="77">C22/B22-1</f>
         <v>0.5625</v>
       </c>
       <c r="D39" s="34">
-        <f t="shared" si="79"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="77"/>
+        <v>3.2</v>
       </c>
       <c r="E39" s="34">
-        <f t="shared" si="79"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="77"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="F39" s="34">
-        <f t="shared" si="79"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="77"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="G39" s="34">
-        <f t="shared" si="79"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="77"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="H39" s="34">
-        <f t="shared" si="79"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="77"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="I39" s="34">
-        <f t="shared" si="79"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="77"/>
+        <v>0.25</v>
       </c>
       <c r="J39" s="34">
-        <f t="shared" si="79"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="77"/>
+        <v>0.25</v>
       </c>
       <c r="K39" s="34">
-        <f t="shared" si="79"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="77"/>
+        <v>0.25</v>
       </c>
       <c r="L39" s="34">
-        <f t="shared" si="79"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="77"/>
+        <v>0.25</v>
       </c>
       <c r="M39" s="34">
-        <f t="shared" si="79"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="77"/>
+        <v>0.25</v>
       </c>
       <c r="N39" s="34">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="O39" s="34">
-        <f t="shared" si="79"/>
-        <v>-4.9999999999999933E-2</v>
+        <f t="shared" si="77"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="P39" s="34">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="Q39" s="34">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="R39" s="34">
-        <f t="shared" si="79"/>
-        <v>-5.0000000000000155E-2</v>
+        <f t="shared" si="77"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="S39" s="37"/>
       <c r="T39" s="37"/>
@@ -6421,67 +6430,67 @@
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="34">
-        <f t="shared" ref="C40:R40" si="80">C23/B23-1</f>
+        <f t="shared" ref="C40:R40" si="78">C23/B23-1</f>
         <v>0.3595505617977528</v>
       </c>
       <c r="D40" s="34">
-        <f t="shared" si="80"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="78"/>
+        <v>0.24380165289256195</v>
       </c>
       <c r="E40" s="34">
-        <f t="shared" si="80"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="78"/>
+        <v>0.25</v>
       </c>
       <c r="F40" s="34">
-        <f t="shared" si="80"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="78"/>
+        <v>0.25</v>
       </c>
       <c r="G40" s="34">
-        <f t="shared" si="80"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="78"/>
+        <v>0.25</v>
       </c>
       <c r="H40" s="34">
-        <f t="shared" si="80"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="78"/>
+        <v>0.25</v>
       </c>
       <c r="I40" s="34">
-        <f t="shared" si="80"/>
-        <v>-5.0000000000000155E-2</v>
+        <f t="shared" si="78"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="J40" s="34">
-        <f t="shared" si="80"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="78"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="K40" s="34">
-        <f t="shared" si="80"/>
-        <v>-4.9999999999999933E-2</v>
+        <f t="shared" si="78"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="L40" s="34">
-        <f t="shared" si="80"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="78"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="M40" s="34">
-        <f t="shared" si="80"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="78"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="N40" s="34">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
+        <v>-2.0000000000000129E-2</v>
+      </c>
+      <c r="O40" s="34">
+        <f t="shared" si="78"/>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+      <c r="P40" s="34">
+        <f t="shared" si="78"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="O40" s="34">
-        <f t="shared" si="80"/>
+      <c r="Q40" s="34">
+        <f t="shared" si="78"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="P40" s="34">
-        <f t="shared" si="80"/>
-        <v>-2.0000000000000129E-2</v>
-      </c>
-      <c r="Q40" s="34">
-        <f t="shared" si="80"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
       <c r="R40" s="34">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="S40" s="37"/>
@@ -6586,68 +6595,68 @@
       </c>
       <c r="B41" s="42"/>
       <c r="C41" s="42">
-        <f t="shared" ref="C41:R41" si="81">C24/B24-1</f>
+        <f t="shared" ref="C41:R41" si="79">C24/B24-1</f>
         <v>0.48618784530386749</v>
       </c>
       <c r="D41" s="42">
-        <f t="shared" si="81"/>
-        <v>0.30539033457249065</v>
+        <f t="shared" si="79"/>
+        <v>0.55130111524163583</v>
       </c>
       <c r="E41" s="42">
-        <f t="shared" si="81"/>
-        <v>0.31249466040153773</v>
+        <f t="shared" si="79"/>
+        <v>0.3071291636712199</v>
       </c>
       <c r="F41" s="42">
-        <f t="shared" si="81"/>
-        <v>0.31944557452279043</v>
+        <f t="shared" si="79"/>
+        <v>0.30970502232040564</v>
       </c>
       <c r="G41" s="42">
-        <f t="shared" si="81"/>
-        <v>0.32617599630000771</v>
+        <f t="shared" si="79"/>
+        <v>0.31234911689663303</v>
       </c>
       <c r="H41" s="42">
-        <f t="shared" si="81"/>
-        <v>0.3326277818827803</v>
+        <f t="shared" si="79"/>
+        <v>0.31505507572190972</v>
       </c>
       <c r="I41" s="42">
         <f>I24/H24-1</f>
-        <v>0.12474561432585585</v>
+        <v>0.1865564598730951</v>
       </c>
       <c r="J41" s="42">
-        <f t="shared" si="81"/>
-        <v>6.9838049099629318E-2</v>
+        <f t="shared" si="79"/>
+        <v>0.18960508666505871</v>
       </c>
       <c r="K41" s="42">
-        <f t="shared" si="81"/>
-        <v>7.421352337093623E-2</v>
+        <f t="shared" si="79"/>
+        <v>0.19256100704453605</v>
       </c>
       <c r="L41" s="42">
-        <f t="shared" si="81"/>
-        <v>7.8262476698310213E-2</v>
+        <f t="shared" si="79"/>
+        <v>0.19541598553874073</v>
       </c>
       <c r="M41" s="42">
-        <f t="shared" si="81"/>
-        <v>8.1986430784543485E-2</v>
+        <f t="shared" si="79"/>
+        <v>0.19816346977796107</v>
       </c>
       <c r="N41" s="42">
-        <f t="shared" si="81"/>
-        <v>2.6025242041184615E-2</v>
+        <f t="shared" si="79"/>
+        <v>-5.3452261663141654E-3</v>
       </c>
       <c r="O41" s="42">
-        <f t="shared" si="81"/>
-        <v>2.7507477733755392E-2</v>
+        <f t="shared" si="79"/>
+        <v>-3.2808035414088055E-3</v>
       </c>
       <c r="P41" s="42">
-        <f t="shared" si="81"/>
-        <v>2.8923530301251832E-2</v>
+        <f t="shared" si="79"/>
+        <v>-1.1966109100108868E-3</v>
       </c>
       <c r="Q41" s="42">
-        <f t="shared" si="81"/>
-        <v>3.0272927608935074E-2</v>
+        <f t="shared" si="79"/>
+        <v>8.9949290488289257E-4</v>
       </c>
       <c r="R41" s="42">
-        <f t="shared" si="81"/>
-        <v>3.1555716828644664E-2</v>
+        <f t="shared" si="79"/>
+        <v>2.9994463749738465E-3</v>
       </c>
       <c r="S41" s="37"/>
       <c r="T41" s="37"/>
@@ -6865,68 +6874,68 @@
       </c>
       <c r="B43" s="42"/>
       <c r="C43" s="23">
-        <f t="shared" ref="C43" si="82">C44-C45</f>
+        <f t="shared" ref="C43" si="80">C44-C45</f>
         <v>470</v>
       </c>
       <c r="D43" s="47">
         <f>C43+D29</f>
-        <v>375.9774799999999</v>
+        <v>307.01239499999986</v>
       </c>
       <c r="E43" s="47">
         <f>D43+E29</f>
-        <v>290.48983739999977</v>
+        <v>140.56676428749964</v>
       </c>
       <c r="F43" s="47">
-        <f t="shared" ref="F43:R43" si="83">E43+F29</f>
-        <v>214.25194930199973</v>
+        <f t="shared" ref="F43:R43" si="81">E43+F29</f>
+        <v>-3.3116881142819921</v>
       </c>
       <c r="G43" s="47">
-        <f t="shared" si="83"/>
-        <v>135.4117559997897</v>
+        <f t="shared" si="81"/>
+        <v>-76.581700505834448</v>
       </c>
       <c r="H43" s="47">
-        <f t="shared" si="83"/>
-        <v>18.210882811795742</v>
+        <f t="shared" si="81"/>
+        <v>-3.2285422410673164</v>
       </c>
       <c r="I43" s="47">
-        <f t="shared" si="83"/>
-        <v>-44.439107704680985</v>
+        <f t="shared" si="81"/>
+        <v>160.52641567530893</v>
       </c>
       <c r="J43" s="47">
-        <f t="shared" si="83"/>
-        <v>28.308688349870472</v>
+        <f t="shared" si="81"/>
+        <v>447.70014630617118</v>
       </c>
       <c r="K43" s="47">
-        <f t="shared" si="83"/>
-        <v>263.47530198678135</v>
+        <f t="shared" si="81"/>
+        <v>901.07920667565941</v>
       </c>
       <c r="L43" s="47">
-        <f t="shared" si="83"/>
-        <v>702.00878183661951</v>
+        <f t="shared" si="81"/>
+        <v>1575.9053752762957</v>
       </c>
       <c r="M43" s="47">
-        <f t="shared" si="83"/>
-        <v>1394.2879884075508</v>
+        <f t="shared" si="81"/>
+        <v>2543.2753100498958</v>
       </c>
       <c r="N43" s="47">
-        <f t="shared" si="83"/>
-        <v>2274.8939199153101</v>
+        <f t="shared" si="81"/>
+        <v>3903.7952859404231</v>
       </c>
       <c r="O43" s="47">
-        <f t="shared" si="83"/>
-        <v>3365.3928947074737</v>
+        <f t="shared" si="81"/>
+        <v>5695.1156957033572</v>
       </c>
       <c r="P43" s="47">
-        <f t="shared" si="83"/>
-        <v>4689.7739833103669</v>
+        <f t="shared" si="81"/>
+        <v>7959.1923914827412</v>
       </c>
       <c r="Q43" s="47">
-        <f t="shared" si="83"/>
-        <v>6274.6986052569164</v>
+        <f t="shared" si="81"/>
+        <v>10742.712142385115</v>
       </c>
       <c r="R43" s="47">
-        <f t="shared" si="83"/>
-        <v>8149.7757385375608</v>
+        <f t="shared" si="81"/>
+        <v>14097.561918494295</v>
       </c>
       <c r="S43" s="37"/>
       <c r="T43" s="37"/>
@@ -7858,7 +7867,7 @@
       </c>
       <c r="B51" s="42"/>
       <c r="C51" s="51">
-        <f t="shared" ref="C51" si="84">C48-C47-C44</f>
+        <f t="shared" ref="C51" si="82">C48-C47-C44</f>
         <v>40</v>
       </c>
       <c r="D51" s="36"/>
@@ -7978,7 +7987,7 @@
       </c>
       <c r="B52" s="42"/>
       <c r="C52" s="51">
-        <f t="shared" ref="C52" si="85">C48-C49</f>
+        <f t="shared" ref="C52" si="83">C48-C49</f>
         <v>-367</v>
       </c>
       <c r="D52" s="36"/>
@@ -8212,7 +8221,7 @@
       </c>
       <c r="B54" s="42"/>
       <c r="C54" s="52">
-        <f t="shared" ref="C54" si="86">C29/C52</f>
+        <f t="shared" ref="C54" si="84">C29/C52</f>
         <v>0.30555313351498664</v>
       </c>
       <c r="D54" s="37"/>
@@ -8332,7 +8341,7 @@
       </c>
       <c r="B55" s="42"/>
       <c r="C55" s="52">
-        <f t="shared" ref="C55" si="87">C29/C48</f>
+        <f t="shared" ref="C55" si="85">C29/C48</f>
         <v>-7.9984308131241147E-2</v>
       </c>
       <c r="D55" s="37"/>
@@ -8452,7 +8461,7 @@
       </c>
       <c r="B56" s="42"/>
       <c r="C56" s="52">
-        <f t="shared" ref="C56" si="88">C29/(C52-C47)</f>
+        <f t="shared" ref="C56" si="86">C29/(C52-C47)</f>
         <v>0.30555313351498664</v>
       </c>
       <c r="D56" s="37"/>
@@ -8572,7 +8581,7 @@
       </c>
       <c r="B57" s="42"/>
       <c r="C57" s="52">
-        <f t="shared" ref="C57" si="89">C29/C51</f>
+        <f t="shared" ref="C57" si="87">C29/C51</f>
         <v>-2.8034500000000024</v>
       </c>
       <c r="D57" s="37"/>
@@ -8854,24 +8863,24 @@
         <v>0.76919315403422983</v>
       </c>
       <c r="D64" s="18">
-        <f t="shared" ref="D64:H64" si="90">D15/C15-1</f>
-        <v>0.40000000000000013</v>
+        <f t="shared" ref="D64:H64" si="88">D15/C15-1</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E64" s="18">
-        <f t="shared" si="90"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="88"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F64" s="18">
-        <f t="shared" si="90"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="88"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G64" s="18">
-        <f t="shared" si="90"/>
-        <v>0.25</v>
+        <f t="shared" si="88"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="H64" s="18">
-        <f t="shared" si="90"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="88"/>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
@@ -8883,30 +8892,33 @@
         <v>8.9395461842087132E-2</v>
       </c>
       <c r="D65" s="18">
-        <f t="shared" ref="D65:H65" si="91">D16/C16-1</f>
-        <v>0.10000000000000009</v>
+        <f t="shared" ref="D65:H65" si="89">D16/C16-1</f>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="E65" s="18">
-        <f t="shared" si="91"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="89"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="F65" s="18">
-        <f t="shared" si="91"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="89"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="G65" s="18">
-        <f t="shared" si="91"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="89"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="H65" s="18">
-        <f t="shared" si="91"/>
-        <v>0.10000000000000009</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="62"/>
-      <c r="D66" s="15">
+        <f t="shared" si="89"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="82"/>
+      <c r="D66" s="83">
         <v>7250</v>
+      </c>
+      <c r="H66" s="83" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -8921,23 +8933,23 @@
       </c>
       <c r="D67" s="15">
         <f>SUM(Reports!J61:M61)</f>
-        <v>7395.7389999999996</v>
+        <v>7345.7389999999996</v>
       </c>
       <c r="E67" s="15">
         <f>D67*1.5</f>
-        <v>11093.608499999998</v>
+        <v>11018.608499999998</v>
       </c>
       <c r="F67" s="15">
         <f>E67*1.45</f>
-        <v>16085.732324999997</v>
+        <v>15976.982324999997</v>
       </c>
       <c r="G67" s="15">
         <f>F67*1.4</f>
-        <v>22520.025254999993</v>
+        <v>22367.775254999993</v>
       </c>
       <c r="H67" s="15">
         <f>G67*1.35</f>
-        <v>30402.034094249993</v>
+        <v>30196.496594249991</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -8950,22 +8962,22 @@
       </c>
       <c r="D68" s="18">
         <f>D67/C67-1</f>
-        <v>0.59486481124466795</v>
+        <v>0.58408248907750737</v>
       </c>
       <c r="E68" s="18">
-        <f t="shared" ref="E68:H68" si="92">E67/D67-1</f>
+        <f t="shared" ref="E68:H68" si="90">E67/D67-1</f>
         <v>0.49999999999999978</v>
       </c>
       <c r="F68" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="G68" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="H68" s="18">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>0.35000000000000009</v>
       </c>
     </row>
@@ -8986,23 +8998,23 @@
       </c>
       <c r="D70" s="18">
         <f>D18/D67</f>
-        <v>0.10609800048379209</v>
+        <v>0.10560630863688458</v>
       </c>
       <c r="E70" s="18">
-        <f t="shared" ref="E70:H70" si="93">E18/E67</f>
-        <v>0.10503702047895418</v>
+        <f>E18/E67</f>
+        <v>0.10719040326643788</v>
       </c>
       <c r="F70" s="18">
-        <f t="shared" si="93"/>
-        <v>0.10358823398958932</v>
+        <f t="shared" ref="E70:H70" si="91">F18/F67</f>
+        <v>0.11254992342975977</v>
       </c>
       <c r="G70" s="18">
-        <f t="shared" si="93"/>
-        <v>0.1017384440969181</v>
+        <f t="shared" si="91"/>
+        <v>0.12239804172986377</v>
       </c>
       <c r="H70" s="18">
-        <f t="shared" si="93"/>
-        <v>9.9477589783653245E-2</v>
+        <f t="shared" si="91"/>
+        <v>0.13803779150645748</v>
       </c>
     </row>
   </sheetData>
@@ -9022,10 +9034,10 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J64" sqref="J64"/>
+      <selection pane="bottomRight" activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9405,12 +9417,11 @@
         <v>204.041</v>
       </c>
       <c r="L11" s="44">
-        <f>L61*0.1</f>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M11" s="44">
         <f>760-L11-K11-J11</f>
-        <v>201.98099999999999</v>
+        <v>196.98099999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -9541,8 +9552,14 @@
       <c r="K14" s="22">
         <v>42</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="L14" s="22">
+        <f>H14*1.3</f>
+        <v>44.2</v>
+      </c>
+      <c r="M14" s="22">
+        <f>I14*1.3</f>
+        <v>41.6</v>
+      </c>
     </row>
     <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="62" t="s">
@@ -9578,8 +9595,14 @@
       <c r="K15" s="22">
         <v>39</v>
       </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="L15" s="22">
+        <f>H15*4</f>
+        <v>28</v>
+      </c>
+      <c r="M15" s="22">
+        <f>I15*3</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="62" t="s">
@@ -9615,51 +9638,57 @@
       <c r="K16" s="22">
         <v>41</v>
       </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="L16" s="22">
+        <f>H16*1.25</f>
+        <v>38.75</v>
+      </c>
+      <c r="M16" s="22">
+        <f t="shared" ref="M16" si="3">I16*1.25</f>
+        <v>38.75</v>
+      </c>
     </row>
     <row r="17" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="62" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="26">
-        <f t="shared" ref="B17" si="3">SUM(B14:B16)</f>
+        <f t="shared" ref="B17" si="4">SUM(B14:B16)</f>
         <v>36</v>
       </c>
       <c r="C17" s="25">
-        <f t="shared" ref="C17:D17" si="4">SUM(C14:C16)</f>
+        <f t="shared" ref="C17:D17" si="5">SUM(C14:C16)</f>
         <v>46</v>
       </c>
       <c r="D17" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="E17" s="25">
-        <f t="shared" ref="E17:G17" si="5">SUM(E14:E16)</f>
+        <f t="shared" ref="E17:G17" si="6">SUM(E14:E16)</f>
         <v>58</v>
       </c>
       <c r="F17" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="G17" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="H17" s="25">
-        <f t="shared" ref="H17:I17" si="6">SUM(H14:H16)</f>
+        <f t="shared" ref="H17:I17" si="7">SUM(H14:H16)</f>
         <v>72</v>
       </c>
       <c r="I17" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="J17" s="26">
-        <f t="shared" ref="J17:K17" si="7">SUM(J14:J16)</f>
+        <f t="shared" ref="J17:K17" si="8">SUM(J14:J16)</f>
         <v>89</v>
       </c>
       <c r="K17" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>122</v>
       </c>
       <c r="L17" s="22"/>
@@ -9670,43 +9699,43 @@
         <v>7</v>
       </c>
       <c r="B18" s="26">
-        <f t="shared" ref="B18:D18" si="8">B13-B17</f>
+        <f t="shared" ref="B18:D18" si="9">B13-B17</f>
         <v>-27.320999999999998</v>
       </c>
       <c r="C18" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-38.771000000000001</v>
       </c>
       <c r="D18" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-20.615000000000009</v>
       </c>
       <c r="E18" s="25">
-        <f t="shared" ref="E18:G18" si="9">E13-E17</f>
+        <f t="shared" ref="E18:G18" si="10">E13-E17</f>
         <v>-39.897999999999982</v>
       </c>
       <c r="F18" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-32.680999999999997</v>
       </c>
       <c r="G18" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-33.682000000000002</v>
       </c>
       <c r="H18" s="25">
-        <f t="shared" ref="H18:I18" si="10">H13-H17</f>
+        <f t="shared" ref="H18:I18" si="11">H13-H17</f>
         <v>-81.343999999999994</v>
       </c>
       <c r="I18" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>39.568999999999988</v>
       </c>
       <c r="J18" s="26">
-        <f t="shared" ref="J18:K18" si="11">J13-J17</f>
+        <f t="shared" ref="J18:K18" si="12">J13-J17</f>
         <v>-45.006999999999977</v>
       </c>
       <c r="K18" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-32.057000000000016</v>
       </c>
       <c r="L18" s="22"/>
@@ -9755,42 +9784,42 @@
         <v>9</v>
       </c>
       <c r="B20" s="26">
-        <f t="shared" ref="B20" si="12">B18+B19</f>
+        <f t="shared" ref="B20" si="13">B18+B19</f>
         <v>-26.320999999999998</v>
       </c>
       <c r="C20" s="25">
-        <f t="shared" ref="C20" si="13">C18+C19</f>
+        <f t="shared" ref="C20" si="14">C18+C19</f>
         <v>-37.771000000000001</v>
       </c>
       <c r="D20" s="25">
-        <f t="shared" ref="D20:H20" si="14">D18+D19</f>
+        <f t="shared" ref="D20:H20" si="15">D18+D19</f>
         <v>-19.615000000000009</v>
       </c>
       <c r="E20" s="25">
         <v>4</v>
       </c>
       <c r="F20" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-30.680999999999997</v>
       </c>
       <c r="G20" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-31.682000000000002</v>
       </c>
       <c r="H20" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-85.343999999999994</v>
       </c>
       <c r="I20" s="25">
-        <f t="shared" ref="I20" si="15">I18+I19</f>
+        <f t="shared" ref="I20" si="16">I18+I19</f>
         <v>35.568999999999988</v>
       </c>
       <c r="J20" s="26">
-        <f t="shared" ref="J20:K20" si="16">J18+J19</f>
+        <f t="shared" ref="J20:K20" si="17">J18+J19</f>
         <v>-15.006999999999977</v>
       </c>
       <c r="K20" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-30.057000000000016</v>
       </c>
       <c r="L20" s="22"/>
@@ -9838,43 +9867,43 @@
         <v>11</v>
       </c>
       <c r="B22" s="24">
-        <f t="shared" ref="B22:K22" si="17">B20-B21</f>
+        <f t="shared" ref="B22:K22" si="18">B20-B21</f>
         <v>-26.320999999999998</v>
       </c>
       <c r="C22" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-37.771000000000001</v>
       </c>
       <c r="D22" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-19.615000000000009</v>
       </c>
       <c r="E22" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-30.680999999999997</v>
       </c>
       <c r="G22" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-31.682000000000002</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-85.343999999999994</v>
       </c>
       <c r="I22" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>35.568999999999988</v>
       </c>
       <c r="J22" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-15.006999999999977</v>
       </c>
       <c r="K22" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-30.057000000000016</v>
       </c>
       <c r="L22" s="22"/>
@@ -9885,43 +9914,43 @@
         <v>12</v>
       </c>
       <c r="B23" s="57">
-        <f t="shared" ref="B23:G23" si="18">IFERROR(B22/B24,0)</f>
+        <f t="shared" ref="B23:G23" si="19">IFERROR(B22/B24,0)</f>
         <v>0</v>
       </c>
       <c r="C23" s="56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D23" s="56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E23" s="56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.4485632880186193E-2</v>
       </c>
       <c r="F23" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G23" s="56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.65894525041011454</v>
       </c>
       <c r="H23" s="56">
-        <f t="shared" ref="H23:I23" si="19">IFERROR(H22/H24,0)</f>
+        <f t="shared" ref="H23:I23" si="20">IFERROR(H22/H24,0)</f>
         <v>0</v>
       </c>
       <c r="I23" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.74323940295114221</v>
       </c>
       <c r="J23" s="57">
-        <f t="shared" ref="J23:K23" si="20">IFERROR(J22/J24,0)</f>
+        <f t="shared" ref="J23:K23" si="21">IFERROR(J22/J24,0)</f>
         <v>0</v>
       </c>
       <c r="K23" s="56">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.42452477821768858</v>
       </c>
       <c r="L23" s="22"/>
@@ -9967,43 +9996,43 @@
         <v>15</v>
       </c>
       <c r="B26" s="33">
-        <f t="shared" ref="B26:J26" si="21">IFERROR(B13/B11,0)</f>
+        <f t="shared" ref="B26:J26" si="22">IFERROR(B13/B11,0)</f>
         <v>0.16695842871708061</v>
       </c>
       <c r="C26" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.10378740021822774</v>
       </c>
       <c r="D26" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.27876541859256615</v>
       </c>
       <c r="E26" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.26006378760451709</v>
       </c>
       <c r="F26" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.28788929696294363</v>
       </c>
       <c r="G26" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.28711454422354893</v>
       </c>
       <c r="H26" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-6.7576461058919637E-2</v>
       </c>
       <c r="I26" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.70154305689614682</v>
       </c>
       <c r="J26" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.2528653048086541</v>
       </c>
       <c r="K26" s="32">
-        <f t="shared" ref="K26" si="22">IFERROR(K13/K11,0)</f>
+        <f t="shared" ref="K26" si="23">IFERROR(K13/K11,0)</f>
         <v>0.44080846496537451</v>
       </c>
       <c r="L26" s="22"/>
@@ -10014,43 +10043,43 @@
         <v>16</v>
       </c>
       <c r="B27" s="35">
-        <f t="shared" ref="B27:J27" si="23">IFERROR(B18/B11,0)</f>
+        <f t="shared" ref="B27:J27" si="24">IFERROR(B18/B11,0)</f>
         <v>-0.52557566896870123</v>
       </c>
       <c r="C27" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-0.55663871819904664</v>
       </c>
       <c r="D27" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-0.28191067472581588</v>
       </c>
       <c r="E27" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-0.57319771284084675</v>
       </c>
       <c r="F27" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-0.37159880382503097</v>
       </c>
       <c r="G27" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-0.25914014895057552</v>
       </c>
       <c r="H27" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-0.5882854931910062</v>
       </c>
       <c r="I27" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25806093966034482</v>
       </c>
       <c r="J27" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-0.25869362792996803</v>
       </c>
       <c r="K27" s="34">
-        <f t="shared" ref="K27" si="24">IFERROR(K18/K11,0)</f>
+        <f t="shared" ref="K27" si="25">IFERROR(K18/K11,0)</f>
         <v>-0.15711058071662076</v>
       </c>
       <c r="L27" s="22"/>
@@ -10061,43 +10090,43 @@
         <v>17</v>
       </c>
       <c r="B28" s="35">
-        <f t="shared" ref="B28:J28" si="25">IFERROR(B21/B20,0)</f>
+        <f t="shared" ref="B28:J28" si="26">IFERROR(B21/B20,0)</f>
         <v>0</v>
       </c>
       <c r="C28" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="D28" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E28" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F28" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G28" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H28" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I28" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J28" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K28" s="34">
-        <f t="shared" ref="K28" si="26">IFERROR(K21/K20,0)</f>
+        <f t="shared" ref="K28" si="27">IFERROR(K21/K20,0)</f>
         <v>0</v>
       </c>
       <c r="L28" s="22"/>
@@ -10121,36 +10150,36 @@
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29">
-        <f t="shared" ref="F30" si="27">IFERROR((F11/B11)-1,0)</f>
+        <f t="shared" ref="F30" si="28">IFERROR((F11/B11)-1,0)</f>
         <v>0.69184156358809612</v>
       </c>
       <c r="G30" s="28">
-        <f t="shared" ref="G30:M30" si="28">IFERROR((G11/C11)-1,0)</f>
+        <f t="shared" ref="G30:M30" si="29">IFERROR((G11/C11)-1,0)</f>
         <v>0.8660770688566013</v>
       </c>
       <c r="H30" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.89088696222957653</v>
       </c>
       <c r="I30" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.2028560756256641</v>
       </c>
       <c r="J30" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.97821415170500425</v>
       </c>
       <c r="K30" s="28">
-        <f t="shared" si="28"/>
+        <f>IFERROR((K11/G11)-1,0)</f>
         <v>0.5698359697174864</v>
       </c>
       <c r="L30" s="28">
-        <f t="shared" si="28"/>
-        <v>0.30177258033021626</v>
+        <f>IFERROR((L11/H11)-1,0)</f>
+        <v>0.33793292978383338</v>
       </c>
       <c r="M30" s="28">
-        <f t="shared" si="28"/>
-        <v>0.31727884590300781</v>
+        <f>IFERROR((M11/I11)-1,0)</f>
+        <v>0.28466986669449312</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -10162,31 +10191,37 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="31">
-        <f t="shared" ref="F31:K33" si="29">F14/B14-1</f>
+        <f t="shared" ref="F31:K33" si="30">F14/B14-1</f>
         <v>0.5625</v>
       </c>
       <c r="G31" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.52380952380952372</v>
       </c>
       <c r="H31" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="I31" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.52380952380952372</v>
       </c>
       <c r="J31" s="31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.3600000000000001</v>
       </c>
       <c r="K31" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.3125</v>
       </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
+      <c r="L31" s="30">
+        <f t="shared" ref="L31:L34" si="31">L14/H14-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M31" s="30">
+        <f t="shared" ref="M31:M34" si="32">M14/I14-1</f>
+        <v>0.30000000000000004</v>
+      </c>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="66" t="s">
@@ -10197,31 +10232,37 @@
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.25</v>
       </c>
       <c r="G32" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="H32" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.75</v>
       </c>
       <c r="I32" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J32" s="31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="K32" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.875</v>
       </c>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
+      <c r="L32" s="30">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="M32" s="30">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="66" t="s">
@@ -10232,31 +10273,37 @@
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.75</v>
       </c>
       <c r="G33" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.40909090909090917</v>
       </c>
       <c r="H33" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.63157894736842102</v>
       </c>
       <c r="I33" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-3.125E-2</v>
       </c>
       <c r="J33" s="31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.14285714285714279</v>
       </c>
       <c r="K33" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.32258064516129026</v>
       </c>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
+      <c r="L33" s="30">
+        <f t="shared" si="31"/>
+        <v>0.25</v>
+      </c>
+      <c r="M33" s="30">
+        <f t="shared" si="32"/>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="66" t="s">
@@ -10267,31 +10314,37 @@
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="33">
-        <f t="shared" ref="F34:K34" si="30">F17/B17-1</f>
+        <f t="shared" ref="F34:K34" si="33">F17/B17-1</f>
         <v>0.61111111111111116</v>
       </c>
       <c r="G34" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.54347826086956519</v>
       </c>
       <c r="H34" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.75609756097560976</v>
       </c>
       <c r="I34" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.17241379310344818</v>
       </c>
       <c r="J34" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.53448275862068972</v>
       </c>
       <c r="K34" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.71830985915492951</v>
       </c>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
+      <c r="L34" s="32">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="M34" s="32">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B35" s="43"/>
@@ -10315,12 +10368,12 @@
       <c r="G36" s="42"/>
       <c r="H36" s="19"/>
       <c r="I36" s="23">
-        <f t="shared" ref="I36:K36" si="31">I37-I38</f>
+        <f t="shared" ref="I36:K36" si="34">I37-I38</f>
         <v>470</v>
       </c>
       <c r="J36" s="20"/>
       <c r="K36" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>903</v>
       </c>
       <c r="L36" s="22"/>
@@ -10479,12 +10532,12 @@
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="25">
-        <f t="shared" ref="I44" si="32">I41-I37-I40</f>
+        <f t="shared" ref="I44" si="35">I41-I37-I40</f>
         <v>40</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="25">
-        <f t="shared" ref="K44" si="33">K41-K37-K40</f>
+        <f t="shared" ref="K44" si="36">K41-K37-K40</f>
         <v>183</v>
       </c>
       <c r="L44" s="22"/>
@@ -10540,12 +10593,12 @@
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="I47" s="23">
-        <f t="shared" ref="I47:K47" si="34">SUM(F22:I22)</f>
+        <f t="shared" ref="I47:K47" si="37">SUM(F22:I22)</f>
         <v>-112.13800000000001</v>
       </c>
       <c r="J47" s="21"/>
       <c r="K47" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-94.838999999999999</v>
       </c>
       <c r="L47" s="22"/>
@@ -10563,12 +10616,12 @@
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="32">
-        <f t="shared" ref="I48" si="35">I47/I45</f>
+        <f t="shared" ref="I48" si="38">I47/I45</f>
         <v>0.30555313351498636</v>
       </c>
       <c r="J48" s="21"/>
       <c r="K48" s="32">
-        <f t="shared" ref="K48" si="36">K47/K45</f>
+        <f t="shared" ref="K48" si="39">K47/K45</f>
         <v>0.27174498567335242</v>
       </c>
       <c r="L48" s="22"/>
@@ -10586,12 +10639,12 @@
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="32">
-        <f t="shared" ref="I49" si="37">I47/I41</f>
+        <f t="shared" ref="I49" si="40">I47/I41</f>
         <v>-7.9984308131241091E-2</v>
       </c>
       <c r="J49" s="21"/>
       <c r="K49" s="32">
-        <f t="shared" ref="K49" si="38">K47/K41</f>
+        <f t="shared" ref="K49" si="41">K47/K41</f>
         <v>-3.5021787296898081E-2</v>
       </c>
       <c r="L49" s="22"/>
@@ -10609,12 +10662,12 @@
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="32">
-        <f t="shared" ref="I50" si="39">I47/(I45-I40)</f>
+        <f t="shared" ref="I50" si="42">I47/(I45-I40)</f>
         <v>0.30555313351498636</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="32">
-        <f t="shared" ref="K50" si="40">K47/(K45-K40)</f>
+        <f t="shared" ref="K50" si="43">K47/(K45-K40)</f>
         <v>0.27174498567335242</v>
       </c>
       <c r="L50" s="22"/>
@@ -10632,12 +10685,12 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="32">
-        <f t="shared" ref="I51" si="41">I47/I44</f>
+        <f t="shared" ref="I51" si="44">I47/I44</f>
         <v>-2.8034500000000002</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="32">
-        <f t="shared" ref="K51" si="42">K47/K44</f>
+        <f t="shared" ref="K51" si="45">K47/K44</f>
         <v>-0.51824590163934425</v>
       </c>
       <c r="L51" s="22"/>
@@ -10658,27 +10711,27 @@
       <c r="D53" s="32"/>
       <c r="E53" s="42"/>
       <c r="F53" s="33">
-        <f t="shared" ref="F53:K56" si="43">F3/B3-1</f>
+        <f t="shared" ref="F53:K56" si="46">F3/B3-1</f>
         <v>0.56397472815575722</v>
       </c>
       <c r="G53" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.70017813683920016</v>
       </c>
       <c r="H53" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.85762356575463361</v>
       </c>
       <c r="I53" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1.584634508686293</v>
       </c>
       <c r="J53" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1.5629998076341751</v>
       </c>
       <c r="K53" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.47024969010093853</v>
       </c>
       <c r="L53" s="32"/>
@@ -10693,27 +10746,27 @@
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
       <c r="F54" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1.4766162310866577</v>
       </c>
       <c r="G54" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3.4548872180451129</v>
       </c>
       <c r="H54" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>2.0519814719505916</v>
       </c>
       <c r="I54" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-7.505140507196717E-2</v>
       </c>
       <c r="J54" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.65454040544293268</v>
       </c>
       <c r="K54" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.52180028129395217</v>
       </c>
       <c r="L54" s="32"/>
@@ -10728,27 +10781,27 @@
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
       <c r="F55" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.6443425577206483</v>
       </c>
       <c r="G55" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.64439985406785838</v>
       </c>
       <c r="H55" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.63836576362385022</v>
       </c>
       <c r="I55" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.37969101123595483</v>
       </c>
       <c r="J55" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.3502539334793866</v>
       </c>
       <c r="K55" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.63860847957757416</v>
       </c>
       <c r="L55" s="32"/>
@@ -10763,27 +10816,27 @@
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
       <c r="F56" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1.7484121383203957</v>
       </c>
       <c r="G56" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>11.711026615969583</v>
       </c>
       <c r="H56" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3.2624113475177294</v>
       </c>
       <c r="I56" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-9.5841688654353572</v>
       </c>
       <c r="J56" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1.634227757093337</v>
       </c>
       <c r="K56" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.96769368830391889</v>
       </c>
       <c r="L56" s="32"/>
@@ -10862,7 +10915,7 @@
       </c>
       <c r="M61" s="22">
         <f>M11/0.1</f>
-        <v>2019.81</v>
+        <v>1969.81</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.15">
@@ -10920,7 +10973,7 @@
       </c>
       <c r="L64" s="32">
         <f>L11/L61</f>
-        <v>0.1</v>
+        <v>0.10277777777777777</v>
       </c>
       <c r="M64" s="32"/>
     </row>

--- a/AFRM.xlsx
+++ b/AFRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EEAB36-4B69-C048-BE1A-3690DD863FEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C72758-AD69-8748-97DF-19A62A953FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-56520" yWindow="-5940" windowWidth="28240" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-56700" yWindow="-5940" windowWidth="28240" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1040,16 +1040,16 @@
         <v>32</v>
       </c>
       <c r="C2" s="3">
-        <v>125.96</v>
+        <v>105.7</v>
       </c>
       <c r="D2" s="58">
-        <v>44239</v>
+        <v>44245</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I2" s="15"/>
       <c r="L2" s="1"/>
@@ -1087,14 +1087,14 @@
       </c>
       <c r="C4" s="9">
         <f>C2*C3</f>
-        <v>15284.783726799998</v>
+        <v>12826.307080999999</v>
       </c>
       <c r="D4" s="59"/>
       <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="6">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>55</v>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="F5" s="10">
         <f>NPV(F4,D29:GN29)</f>
-        <v>31981.344905493952</v>
+        <v>25829.702286588988</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>57</v>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C6" s="9">
         <f>C4-C5</f>
-        <v>14381.783726799998</v>
+        <v>11923.307080999999</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="11" t="s">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="F6" s="12">
         <f>F5+C5</f>
-        <v>32884.344905493956</v>
+        <v>26732.702286588988</v>
       </c>
       <c r="I6" s="18"/>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C7" s="41">
         <f>C6/C3</f>
-        <v>118.51848940796148</v>
+        <v>98.258489407961491</v>
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="13" t="s">
@@ -1165,11 +1165,11 @@
       </c>
       <c r="F7" s="40">
         <f>F6/C3</f>
-        <v>270.99579283109722</v>
+        <v>220.30087178235212</v>
       </c>
       <c r="G7" s="18">
         <f>F7/C2-1</f>
-        <v>1.1514432584240808</v>
+        <v>1.084208815348648</v>
       </c>
     </row>
     <row r="8" spans="1:113" x14ac:dyDescent="0.15">
@@ -2757,7 +2757,7 @@
         <v>210.34000000000003</v>
       </c>
       <c r="F21" s="22">
-        <f t="shared" ref="F21:H21" si="11">E21*1.3</f>
+        <f t="shared" ref="F21:H22" si="11">E21*1.3</f>
         <v>273.44200000000006</v>
       </c>
       <c r="G21" s="22">
@@ -2921,60 +2921,60 @@
         <v>105</v>
       </c>
       <c r="E22" s="22">
-        <f>D22*1.4</f>
-        <v>147</v>
+        <f>D22*1.25</f>
+        <v>131.25</v>
       </c>
       <c r="F22" s="22">
-        <f t="shared" ref="F22:H22" si="14">E22*1.4</f>
-        <v>205.79999999999998</v>
+        <f t="shared" ref="F22:H22" si="14">E22*1.25</f>
+        <v>164.0625</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="14"/>
-        <v>288.11999999999995</v>
+        <v>205.078125</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="14"/>
-        <v>403.36799999999988</v>
+        <v>256.34765625</v>
       </c>
       <c r="I22" s="22">
         <f>H22*1.25</f>
-        <v>504.20999999999987</v>
+        <v>320.4345703125</v>
       </c>
       <c r="J22" s="22">
         <f t="shared" ref="J22:M22" si="15">I22*1.25</f>
-        <v>630.26249999999982</v>
+        <v>400.543212890625</v>
       </c>
       <c r="K22" s="22">
         <f t="shared" si="15"/>
-        <v>787.82812499999977</v>
+        <v>500.67901611328125</v>
       </c>
       <c r="L22" s="22">
         <f t="shared" si="15"/>
-        <v>984.78515624999977</v>
+        <v>625.84877014160156</v>
       </c>
       <c r="M22" s="22">
         <f t="shared" si="15"/>
-        <v>1230.9814453124998</v>
+        <v>782.31096267700195</v>
       </c>
       <c r="N22" s="22">
-        <f>M22*0.95</f>
-        <v>1169.4323730468748</v>
+        <f>M22*1.1</f>
+        <v>860.54205894470226</v>
       </c>
       <c r="O22" s="22">
-        <f t="shared" ref="O22:R22" si="16">N22*0.95</f>
-        <v>1110.960754394531</v>
+        <f t="shared" ref="O22:R22" si="16">N22*1.1</f>
+        <v>946.59626483917259</v>
       </c>
       <c r="P22" s="22">
         <f t="shared" si="16"/>
-        <v>1055.4127166748044</v>
+        <v>1041.2558913230898</v>
       </c>
       <c r="Q22" s="22">
         <f t="shared" si="16"/>
-        <v>1002.6420808410642</v>
+        <v>1145.381480455399</v>
       </c>
       <c r="R22" s="22">
         <f t="shared" si="16"/>
-        <v>952.50997679901093</v>
+        <v>1259.9196285009391</v>
       </c>
       <c r="S22" s="37"/>
       <c r="T22" s="37"/>
@@ -3258,59 +3258,59 @@
       </c>
       <c r="E24" s="22">
         <f t="shared" si="21"/>
-        <v>545.46500000000003</v>
+        <v>529.71500000000003</v>
       </c>
       <c r="F24" s="22">
         <f t="shared" ref="F24:I24" si="22">SUM(F21:F23)</f>
-        <v>714.39825000000008</v>
+        <v>672.66075000000001</v>
       </c>
       <c r="G24" s="22">
         <f t="shared" si="22"/>
-        <v>937.53991250000013</v>
+        <v>854.49803750000012</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="22"/>
-        <v>1232.9166206250002</v>
+        <v>1085.8962768750002</v>
       </c>
       <c r="I24" s="22">
         <f t="shared" si="22"/>
-        <v>1462.9251806875</v>
+        <v>1279.1497510000002</v>
       </c>
       <c r="J24" s="22">
         <f t="shared" ref="J24:M24" si="23">SUM(J21:J23)</f>
-        <v>1740.3032363562502</v>
+        <v>1510.5839492468754</v>
       </c>
       <c r="K24" s="22">
         <f t="shared" si="23"/>
-        <v>2075.4177801118749</v>
+        <v>1788.2686712251566</v>
       </c>
       <c r="L24" s="22">
         <f t="shared" si="23"/>
-        <v>2480.9875910170626</v>
+        <v>2122.0512049086647</v>
       </c>
       <c r="M24" s="22">
         <f t="shared" si="23"/>
-        <v>2972.6287005290687</v>
+        <v>2523.9582178935711</v>
       </c>
       <c r="N24" s="22">
         <f t="shared" ref="N24" si="24">SUM(N21:N23)</f>
-        <v>2956.7393278162644</v>
+        <v>2647.8490137140921</v>
       </c>
       <c r="O24" s="22">
         <f t="shared" ref="O24:R24" si="25">SUM(O21:O23)</f>
-        <v>2947.0388469585423</v>
+        <v>2782.6743574031843</v>
       </c>
       <c r="P24" s="22">
         <f t="shared" si="25"/>
-        <v>2943.5123881220456</v>
+        <v>2929.3555627703313</v>
       </c>
       <c r="Q24" s="22">
         <f t="shared" si="25"/>
-        <v>2946.1600566305965</v>
+        <v>3088.8994562449311</v>
       </c>
       <c r="R24" s="22">
         <f t="shared" si="25"/>
-        <v>2954.9969057325502</v>
+        <v>3262.4065574344781</v>
       </c>
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
@@ -3426,59 +3426,59 @@
       </c>
       <c r="E25" s="22">
         <f t="shared" si="27"/>
-        <v>-172.58587861250021</v>
+        <v>-156.83587861250021</v>
       </c>
       <c r="F25" s="22">
         <f t="shared" ref="F25:N25" si="28">F20-F24</f>
-        <v>-146.68978768753163</v>
+        <v>-104.95228768753157</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" si="28"/>
-        <v>-73.203778629266822</v>
+        <v>9.838096370733183</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="28"/>
-        <v>83.035143193191288</v>
+        <v>230.05548694319123</v>
       </c>
       <c r="I25" s="22">
         <f t="shared" si="28"/>
-        <v>182.01452408523937</v>
+        <v>365.78995377273918</v>
       </c>
       <c r="J25" s="22">
         <f t="shared" si="28"/>
-        <v>315.8713946096741</v>
+        <v>545.59068171904892</v>
       </c>
       <c r="K25" s="22">
         <f t="shared" si="28"/>
-        <v>494.80050859553012</v>
+        <v>781.94961748224841</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="28"/>
-        <v>731.78526986719362</v>
+        <v>1090.7216559755916</v>
       </c>
       <c r="M25" s="22">
         <f t="shared" si="28"/>
-        <v>1043.3373755762518</v>
+        <v>1492.0078582117494</v>
       </c>
       <c r="N25" s="22">
         <f t="shared" si="28"/>
-        <v>1460.823355899588</v>
+        <v>1769.7136700017604</v>
       </c>
       <c r="O25" s="22">
         <f t="shared" ref="O25:R25" si="29">O20-O24</f>
-        <v>1912.2801051288961</v>
+        <v>2076.6445946842541</v>
       </c>
       <c r="P25" s="22">
         <f t="shared" si="29"/>
-        <v>2401.738459174137</v>
+        <v>2415.8952845258514</v>
       </c>
       <c r="Q25" s="22">
         <f t="shared" si="29"/>
-        <v>2933.6158753952054</v>
+        <v>2790.8764757808708</v>
       </c>
       <c r="R25" s="22">
         <f t="shared" si="29"/>
-        <v>3512.7566194958322</v>
+        <v>3205.3469677939042</v>
       </c>
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
@@ -3598,55 +3598,55 @@
       </c>
       <c r="F26" s="22">
         <f t="shared" si="30"/>
-        <v>2.8113352857499927</v>
+        <v>3.1263352857499926</v>
       </c>
       <c r="G26" s="22">
         <f t="shared" si="30"/>
-        <v>-6.6233762285639847E-2</v>
+        <v>1.0898162377143612</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="30"/>
-        <v>-1.531634010116689</v>
+        <v>1.3083744898833121</v>
       </c>
       <c r="I26" s="22">
         <f t="shared" si="30"/>
-        <v>-6.4570844821346327E-2</v>
+        <v>5.472923995678654</v>
       </c>
       <c r="J26" s="22">
         <f t="shared" si="30"/>
-        <v>3.2105283135061784</v>
+        <v>12.155655795510174</v>
       </c>
       <c r="K26" s="22">
         <f t="shared" si="30"/>
-        <v>8.9540029261234242</v>
+        <v>22.195089870772236</v>
       </c>
       <c r="L26" s="22">
         <f t="shared" si="30"/>
-        <v>18.021584133513187</v>
+        <v>36.669694603126608</v>
       </c>
       <c r="M26" s="22">
         <f t="shared" si="30"/>
-        <v>31.518107505525915</v>
+        <v>56.962738913543539</v>
       </c>
       <c r="N26" s="22">
         <f t="shared" si="30"/>
-        <v>50.865506200997913</v>
+        <v>84.844209661798814</v>
       </c>
       <c r="O26" s="22">
         <f t="shared" si="30"/>
-        <v>78.075905718808471</v>
+        <v>118.22625149574287</v>
       </c>
       <c r="P26" s="22">
         <f t="shared" si="30"/>
-        <v>113.90231391406715</v>
+        <v>157.73392672698284</v>
       </c>
       <c r="Q26" s="22">
         <f t="shared" si="30"/>
-        <v>159.18384782965484</v>
+        <v>204.05925252953384</v>
       </c>
       <c r="R26" s="22">
         <f t="shared" si="30"/>
-        <v>214.8542428477023</v>
+        <v>257.96809563912115</v>
       </c>
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
@@ -3762,59 +3762,59 @@
       </c>
       <c r="E27" s="22">
         <f t="shared" si="32"/>
-        <v>-166.44563071250022</v>
+        <v>-150.69563071250022</v>
       </c>
       <c r="F27" s="22">
         <f t="shared" ref="F27" si="33">F25+F26</f>
-        <v>-143.87845240178163</v>
+        <v>-101.82595240178158</v>
       </c>
       <c r="G27" s="22">
         <f t="shared" ref="G27" si="34">G25+G26</f>
-        <v>-73.270012391552456</v>
+        <v>10.927912608447544</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" ref="H27" si="35">H25+H26</f>
-        <v>81.503509183074598</v>
+        <v>231.36386143307453</v>
       </c>
       <c r="I27" s="22">
         <f t="shared" ref="I27" si="36">I25+I26</f>
-        <v>181.94995324041804</v>
+        <v>371.26287776841781</v>
       </c>
       <c r="J27" s="22">
         <f t="shared" ref="J27" si="37">J25+J26</f>
-        <v>319.08192292318029</v>
+        <v>557.74633751455906</v>
       </c>
       <c r="K27" s="22">
         <f t="shared" ref="K27" si="38">K25+K26</f>
-        <v>503.75451152165357</v>
+        <v>804.14470735302064</v>
       </c>
       <c r="L27" s="22">
         <f t="shared" ref="L27" si="39">L25+L26</f>
-        <v>749.80685400070683</v>
+        <v>1127.3913505787182</v>
       </c>
       <c r="M27" s="22">
         <f t="shared" ref="M27:N27" si="40">M25+M26</f>
-        <v>1074.8554830817777</v>
+        <v>1548.9705971252929</v>
       </c>
       <c r="N27" s="22">
         <f t="shared" si="40"/>
-        <v>1511.688862100586</v>
+        <v>1854.5578796635593</v>
       </c>
       <c r="O27" s="22">
         <f t="shared" ref="O27:R27" si="41">O25+O26</f>
-        <v>1990.3560108477045</v>
+        <v>2194.870846179997</v>
       </c>
       <c r="P27" s="22">
         <f t="shared" si="41"/>
-        <v>2515.6407730882042</v>
+        <v>2573.629211252834</v>
       </c>
       <c r="Q27" s="22">
         <f t="shared" si="41"/>
-        <v>3092.7997232248604</v>
+        <v>2994.9357283104046</v>
       </c>
       <c r="R27" s="22">
         <f t="shared" si="41"/>
-        <v>3727.6108623435343</v>
+        <v>3463.3150634330254</v>
       </c>
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
@@ -3937,48 +3937,48 @@
         <v>0</v>
       </c>
       <c r="H28" s="22">
-        <f t="shared" ref="G28:N28" si="42">H27*0.1</f>
-        <v>8.1503509183074598</v>
+        <f t="shared" ref="H28:N28" si="42">H27*0.1</f>
+        <v>23.136386143307455</v>
       </c>
       <c r="I28" s="22">
         <f t="shared" si="42"/>
-        <v>18.194995324041805</v>
+        <v>37.126287776841785</v>
       </c>
       <c r="J28" s="22">
         <f t="shared" si="42"/>
-        <v>31.908192292318031</v>
+        <v>55.774633751455909</v>
       </c>
       <c r="K28" s="22">
         <f t="shared" si="42"/>
-        <v>50.375451152165361</v>
+        <v>80.414470735302075</v>
       </c>
       <c r="L28" s="22">
         <f t="shared" si="42"/>
-        <v>74.980685400070683</v>
+        <v>112.73913505787182</v>
       </c>
       <c r="M28" s="22">
         <f t="shared" si="42"/>
-        <v>107.48554830817778</v>
+        <v>154.89705971252931</v>
       </c>
       <c r="N28" s="22">
         <f t="shared" si="42"/>
-        <v>151.16888621005862</v>
+        <v>185.45578796635596</v>
       </c>
       <c r="O28" s="22">
         <f t="shared" ref="O28:R28" si="43">O27*0.1</f>
-        <v>199.03560108477046</v>
+        <v>219.4870846179997</v>
       </c>
       <c r="P28" s="22">
         <f t="shared" si="43"/>
-        <v>251.56407730882043</v>
+        <v>257.36292112528344</v>
       </c>
       <c r="Q28" s="22">
         <f t="shared" si="43"/>
-        <v>309.27997232248606</v>
+        <v>299.49357283104047</v>
       </c>
       <c r="R28" s="22">
         <f t="shared" si="43"/>
-        <v>372.76108623435346</v>
+        <v>346.33150634330258</v>
       </c>
       <c r="S28" s="37"/>
       <c r="T28" s="37"/>
@@ -4094,771 +4094,771 @@
       </c>
       <c r="E29" s="23">
         <f t="shared" si="44"/>
-        <v>-166.44563071250022</v>
+        <v>-150.69563071250022</v>
       </c>
       <c r="F29" s="23">
         <f t="shared" ref="F29:N29" si="46">F27-F28</f>
-        <v>-143.87845240178163</v>
+        <v>-101.82595240178158</v>
       </c>
       <c r="G29" s="23">
         <f t="shared" si="46"/>
-        <v>-73.270012391552456</v>
+        <v>10.927912608447544</v>
       </c>
       <c r="H29" s="23">
         <f t="shared" si="46"/>
-        <v>73.353158264767131</v>
+        <v>208.22747528976709</v>
       </c>
       <c r="I29" s="23">
         <f t="shared" si="46"/>
-        <v>163.75495791637624</v>
+        <v>334.13658999157605</v>
       </c>
       <c r="J29" s="23">
         <f t="shared" si="46"/>
-        <v>287.17373063086228</v>
+        <v>501.97170376310316</v>
       </c>
       <c r="K29" s="23">
         <f t="shared" si="46"/>
-        <v>453.37906036948823</v>
+        <v>723.73023661771856</v>
       </c>
       <c r="L29" s="23">
         <f t="shared" si="46"/>
-        <v>674.82616860063615</v>
+        <v>1014.6522155208463</v>
       </c>
       <c r="M29" s="23">
         <f t="shared" si="46"/>
-        <v>967.36993477359988</v>
+        <v>1394.0735374127635</v>
       </c>
       <c r="N29" s="23">
         <f t="shared" si="46"/>
-        <v>1360.5199758905273</v>
+        <v>1669.1020916972034</v>
       </c>
       <c r="O29" s="23">
         <f t="shared" ref="O29:R29" si="47">O27-O28</f>
-        <v>1791.3204097629341</v>
+        <v>1975.3837615619973</v>
       </c>
       <c r="P29" s="23">
         <f t="shared" si="47"/>
-        <v>2264.076695779384</v>
+        <v>2316.2662901275507</v>
       </c>
       <c r="Q29" s="23">
         <f t="shared" si="47"/>
-        <v>2783.5197509023742</v>
+        <v>2695.4421554793639</v>
       </c>
       <c r="R29" s="23">
         <f t="shared" si="47"/>
-        <v>3354.8497761091808</v>
+        <v>3116.983557089723</v>
       </c>
       <c r="S29" s="23">
         <f t="shared" ref="S29:AX29" si="48">R29*($F$2+1)</f>
-        <v>3371.6240249897264</v>
+        <v>3148.1533926606203</v>
       </c>
       <c r="T29" s="23">
         <f t="shared" si="48"/>
-        <v>3388.4821451146745</v>
+        <v>3179.6349265872263</v>
       </c>
       <c r="U29" s="23">
         <f t="shared" si="48"/>
-        <v>3405.4245558402476</v>
+        <v>3211.4312758530987</v>
       </c>
       <c r="V29" s="23">
         <f t="shared" si="48"/>
-        <v>3422.4516786194486</v>
+        <v>3243.5455886116297</v>
       </c>
       <c r="W29" s="23">
         <f t="shared" si="48"/>
-        <v>3439.5639370125455</v>
+        <v>3275.9810444977461</v>
       </c>
       <c r="X29" s="23">
         <f t="shared" si="48"/>
-        <v>3456.7617566976078</v>
+        <v>3308.7408549427237</v>
       </c>
       <c r="Y29" s="23">
         <f t="shared" si="48"/>
-        <v>3474.0455654810953</v>
+        <v>3341.8282634921511</v>
       </c>
       <c r="Z29" s="23">
         <f t="shared" si="48"/>
-        <v>3491.4157933085003</v>
+        <v>3375.2465461270726</v>
       </c>
       <c r="AA29" s="23">
         <f t="shared" si="48"/>
-        <v>3508.8728722750425</v>
+        <v>3408.9990115883434</v>
       </c>
       <c r="AB29" s="23">
         <f t="shared" si="48"/>
-        <v>3526.4172366364173</v>
+        <v>3443.089001704227</v>
       </c>
       <c r="AC29" s="23">
         <f t="shared" si="48"/>
-        <v>3544.0493228195992</v>
+        <v>3477.5198917212692</v>
       </c>
       <c r="AD29" s="23">
         <f t="shared" si="48"/>
-        <v>3561.7695694336967</v>
+        <v>3512.2950906384822</v>
       </c>
       <c r="AE29" s="23">
         <f t="shared" si="48"/>
-        <v>3579.5784172808649</v>
+        <v>3547.4180415448668</v>
       </c>
       <c r="AF29" s="23">
         <f t="shared" si="48"/>
-        <v>3597.4763093672686</v>
+        <v>3582.8922219603155</v>
       </c>
       <c r="AG29" s="23">
         <f t="shared" si="48"/>
-        <v>3615.4636909141045</v>
+        <v>3618.7211441799186</v>
       </c>
       <c r="AH29" s="23">
         <f t="shared" si="48"/>
-        <v>3633.5410093686746</v>
+        <v>3654.9083556217179</v>
       </c>
       <c r="AI29" s="23">
         <f t="shared" si="48"/>
-        <v>3651.7087144155175</v>
+        <v>3691.4574391779352</v>
       </c>
       <c r="AJ29" s="23">
         <f t="shared" si="48"/>
-        <v>3669.9672579875946</v>
+        <v>3728.3720135697145</v>
       </c>
       <c r="AK29" s="23">
         <f t="shared" si="48"/>
-        <v>3688.3170942775323</v>
+        <v>3765.6557337054114</v>
       </c>
       <c r="AL29" s="23">
         <f t="shared" si="48"/>
-        <v>3706.7586797489193</v>
+        <v>3803.3122910424654</v>
       </c>
       <c r="AM29" s="23">
         <f t="shared" si="48"/>
-        <v>3725.2924731476637</v>
+        <v>3841.3454139528899</v>
       </c>
       <c r="AN29" s="23">
         <f t="shared" si="48"/>
-        <v>3743.9189355134017</v>
+        <v>3879.7588680924187</v>
       </c>
       <c r="AO29" s="23">
         <f t="shared" si="48"/>
-        <v>3762.6385301909681</v>
+        <v>3918.5564567733427</v>
       </c>
       <c r="AP29" s="23">
         <f t="shared" si="48"/>
-        <v>3781.4517228419227</v>
+        <v>3957.742021341076</v>
       </c>
       <c r="AQ29" s="23">
         <f t="shared" si="48"/>
-        <v>3800.3589814561319</v>
+        <v>3997.3194415544867</v>
       </c>
       <c r="AR29" s="23">
         <f t="shared" si="48"/>
-        <v>3819.3607763634122</v>
+        <v>4037.2926359700318</v>
       </c>
       <c r="AS29" s="23">
         <f t="shared" si="48"/>
-        <v>3838.4575802452291</v>
+        <v>4077.665562329732</v>
       </c>
       <c r="AT29" s="23">
         <f t="shared" si="48"/>
-        <v>3857.649868146455</v>
+        <v>4118.4422179530293</v>
       </c>
       <c r="AU29" s="23">
         <f t="shared" si="48"/>
-        <v>3876.9381174871869</v>
+        <v>4159.6266401325593</v>
       </c>
       <c r="AV29" s="23">
         <f t="shared" si="48"/>
-        <v>3896.3228080746226</v>
+        <v>4201.2229065338852</v>
       </c>
       <c r="AW29" s="23">
         <f t="shared" si="48"/>
-        <v>3915.8044221149953</v>
+        <v>4243.2351355992241</v>
       </c>
       <c r="AX29" s="23">
         <f t="shared" si="48"/>
-        <v>3935.3834442255697</v>
+        <v>4285.6674869552162</v>
       </c>
       <c r="AY29" s="23">
         <f t="shared" ref="AY29:CD29" si="49">AX29*($F$2+1)</f>
-        <v>3955.0603614466972</v>
+        <v>4328.5241618247683</v>
       </c>
       <c r="AZ29" s="23">
         <f t="shared" si="49"/>
-        <v>3974.8356632539303</v>
+        <v>4371.809403443016</v>
       </c>
       <c r="BA29" s="23">
         <f t="shared" si="49"/>
-        <v>3994.7098415701994</v>
+        <v>4415.5274974774466</v>
       </c>
       <c r="BB29" s="23">
         <f t="shared" si="49"/>
-        <v>4014.6833907780501</v>
+        <v>4459.6827724522209</v>
       </c>
       <c r="BC29" s="23">
         <f t="shared" si="49"/>
-        <v>4034.7568077319402</v>
+        <v>4504.2796001767429</v>
       </c>
       <c r="BD29" s="23">
         <f t="shared" si="49"/>
-        <v>4054.9305917705992</v>
+        <v>4549.3223961785106</v>
       </c>
       <c r="BE29" s="23">
         <f t="shared" si="49"/>
-        <v>4075.2052447294518</v>
+        <v>4594.8156201402962</v>
       </c>
       <c r="BF29" s="23">
         <f t="shared" si="49"/>
-        <v>4095.5812709530987</v>
+        <v>4640.7637763416997</v>
       </c>
       <c r="BG29" s="23">
         <f t="shared" si="49"/>
-        <v>4116.059177307864</v>
+        <v>4687.171414105117</v>
       </c>
       <c r="BH29" s="23">
         <f t="shared" si="49"/>
-        <v>4136.6394731944029</v>
+        <v>4734.0431282461686</v>
       </c>
       <c r="BI29" s="23">
         <f t="shared" si="49"/>
-        <v>4157.3226705603747</v>
+        <v>4781.38355952863</v>
       </c>
       <c r="BJ29" s="23">
         <f t="shared" si="49"/>
-        <v>4178.1092839131761</v>
+        <v>4829.1973951239161</v>
       </c>
       <c r="BK29" s="23">
         <f t="shared" si="49"/>
-        <v>4198.9998303327411</v>
+        <v>4877.4893690751551</v>
       </c>
       <c r="BL29" s="23">
         <f t="shared" si="49"/>
-        <v>4219.9948294844044</v>
+        <v>4926.264262765907</v>
       </c>
       <c r="BM29" s="23">
         <f t="shared" si="49"/>
-        <v>4241.0948036318259</v>
+        <v>4975.5269053935663</v>
       </c>
       <c r="BN29" s="23">
         <f t="shared" si="49"/>
-        <v>4262.3002776499843</v>
+        <v>5025.2821744475023</v>
       </c>
       <c r="BO29" s="23">
         <f t="shared" si="49"/>
-        <v>4283.6117790382341</v>
+        <v>5075.5349961919774</v>
       </c>
       <c r="BP29" s="23">
         <f t="shared" si="49"/>
-        <v>4305.0298379334245</v>
+        <v>5126.2903461538972</v>
       </c>
       <c r="BQ29" s="23">
         <f t="shared" si="49"/>
-        <v>4326.5549871230915</v>
+        <v>5177.5532496154365</v>
       </c>
       <c r="BR29" s="23">
         <f t="shared" si="49"/>
-        <v>4348.1877620587065</v>
+        <v>5229.328782111591</v>
       </c>
       <c r="BS29" s="23">
         <f t="shared" si="49"/>
-        <v>4369.9287008689998</v>
+        <v>5281.6220699327068</v>
       </c>
       <c r="BT29" s="23">
         <f t="shared" si="49"/>
-        <v>4391.7783443733442</v>
+        <v>5334.4382906320343</v>
       </c>
       <c r="BU29" s="23">
         <f t="shared" si="49"/>
-        <v>4413.7372360952104</v>
+        <v>5387.7826735383551</v>
       </c>
       <c r="BV29" s="23">
         <f t="shared" si="49"/>
-        <v>4435.8059222756856</v>
+        <v>5441.6605002737388</v>
       </c>
       <c r="BW29" s="23">
         <f t="shared" si="49"/>
-        <v>4457.9849518870633</v>
+        <v>5496.0771052764758</v>
       </c>
       <c r="BX29" s="23">
         <f t="shared" si="49"/>
-        <v>4480.2748766464983</v>
+        <v>5551.0378763292401</v>
       </c>
       <c r="BY29" s="23">
         <f t="shared" si="49"/>
-        <v>4502.6762510297303</v>
+        <v>5606.5482550925326</v>
       </c>
       <c r="BZ29" s="23">
         <f t="shared" si="49"/>
-        <v>4525.1896322848788</v>
+        <v>5662.6137376434581</v>
       </c>
       <c r="CA29" s="23">
         <f t="shared" si="49"/>
-        <v>4547.8155804463031</v>
+        <v>5719.2398750198927</v>
       </c>
       <c r="CB29" s="23">
         <f t="shared" si="49"/>
-        <v>4570.5546583485338</v>
+        <v>5776.4322737700913</v>
       </c>
       <c r="CC29" s="23">
         <f t="shared" si="49"/>
-        <v>4593.4074316402757</v>
+        <v>5834.1965965077925</v>
       </c>
       <c r="CD29" s="23">
         <f t="shared" si="49"/>
-        <v>4616.3744687984763</v>
+        <v>5892.5385624728706</v>
       </c>
       <c r="CE29" s="23">
         <f t="shared" ref="CE29:DJ29" si="50">CD29*($F$2+1)</f>
-        <v>4639.4563411424679</v>
+        <v>5951.4639480975993</v>
       </c>
       <c r="CF29" s="23">
         <f t="shared" si="50"/>
-        <v>4662.65362284818</v>
+        <v>6010.9785875785756</v>
       </c>
       <c r="CG29" s="23">
         <f t="shared" si="50"/>
-        <v>4685.9668909624206</v>
+        <v>6071.0883734543613</v>
       </c>
       <c r="CH29" s="23">
         <f t="shared" si="50"/>
-        <v>4709.3967254172321</v>
+        <v>6131.7992571889054</v>
       </c>
       <c r="CI29" s="23">
         <f t="shared" si="50"/>
-        <v>4732.943709044318</v>
+        <v>6193.117249760794</v>
       </c>
       <c r="CJ29" s="23">
         <f t="shared" si="50"/>
-        <v>4756.6084275895391</v>
+        <v>6255.0484222584018</v>
       </c>
       <c r="CK29" s="23">
         <f t="shared" si="50"/>
-        <v>4780.3914697274868</v>
+        <v>6317.5989064809855</v>
       </c>
       <c r="CL29" s="23">
         <f t="shared" si="50"/>
-        <v>4804.2934270761234</v>
+        <v>6380.7748955457955</v>
       </c>
       <c r="CM29" s="23">
         <f t="shared" si="50"/>
-        <v>4828.3148942115031</v>
+        <v>6444.5826445012535</v>
       </c>
       <c r="CN29" s="23">
         <f t="shared" si="50"/>
-        <v>4852.4564686825597</v>
+        <v>6509.0284709462658</v>
       </c>
       <c r="CO29" s="23">
         <f t="shared" si="50"/>
-        <v>4876.7187510259719</v>
+        <v>6574.1187556557288</v>
       </c>
       <c r="CP29" s="23">
         <f t="shared" si="50"/>
-        <v>4901.1023447811012</v>
+        <v>6639.8599432122865</v>
       </c>
       <c r="CQ29" s="23">
         <f t="shared" si="50"/>
-        <v>4925.6078565050066</v>
+        <v>6706.2585426444093</v>
       </c>
       <c r="CR29" s="23">
         <f t="shared" si="50"/>
-        <v>4950.2358957875313</v>
+        <v>6773.3211280708538</v>
       </c>
       <c r="CS29" s="23">
         <f t="shared" si="50"/>
-        <v>4974.9870752664683</v>
+        <v>6841.0543393515627</v>
       </c>
       <c r="CT29" s="23">
         <f t="shared" si="50"/>
-        <v>4999.8620106427998</v>
+        <v>6909.4648827450783</v>
       </c>
       <c r="CU29" s="23">
         <f t="shared" si="50"/>
-        <v>5024.8613206960135</v>
+        <v>6978.5595315725295</v>
       </c>
       <c r="CV29" s="23">
         <f t="shared" si="50"/>
-        <v>5049.985627299493</v>
+        <v>7048.3451268882545</v>
       </c>
       <c r="CW29" s="23">
         <f t="shared" si="50"/>
-        <v>5075.2355554359901</v>
+        <v>7118.8285781571367</v>
       </c>
       <c r="CX29" s="23">
         <f t="shared" si="50"/>
-        <v>5100.6117332131698</v>
+        <v>7190.0168639387084</v>
       </c>
       <c r="CY29" s="23">
         <f t="shared" si="50"/>
-        <v>5126.1147918792349</v>
+        <v>7261.9170325780951</v>
       </c>
       <c r="CZ29" s="23">
         <f t="shared" si="50"/>
-        <v>5151.7453658386303</v>
+        <v>7334.5362029038761</v>
       </c>
       <c r="DA29" s="23">
         <f t="shared" si="50"/>
-        <v>5177.504092667823</v>
+        <v>7407.8815649329154</v>
       </c>
       <c r="DB29" s="23">
         <f t="shared" si="50"/>
-        <v>5203.3916131311616</v>
+        <v>7481.9603805822444</v>
       </c>
       <c r="DC29" s="23">
         <f t="shared" si="50"/>
-        <v>5229.4085711968173</v>
+        <v>7556.7799843880666</v>
       </c>
       <c r="DD29" s="23">
         <f t="shared" si="50"/>
-        <v>5255.5556140528006</v>
+        <v>7632.3477842319471</v>
       </c>
       <c r="DE29" s="23">
         <f t="shared" si="50"/>
-        <v>5281.8333921230642</v>
+        <v>7708.6712620742665</v>
       </c>
       <c r="DF29" s="23">
         <f t="shared" si="50"/>
-        <v>5308.2425590836792</v>
+        <v>7785.7579746950096</v>
       </c>
       <c r="DG29" s="23">
         <f t="shared" si="50"/>
-        <v>5334.783771879097</v>
+        <v>7863.6155544419598</v>
       </c>
       <c r="DH29" s="23">
         <f t="shared" si="50"/>
-        <v>5361.4576907384917</v>
+        <v>7942.2517099863799</v>
       </c>
       <c r="DI29" s="23">
         <f t="shared" si="50"/>
-        <v>5388.264979192184</v>
+        <v>8021.6742270862442</v>
       </c>
       <c r="DJ29" s="23">
         <f t="shared" si="50"/>
-        <v>5415.206304088144</v>
+        <v>8101.8909693571068</v>
       </c>
       <c r="DK29" s="23">
         <f t="shared" ref="DK29:EP29" si="51">DJ29*($F$2+1)</f>
-        <v>5442.2823356085837</v>
+        <v>8182.9098790506778</v>
       </c>
       <c r="DL29" s="23">
         <f t="shared" si="51"/>
-        <v>5469.4937472866259</v>
+        <v>8264.7389778411853</v>
       </c>
       <c r="DM29" s="23">
         <f t="shared" si="51"/>
-        <v>5496.8412160230582</v>
+        <v>8347.3863676195979</v>
       </c>
       <c r="DN29" s="23">
         <f t="shared" si="51"/>
-        <v>5524.325422103173</v>
+        <v>8430.8602312957937</v>
       </c>
       <c r="DO29" s="23">
         <f t="shared" si="51"/>
-        <v>5551.9470492136879</v>
+        <v>8515.1688336087518</v>
       </c>
       <c r="DP29" s="23">
         <f t="shared" si="51"/>
-        <v>5579.7067844597559</v>
+        <v>8600.3205219448391</v>
       </c>
       <c r="DQ29" s="23">
         <f t="shared" si="51"/>
-        <v>5607.6053183820541</v>
+        <v>8686.3237271642884</v>
       </c>
       <c r="DR29" s="23">
         <f t="shared" si="51"/>
-        <v>5635.6433449739634</v>
+        <v>8773.1869644359322</v>
       </c>
       <c r="DS29" s="23">
         <f t="shared" si="51"/>
-        <v>5663.8215616988327</v>
+        <v>8860.9188340802921</v>
       </c>
       <c r="DT29" s="23">
         <f t="shared" si="51"/>
-        <v>5692.1406695073265</v>
+        <v>8949.5280224210946</v>
       </c>
       <c r="DU29" s="23">
         <f t="shared" si="51"/>
-        <v>5720.6013728548623</v>
+        <v>9039.0233026453061</v>
       </c>
       <c r="DV29" s="23">
         <f t="shared" si="51"/>
-        <v>5749.2043797191363</v>
+        <v>9129.4135356717597</v>
       </c>
       <c r="DW29" s="23">
         <f t="shared" si="51"/>
-        <v>5777.9504016177316</v>
+        <v>9220.7076710284782</v>
       </c>
       <c r="DX29" s="23">
         <f t="shared" si="51"/>
-        <v>5806.8401536258198</v>
+        <v>9312.9147477387633</v>
       </c>
       <c r="DY29" s="23">
         <f t="shared" si="51"/>
-        <v>5835.8743543939481</v>
+        <v>9406.0438952161512</v>
       </c>
       <c r="DZ29" s="23">
         <f t="shared" si="51"/>
-        <v>5865.0537261659174</v>
+        <v>9500.1043341683126</v>
       </c>
       <c r="EA29" s="23">
         <f t="shared" si="51"/>
-        <v>5894.3789947967462</v>
+        <v>9595.1053775099954</v>
       </c>
       <c r="EB29" s="23">
         <f t="shared" si="51"/>
-        <v>5923.8508897707288</v>
+        <v>9691.0564312850947</v>
       </c>
       <c r="EC29" s="23">
         <f t="shared" si="51"/>
-        <v>5953.4701442195819</v>
+        <v>9787.9669955979462</v>
       </c>
       <c r="ED29" s="23">
         <f t="shared" si="51"/>
-        <v>5983.2374949406794</v>
+        <v>9885.846665553925</v>
       </c>
       <c r="EE29" s="23">
         <f t="shared" si="51"/>
-        <v>6013.1536824153818</v>
+        <v>9984.7051322094649</v>
       </c>
       <c r="EF29" s="23">
         <f t="shared" si="51"/>
-        <v>6043.2194508274579</v>
+        <v>10084.552183531559</v>
       </c>
       <c r="EG29" s="23">
         <f t="shared" si="51"/>
-        <v>6073.4355480815948</v>
+        <v>10185.397705366875</v>
       </c>
       <c r="EH29" s="23">
         <f t="shared" si="51"/>
-        <v>6103.8027258220018</v>
+        <v>10287.251682420543</v>
       </c>
       <c r="EI29" s="23">
         <f t="shared" si="51"/>
-        <v>6134.3217394511112</v>
+        <v>10390.124199244749</v>
       </c>
       <c r="EJ29" s="23">
         <f t="shared" si="51"/>
-        <v>6164.9933481483658</v>
+        <v>10494.025441237196</v>
       </c>
       <c r="EK29" s="23">
         <f t="shared" si="51"/>
-        <v>6195.8183148891067</v>
+        <v>10598.965695649567</v>
       </c>
       <c r="EL29" s="23">
         <f t="shared" si="51"/>
-        <v>6226.7974064635519</v>
+        <v>10704.955352606063</v>
       </c>
       <c r="EM29" s="23">
         <f t="shared" si="51"/>
-        <v>6257.9313934958691</v>
+        <v>10812.004906132124</v>
       </c>
       <c r="EN29" s="23">
         <f t="shared" si="51"/>
-        <v>6289.2210504633476</v>
+        <v>10920.124955193445</v>
       </c>
       <c r="EO29" s="23">
         <f t="shared" si="51"/>
-        <v>6320.6671557156633</v>
+        <v>11029.326204745379</v>
       </c>
       <c r="EP29" s="23">
         <f t="shared" si="51"/>
-        <v>6352.2704914942406</v>
+        <v>11139.619466792832</v>
       </c>
       <c r="EQ29" s="23">
         <f t="shared" ref="EQ29:FV29" si="52">EP29*($F$2+1)</f>
-        <v>6384.0318439517114</v>
+        <v>11251.01566146076</v>
       </c>
       <c r="ER29" s="23">
         <f t="shared" si="52"/>
-        <v>6415.9520031714692</v>
+        <v>11363.525818075368</v>
       </c>
       <c r="ES29" s="23">
         <f t="shared" si="52"/>
-        <v>6448.0317631873259</v>
+        <v>11477.161076256121</v>
       </c>
       <c r="ET29" s="23">
         <f t="shared" si="52"/>
-        <v>6480.2719220032614</v>
+        <v>11591.932687018683</v>
       </c>
       <c r="EU29" s="23">
         <f t="shared" si="52"/>
-        <v>6512.6732816132771</v>
+        <v>11707.852013888871</v>
       </c>
       <c r="EV29" s="23">
         <f t="shared" si="52"/>
-        <v>6545.2366480213432</v>
+        <v>11824.930534027759</v>
       </c>
       <c r="EW29" s="23">
         <f t="shared" si="52"/>
-        <v>6577.9628312614495</v>
+        <v>11943.179839368036</v>
       </c>
       <c r="EX29" s="23">
         <f t="shared" si="52"/>
-        <v>6610.8526454177563</v>
+        <v>12062.611637761716</v>
       </c>
       <c r="EY29" s="23">
         <f t="shared" si="52"/>
-        <v>6643.9069086448444</v>
+        <v>12183.237754139334</v>
       </c>
       <c r="EZ29" s="23">
         <f t="shared" si="52"/>
-        <v>6677.1264431880682</v>
+        <v>12305.070131680728</v>
       </c>
       <c r="FA29" s="23">
         <f t="shared" si="52"/>
-        <v>6710.5120754040081</v>
+        <v>12428.120832997536</v>
       </c>
       <c r="FB29" s="23">
         <f t="shared" si="52"/>
-        <v>6744.0646357810274</v>
+        <v>12552.402041327512</v>
       </c>
       <c r="FC29" s="23">
         <f t="shared" si="52"/>
-        <v>6777.7849589599318</v>
+        <v>12677.926061740787</v>
       </c>
       <c r="FD29" s="23">
         <f t="shared" si="52"/>
-        <v>6811.6738837547309</v>
+        <v>12804.705322358195</v>
       </c>
       <c r="FE29" s="23">
         <f t="shared" si="52"/>
-        <v>6845.7322531735035</v>
+        <v>12932.752375581777</v>
       </c>
       <c r="FF29" s="23">
         <f t="shared" si="52"/>
-        <v>6879.9609144393708</v>
+        <v>13062.079899337594</v>
       </c>
       <c r="FG29" s="23">
         <f t="shared" si="52"/>
-        <v>6914.3607190115672</v>
+        <v>13192.700698330969</v>
       </c>
       <c r="FH29" s="23">
         <f t="shared" si="52"/>
-        <v>6948.9325226066239</v>
+        <v>13324.627705314279</v>
       </c>
       <c r="FI29" s="23">
         <f t="shared" si="52"/>
-        <v>6983.6771852196562</v>
+        <v>13457.873982367422</v>
       </c>
       <c r="FJ29" s="23">
         <f t="shared" si="52"/>
-        <v>7018.5955711457536</v>
+        <v>13592.452722191096</v>
       </c>
       <c r="FK29" s="23">
         <f t="shared" si="52"/>
-        <v>7053.688549001482</v>
+        <v>13728.377249413006</v>
       </c>
       <c r="FL29" s="23">
         <f t="shared" si="52"/>
-        <v>7088.9569917464887</v>
+        <v>13865.661021907137</v>
       </c>
       <c r="FM29" s="23">
         <f t="shared" si="52"/>
-        <v>7124.4017767052201</v>
+        <v>14004.317632126209</v>
       </c>
       <c r="FN29" s="23">
         <f t="shared" si="52"/>
-        <v>7160.0237855887453</v>
+        <v>14144.360808447471</v>
       </c>
       <c r="FO29" s="23">
         <f t="shared" si="52"/>
-        <v>7195.8239045166883</v>
+        <v>14285.804416531946</v>
       </c>
       <c r="FP29" s="23">
         <f t="shared" si="52"/>
-        <v>7231.8030240392709</v>
+        <v>14428.662460697265</v>
       </c>
       <c r="FQ29" s="23">
         <f t="shared" si="52"/>
-        <v>7267.9620391594663</v>
+        <v>14572.949085304239</v>
       </c>
       <c r="FR29" s="23">
         <f t="shared" si="52"/>
-        <v>7304.3018493552627</v>
+        <v>14718.678576157281</v>
       </c>
       <c r="FS29" s="23">
         <f t="shared" si="52"/>
-        <v>7340.8233586020378</v>
+        <v>14865.865361918854</v>
       </c>
       <c r="FT29" s="23">
         <f t="shared" si="52"/>
-        <v>7377.5274753950471</v>
+        <v>15014.524015538042</v>
       </c>
       <c r="FU29" s="23">
         <f t="shared" si="52"/>
-        <v>7414.4151127720215</v>
+        <v>15164.669255693421</v>
       </c>
       <c r="FV29" s="23">
         <f t="shared" si="52"/>
-        <v>7451.487188335881</v>
+        <v>15316.315948250356</v>
       </c>
       <c r="FW29" s="23">
         <f t="shared" ref="FW29:GN29" si="53">FV29*($F$2+1)</f>
-        <v>7488.7446242775595</v>
+        <v>15469.479107732859</v>
       </c>
       <c r="FX29" s="23">
         <f t="shared" si="53"/>
-        <v>7526.1883473989465</v>
+        <v>15624.173898810188</v>
       </c>
       <c r="FY29" s="23">
         <f t="shared" si="53"/>
-        <v>7563.8192891359404</v>
+        <v>15780.415637798289</v>
       </c>
       <c r="FZ29" s="23">
         <f t="shared" si="53"/>
-        <v>7601.6383855816193</v>
+        <v>15938.219794176272</v>
       </c>
       <c r="GA29" s="23">
         <f t="shared" si="53"/>
-        <v>7639.6465775095267</v>
+        <v>16097.601992118034</v>
       </c>
       <c r="GB29" s="23">
         <f t="shared" si="53"/>
-        <v>7677.8448103970732</v>
+        <v>16258.578012039214</v>
       </c>
       <c r="GC29" s="23">
         <f t="shared" si="53"/>
-        <v>7716.2340344490576</v>
+        <v>16421.163792159605</v>
       </c>
       <c r="GD29" s="23">
         <f t="shared" si="53"/>
-        <v>7754.8152046213017</v>
+        <v>16585.3754300812</v>
       </c>
       <c r="GE29" s="23">
         <f t="shared" si="53"/>
-        <v>7793.5892806444072</v>
+        <v>16751.229184382013</v>
       </c>
       <c r="GF29" s="23">
         <f t="shared" si="53"/>
-        <v>7832.5572270476287</v>
+        <v>16918.741476225834</v>
       </c>
       <c r="GG29" s="23">
         <f t="shared" si="53"/>
-        <v>7871.7200131828658</v>
+        <v>17087.928890988092</v>
       </c>
       <c r="GH29" s="23">
         <f t="shared" si="53"/>
-        <v>7911.0786132487792</v>
+        <v>17258.808179897973</v>
       </c>
       <c r="GI29" s="23">
         <f t="shared" si="53"/>
-        <v>7950.6340063150219</v>
+        <v>17431.396261696951</v>
       </c>
       <c r="GJ29" s="23">
         <f t="shared" si="53"/>
-        <v>7990.3871763465959</v>
+        <v>17605.71022431392</v>
       </c>
       <c r="GK29" s="23">
         <f t="shared" si="53"/>
-        <v>8030.3391122283283</v>
+        <v>17781.767326557059</v>
       </c>
       <c r="GL29" s="23">
         <f t="shared" si="53"/>
-        <v>8070.4908077894688</v>
+        <v>17959.584999822629</v>
       </c>
       <c r="GM29" s="23">
         <f t="shared" si="53"/>
-        <v>8110.8432618284151</v>
+        <v>18139.180849820856</v>
       </c>
       <c r="GN29" s="23">
         <f t="shared" si="53"/>
-        <v>8151.3974781375564</v>
+        <v>18320.572658319063</v>
       </c>
     </row>
     <row r="30" spans="1:196" x14ac:dyDescent="0.15">
@@ -4879,59 +4879,59 @@
       </c>
       <c r="E30" s="45">
         <f t="shared" si="55"/>
-        <v>-3.4779991339251879</v>
+        <v>-3.1488917483793335</v>
       </c>
       <c r="F30" s="45">
         <f t="shared" ref="F30:N30" si="56">F29/F31</f>
-        <v>-3.006441987703746</v>
+        <v>-2.1277252682963139</v>
       </c>
       <c r="G30" s="45">
         <f t="shared" si="56"/>
-        <v>-1.5310287121965829</v>
+        <v>0.22834646019299992</v>
       </c>
       <c r="H30" s="45">
         <f t="shared" si="56"/>
-        <v>1.5327661040030978</v>
+        <v>4.3510603169161417</v>
       </c>
       <c r="I30" s="45">
         <f t="shared" si="56"/>
-        <v>3.4217756234939678</v>
+        <v>6.9820202887196618</v>
       </c>
       <c r="J30" s="45">
         <f t="shared" si="56"/>
-        <v>6.000698138753811</v>
+        <v>10.489053653553841</v>
       </c>
       <c r="K30" s="45">
         <f t="shared" si="56"/>
-        <v>9.4736760139325931</v>
+        <v>15.122854984999359</v>
       </c>
       <c r="L30" s="45">
         <f t="shared" si="56"/>
-        <v>14.1009699076877</v>
+        <v>21.201875421484093</v>
       </c>
       <c r="M30" s="45">
         <f t="shared" si="56"/>
-        <v>20.213878735809722</v>
+        <v>29.130152200417484</v>
       </c>
       <c r="N30" s="45">
         <f t="shared" si="56"/>
-        <v>28.429026809412079</v>
+        <v>34.877068292544983</v>
       </c>
       <c r="O30" s="45">
         <f t="shared" ref="O30:R30" si="57">O29/O31</f>
-        <v>37.430906459175098</v>
+        <v>41.277040331263763</v>
       </c>
       <c r="P30" s="45">
         <f t="shared" si="57"/>
-        <v>47.309483303063473</v>
+        <v>48.400021775991974</v>
       </c>
       <c r="Q30" s="45">
         <f t="shared" si="57"/>
-        <v>58.163613195855753</v>
+        <v>56.323169566977505</v>
       </c>
       <c r="R30" s="45">
         <f t="shared" si="57"/>
-        <v>70.101958013611892</v>
+        <v>65.131575191315306</v>
       </c>
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
@@ -5497,59 +5497,59 @@
       </c>
       <c r="E34" s="34">
         <f t="shared" si="69"/>
-        <v>-0.14612435275681068</v>
+        <v>-0.1327892028915825</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="69"/>
-        <v>-8.1575533245204987E-2</v>
+        <v>-5.8364927568453108E-2</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="69"/>
-        <v>-2.6738450680143577E-2</v>
+        <v>3.593468254249096E-3</v>
       </c>
       <c r="H34" s="34">
         <f t="shared" si="69"/>
-        <v>1.9920827632904731E-2</v>
+        <v>5.5192241804612976E-2</v>
       </c>
       <c r="I34" s="34">
         <f t="shared" si="69"/>
-        <v>3.4933449347355899E-2</v>
+        <v>7.0204863519064117E-2</v>
       </c>
       <c r="J34" s="34">
         <f t="shared" si="69"/>
-        <v>4.8499326828261913E-2</v>
+        <v>8.3770740999970145E-2</v>
       </c>
       <c r="K34" s="34">
         <f t="shared" si="69"/>
-        <v>6.0777878568760706E-2</v>
+        <v>9.6049292740468917E-2</v>
       </c>
       <c r="L34" s="34">
         <f t="shared" si="69"/>
-        <v>7.190996047540904E-2</v>
+        <v>0.10718137464711726</v>
       </c>
       <c r="M34" s="34">
         <f t="shared" si="69"/>
-        <v>8.2020070673268677E-2</v>
+        <v>0.1172914848449769</v>
       </c>
       <c r="N34" s="34">
         <f t="shared" si="69"/>
-        <v>0.10439997445336847</v>
+        <v>0.12647529298584159</v>
       </c>
       <c r="O34" s="34">
         <f t="shared" ref="O34:R34" si="71">IFERROR(O25/O18,0)</f>
-        <v>0.12424001929950237</v>
+        <v>0.1349187097799088</v>
       </c>
       <c r="P34" s="34">
         <f t="shared" si="71"/>
-        <v>0.14185447172810725</v>
+        <v>0.14269061979991066</v>
       </c>
       <c r="Q34" s="34">
         <f t="shared" si="71"/>
-        <v>0.15751716264592475</v>
+        <v>0.14985293318302553</v>
       </c>
       <c r="R34" s="34">
         <f t="shared" si="71"/>
-        <v>0.17146678652830308</v>
+        <v>0.15646132192179704</v>
       </c>
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="K35" s="34">
         <f t="shared" si="72"/>
-        <v>0.1</v>
+        <v>0.10000000000000002</v>
       </c>
       <c r="L35" s="34">
         <f t="shared" si="72"/>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="M35" s="34">
         <f t="shared" si="72"/>
-        <v>0.1</v>
+        <v>0.10000000000000002</v>
       </c>
       <c r="N35" s="34">
         <f t="shared" si="72"/>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="P35" s="34">
         <f t="shared" si="74"/>
-        <v>0.1</v>
+        <v>0.10000000000000002</v>
       </c>
       <c r="Q35" s="34">
         <f t="shared" si="74"/>
@@ -6274,19 +6274,19 @@
       </c>
       <c r="E39" s="34">
         <f t="shared" si="77"/>
-        <v>0.39999999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="77"/>
-        <v>0.39999999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="77"/>
-        <v>0.39999999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="H39" s="34">
         <f t="shared" si="77"/>
-        <v>0.39999999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="I39" s="34">
         <f t="shared" si="77"/>
@@ -6310,23 +6310,23 @@
       </c>
       <c r="N39" s="34">
         <f t="shared" si="77"/>
-        <v>-5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="O39" s="34">
         <f t="shared" si="77"/>
-        <v>-5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="P39" s="34">
         <f t="shared" si="77"/>
-        <v>-5.0000000000000044E-2</v>
+        <v>9.9999999999999867E-2</v>
       </c>
       <c r="Q39" s="34">
         <f t="shared" si="77"/>
-        <v>-5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="R39" s="34">
         <f t="shared" si="77"/>
-        <v>-5.0000000000000044E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="S39" s="37"/>
       <c r="T39" s="37"/>
@@ -6604,59 +6604,59 @@
       </c>
       <c r="E41" s="42">
         <f t="shared" si="79"/>
-        <v>0.3071291636712199</v>
+        <v>0.26938653247064459</v>
       </c>
       <c r="F41" s="42">
         <f t="shared" si="79"/>
-        <v>0.30970502232040564</v>
+        <v>0.26985407247293347</v>
       </c>
       <c r="G41" s="42">
         <f t="shared" si="79"/>
-        <v>0.31234911689663303</v>
+        <v>0.27032540177199293</v>
       </c>
       <c r="H41" s="42">
         <f t="shared" si="79"/>
-        <v>0.31505507572190972</v>
+        <v>0.27080019990683724</v>
       </c>
       <c r="I41" s="42">
         <f>I24/H24-1</f>
-        <v>0.1865564598730951</v>
+        <v>0.17796678949958844</v>
       </c>
       <c r="J41" s="42">
         <f t="shared" si="79"/>
-        <v>0.18960508666505871</v>
+        <v>0.18092815017627695</v>
       </c>
       <c r="K41" s="42">
         <f t="shared" si="79"/>
-        <v>0.19256100704453605</v>
+        <v>0.18382607740319568</v>
       </c>
       <c r="L41" s="42">
         <f t="shared" si="79"/>
-        <v>0.19541598553874073</v>
+        <v>0.18665122252286115</v>
       </c>
       <c r="M41" s="42">
         <f t="shared" si="79"/>
-        <v>0.19816346977796107</v>
+        <v>0.18939553016215038</v>
       </c>
       <c r="N41" s="42">
         <f t="shared" si="79"/>
-        <v>-5.3452261663141654E-3</v>
+        <v>4.9085913919730828E-2</v>
       </c>
       <c r="O41" s="42">
         <f t="shared" si="79"/>
-        <v>-3.2808035414088055E-3</v>
+        <v>5.0918818630060425E-2</v>
       </c>
       <c r="P41" s="42">
         <f t="shared" si="79"/>
-        <v>-1.1966109100108868E-3</v>
+        <v>5.2712314316228914E-2</v>
       </c>
       <c r="Q41" s="42">
         <f t="shared" si="79"/>
-        <v>8.9949290488289257E-4</v>
+        <v>5.4463819791038537E-2</v>
       </c>
       <c r="R41" s="42">
         <f t="shared" si="79"/>
-        <v>2.9994463749738465E-3</v>
+        <v>5.6171171528021757E-2</v>
       </c>
       <c r="S41" s="37"/>
       <c r="T41" s="37"/>
@@ -6883,59 +6883,59 @@
       </c>
       <c r="E43" s="47">
         <f>D43+E29</f>
-        <v>140.56676428749964</v>
+        <v>156.31676428749964</v>
       </c>
       <c r="F43" s="47">
         <f t="shared" ref="F43:R43" si="81">E43+F29</f>
-        <v>-3.3116881142819921</v>
+        <v>54.49081188571806</v>
       </c>
       <c r="G43" s="47">
         <f t="shared" si="81"/>
-        <v>-76.581700505834448</v>
+        <v>65.418724494165602</v>
       </c>
       <c r="H43" s="47">
         <f t="shared" si="81"/>
-        <v>-3.2285422410673164</v>
+        <v>273.64619978393267</v>
       </c>
       <c r="I43" s="47">
         <f t="shared" si="81"/>
-        <v>160.52641567530893</v>
+        <v>607.78278977550872</v>
       </c>
       <c r="J43" s="47">
         <f t="shared" si="81"/>
-        <v>447.70014630617118</v>
+        <v>1109.7544935386118</v>
       </c>
       <c r="K43" s="47">
         <f t="shared" si="81"/>
-        <v>901.07920667565941</v>
+        <v>1833.4847301563304</v>
       </c>
       <c r="L43" s="47">
         <f t="shared" si="81"/>
-        <v>1575.9053752762957</v>
+        <v>2848.1369456771768</v>
       </c>
       <c r="M43" s="47">
         <f t="shared" si="81"/>
-        <v>2543.2753100498958</v>
+        <v>4242.2104830899407</v>
       </c>
       <c r="N43" s="47">
         <f t="shared" si="81"/>
-        <v>3903.7952859404231</v>
+        <v>5911.3125747871436</v>
       </c>
       <c r="O43" s="47">
         <f t="shared" si="81"/>
-        <v>5695.1156957033572</v>
+        <v>7886.6963363491413</v>
       </c>
       <c r="P43" s="47">
         <f t="shared" si="81"/>
-        <v>7959.1923914827412</v>
+        <v>10202.962626476692</v>
       </c>
       <c r="Q43" s="47">
         <f t="shared" si="81"/>
-        <v>10742.712142385115</v>
+        <v>12898.404781956056</v>
       </c>
       <c r="R43" s="47">
         <f t="shared" si="81"/>
-        <v>14097.561918494295</v>
+        <v>16015.38833904578</v>
       </c>
       <c r="S43" s="37"/>
       <c r="T43" s="37"/>
@@ -8933,23 +8933,23 @@
       </c>
       <c r="D67" s="15">
         <f>SUM(Reports!J61:M61)</f>
-        <v>7345.7389999999996</v>
+        <v>7320.8510000000006</v>
       </c>
       <c r="E67" s="15">
         <f>D67*1.5</f>
-        <v>11018.608499999998</v>
+        <v>10981.2765</v>
       </c>
       <c r="F67" s="15">
         <f>E67*1.45</f>
-        <v>15976.982324999997</v>
+        <v>15922.850924999999</v>
       </c>
       <c r="G67" s="15">
         <f>F67*1.4</f>
-        <v>22367.775254999993</v>
+        <v>22291.991294999996</v>
       </c>
       <c r="H67" s="15">
         <f>G67*1.35</f>
-        <v>30196.496594249991</v>
+        <v>30094.188248249997</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -8962,7 +8962,7 @@
       </c>
       <c r="D68" s="18">
         <f>D67/C67-1</f>
-        <v>0.58408248907750737</v>
+        <v>0.57871548039558185</v>
       </c>
       <c r="E68" s="18">
         <f t="shared" ref="E68:H68" si="90">E67/D67-1</f>
@@ -8998,23 +8998,23 @@
       </c>
       <c r="D70" s="18">
         <f>D18/D67</f>
-        <v>0.10560630863688458</v>
+        <v>0.10596532834775628</v>
       </c>
       <c r="E70" s="18">
         <f>E18/E67</f>
-        <v>0.10719040326643788</v>
+        <v>0.10755480827297265</v>
       </c>
       <c r="F70" s="18">
-        <f t="shared" ref="E70:H70" si="91">F18/F67</f>
-        <v>0.11254992342975977</v>
+        <f t="shared" ref="F70:H70" si="91">F18/F67</f>
+        <v>0.11293254868662127</v>
       </c>
       <c r="G70" s="18">
         <f t="shared" si="91"/>
-        <v>0.12239804172986377</v>
+        <v>0.12281414669670064</v>
       </c>
       <c r="H70" s="18">
         <f t="shared" si="91"/>
-        <v>0.13803779150645748</v>
+        <v>0.13850706544127905</v>
       </c>
     </row>
   </sheetData>
@@ -9034,10 +9034,10 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M55" sqref="M55"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9371,6 +9371,10 @@
       <c r="L10" s="22">
         <v>185</v>
       </c>
+      <c r="M10" s="22">
+        <f>760-L11-K11-J11</f>
+        <v>196.98099999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="63" t="s">
@@ -9419,9 +9423,8 @@
       <c r="L11" s="44">
         <v>185</v>
       </c>
-      <c r="M11" s="44">
-        <f>760-L11-K11-J11</f>
-        <v>196.98099999999999</v>
+      <c r="M11" s="16">
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -9468,8 +9471,14 @@
         <f>67.768+17.468+12.06+16.802</f>
         <v>114.09800000000001</v>
       </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="22">
+        <f>L11-L13</f>
+        <v>103.45043398140571</v>
+      </c>
+      <c r="M12" s="22">
+        <f>M10-M13</f>
+        <v>110.15010776265555</v>
+      </c>
     </row>
     <row r="13" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="62" t="s">
@@ -9515,8 +9524,14 @@
         <f t="shared" si="1"/>
         <v>89.942999999999984</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="L13" s="22">
+        <f>L11*K26</f>
+        <v>81.549566018594291</v>
+      </c>
+      <c r="M13" s="22">
+        <f>M10*L26</f>
+        <v>86.830892237344443</v>
+      </c>
     </row>
     <row r="14" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="62" t="s">
@@ -9691,55 +9706,67 @@
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
+      <c r="L17" s="25">
+        <f t="shared" ref="L17:M17" si="9">SUM(L14:L16)</f>
+        <v>110.95</v>
+      </c>
+      <c r="M17" s="25">
+        <f t="shared" si="9"/>
+        <v>95.35</v>
+      </c>
     </row>
     <row r="18" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="62" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="26">
-        <f t="shared" ref="B18:D18" si="9">B13-B17</f>
+        <f t="shared" ref="B18:D18" si="10">B13-B17</f>
         <v>-27.320999999999998</v>
       </c>
       <c r="C18" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-38.771000000000001</v>
       </c>
       <c r="D18" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-20.615000000000009</v>
       </c>
       <c r="E18" s="25">
-        <f t="shared" ref="E18:G18" si="10">E13-E17</f>
+        <f t="shared" ref="E18:G18" si="11">E13-E17</f>
         <v>-39.897999999999982</v>
       </c>
       <c r="F18" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-32.680999999999997</v>
       </c>
       <c r="G18" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-33.682000000000002</v>
       </c>
       <c r="H18" s="25">
-        <f t="shared" ref="H18:I18" si="11">H13-H17</f>
+        <f t="shared" ref="H18:I18" si="12">H13-H17</f>
         <v>-81.343999999999994</v>
       </c>
       <c r="I18" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39.568999999999988</v>
       </c>
       <c r="J18" s="26">
-        <f t="shared" ref="J18:K18" si="12">J13-J17</f>
+        <f t="shared" ref="J18:K18" si="13">J13-J17</f>
         <v>-45.006999999999977</v>
       </c>
       <c r="K18" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-32.057000000000016</v>
       </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
+      <c r="L18" s="25">
+        <f t="shared" ref="L18:M18" si="14">L13-L17</f>
+        <v>-29.400433981405712</v>
+      </c>
+      <c r="M18" s="25">
+        <f t="shared" si="14"/>
+        <v>-8.5191077626555511</v>
+      </c>
     </row>
     <row r="19" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="62" t="s">
@@ -9776,54 +9803,66 @@
         <f>0+2</f>
         <v>2</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="L19" s="22">
+        <f>K19</f>
+        <v>2</v>
+      </c>
+      <c r="M19" s="22">
+        <f>L19</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="62" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="26">
-        <f t="shared" ref="B20" si="13">B18+B19</f>
+        <f t="shared" ref="B20" si="15">B18+B19</f>
         <v>-26.320999999999998</v>
       </c>
       <c r="C20" s="25">
-        <f t="shared" ref="C20" si="14">C18+C19</f>
+        <f t="shared" ref="C20" si="16">C18+C19</f>
         <v>-37.771000000000001</v>
       </c>
       <c r="D20" s="25">
-        <f t="shared" ref="D20:H20" si="15">D18+D19</f>
+        <f t="shared" ref="D20:H20" si="17">D18+D19</f>
         <v>-19.615000000000009</v>
       </c>
       <c r="E20" s="25">
         <v>4</v>
       </c>
       <c r="F20" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-30.680999999999997</v>
       </c>
       <c r="G20" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-31.682000000000002</v>
       </c>
       <c r="H20" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-85.343999999999994</v>
       </c>
       <c r="I20" s="25">
-        <f t="shared" ref="I20" si="16">I18+I19</f>
+        <f t="shared" ref="I20" si="18">I18+I19</f>
         <v>35.568999999999988</v>
       </c>
       <c r="J20" s="26">
-        <f t="shared" ref="J20:K20" si="17">J18+J19</f>
+        <f t="shared" ref="J20:M20" si="19">J18+J19</f>
         <v>-15.006999999999977</v>
       </c>
       <c r="K20" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-30.057000000000016</v>
       </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
+      <c r="L20" s="25">
+        <f t="shared" si="19"/>
+        <v>-27.400433981405712</v>
+      </c>
+      <c r="M20" s="25">
+        <f t="shared" si="19"/>
+        <v>-6.5191077626555511</v>
+      </c>
     </row>
     <row r="21" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="62" t="s">
@@ -9859,102 +9898,120 @@
       <c r="K21" s="22">
         <v>0</v>
       </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
+      <c r="L21" s="22">
+        <f>L20*K28</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="22">
+        <f>M20*L28</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="63" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="24">
-        <f t="shared" ref="B22:K22" si="18">B20-B21</f>
+        <f t="shared" ref="B22:K22" si="20">B20-B21</f>
         <v>-26.320999999999998</v>
       </c>
       <c r="C22" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-37.771000000000001</v>
       </c>
       <c r="D22" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-19.615000000000009</v>
       </c>
       <c r="E22" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-30.680999999999997</v>
       </c>
       <c r="G22" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-31.682000000000002</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-85.343999999999994</v>
       </c>
       <c r="I22" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>35.568999999999988</v>
       </c>
       <c r="J22" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-15.006999999999977</v>
       </c>
       <c r="K22" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-30.057000000000016</v>
       </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="L22" s="23">
+        <f t="shared" ref="L22:M22" si="21">L20-L21</f>
+        <v>-27.400433981405712</v>
+      </c>
+      <c r="M22" s="23">
+        <f t="shared" si="21"/>
+        <v>-6.5191077626555511</v>
+      </c>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="64" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="57">
-        <f t="shared" ref="B23:G23" si="19">IFERROR(B22/B24,0)</f>
+        <f t="shared" ref="B23:G23" si="22">IFERROR(B22/B24,0)</f>
         <v>0</v>
       </c>
       <c r="C23" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="D23" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E23" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8.4485632880186193E-2</v>
       </c>
       <c r="F23" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G23" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.65894525041011454</v>
       </c>
       <c r="H23" s="56">
-        <f t="shared" ref="H23:I23" si="20">IFERROR(H22/H24,0)</f>
+        <f t="shared" ref="H23:I23" si="23">IFERROR(H22/H24,0)</f>
         <v>0</v>
       </c>
       <c r="I23" s="56">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.74323940295114221</v>
       </c>
       <c r="J23" s="57">
-        <f t="shared" ref="J23:K23" si="21">IFERROR(J22/J24,0)</f>
+        <f t="shared" ref="J23:K23" si="24">IFERROR(J22/J24,0)</f>
         <v>0</v>
       </c>
       <c r="K23" s="56">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.42452477821768858</v>
       </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+      <c r="L23" s="56">
+        <f t="shared" ref="L23:M23" si="25">IFERROR(L22/L24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="62" t="s">
@@ -9996,141 +10053,159 @@
         <v>15</v>
       </c>
       <c r="B26" s="33">
-        <f t="shared" ref="B26:J26" si="22">IFERROR(B13/B11,0)</f>
+        <f t="shared" ref="B26:J26" si="26">IFERROR(B13/B11,0)</f>
         <v>0.16695842871708061</v>
       </c>
       <c r="C26" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.10378740021822774</v>
       </c>
       <c r="D26" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.27876541859256615</v>
       </c>
       <c r="E26" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.26006378760451709</v>
       </c>
       <c r="F26" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.28788929696294363</v>
       </c>
       <c r="G26" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.28711454422354893</v>
       </c>
       <c r="H26" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-6.7576461058919637E-2</v>
       </c>
       <c r="I26" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.70154305689614682</v>
       </c>
       <c r="J26" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.2528653048086541</v>
       </c>
       <c r="K26" s="32">
-        <f t="shared" ref="K26" si="23">IFERROR(K13/K11,0)</f>
+        <f t="shared" ref="K26:L26" si="27">IFERROR(K13/K11,0)</f>
         <v>0.44080846496537451</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
+      <c r="L26" s="32">
+        <f t="shared" si="27"/>
+        <v>0.44080846496537457</v>
+      </c>
+      <c r="M26" s="32">
+        <f>IFERROR(M13/M10,0)</f>
+        <v>0.44080846496537457</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="66" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="35">
-        <f t="shared" ref="B27:J27" si="24">IFERROR(B18/B11,0)</f>
+        <f t="shared" ref="B27:J27" si="28">IFERROR(B18/B11,0)</f>
         <v>-0.52557566896870123</v>
       </c>
       <c r="C27" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.55663871819904664</v>
       </c>
       <c r="D27" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.28191067472581588</v>
       </c>
       <c r="E27" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.57319771284084675</v>
       </c>
       <c r="F27" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.37159880382503097</v>
       </c>
       <c r="G27" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.25914014895057552</v>
       </c>
       <c r="H27" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.5882854931910062</v>
       </c>
       <c r="I27" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.25806093966034482</v>
       </c>
       <c r="J27" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.25869362792996803</v>
       </c>
       <c r="K27" s="34">
-        <f t="shared" ref="K27" si="25">IFERROR(K18/K11,0)</f>
+        <f t="shared" ref="K27:L27" si="29">IFERROR(K18/K11,0)</f>
         <v>-0.15711058071662076</v>
       </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
+      <c r="L27" s="34">
+        <f t="shared" si="29"/>
+        <v>-0.1589212647643552</v>
+      </c>
+      <c r="M27" s="34">
+        <f>IFERROR(M18/M10,0)</f>
+        <v>-4.3248373003769658E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="35">
-        <f t="shared" ref="B28:J28" si="26">IFERROR(B21/B20,0)</f>
+        <f t="shared" ref="B28:J28" si="30">IFERROR(B21/B20,0)</f>
         <v>0</v>
       </c>
       <c r="C28" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="D28" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E28" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F28" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G28" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H28" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I28" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J28" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K28" s="34">
-        <f t="shared" ref="K28" si="27">IFERROR(K21/K20,0)</f>
+        <f t="shared" ref="K28:L28" si="31">IFERROR(K21/K20,0)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
+      <c r="L28" s="34">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="34">
+        <f t="shared" ref="M28" si="32">IFERROR(M21/M20,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="65"/>
@@ -10150,23 +10225,23 @@
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29">
-        <f t="shared" ref="F30" si="28">IFERROR((F11/B11)-1,0)</f>
+        <f t="shared" ref="F30" si="33">IFERROR((F11/B11)-1,0)</f>
         <v>0.69184156358809612</v>
       </c>
       <c r="G30" s="28">
-        <f t="shared" ref="G30:M30" si="29">IFERROR((G11/C11)-1,0)</f>
+        <f t="shared" ref="G30:J30" si="34">IFERROR((G11/C11)-1,0)</f>
         <v>0.8660770688566013</v>
       </c>
       <c r="H30" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.89088696222957653</v>
       </c>
       <c r="I30" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>1.2028560756256641</v>
       </c>
       <c r="J30" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.97821415170500425</v>
       </c>
       <c r="K30" s="28">
@@ -10178,7 +10253,7 @@
         <v>0.33793292978383338</v>
       </c>
       <c r="M30" s="28">
-        <f>IFERROR((M11/I11)-1,0)</f>
+        <f>IFERROR((M10/I11)-1,0)</f>
         <v>0.28466986669449312</v>
       </c>
     </row>
@@ -10191,35 +10266,35 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="31">
-        <f t="shared" ref="F31:K33" si="30">F14/B14-1</f>
+        <f t="shared" ref="F31:K33" si="35">F14/B14-1</f>
         <v>0.5625</v>
       </c>
       <c r="G31" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.52380952380952372</v>
       </c>
       <c r="H31" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="I31" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.52380952380952372</v>
       </c>
       <c r="J31" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.3600000000000001</v>
       </c>
       <c r="K31" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.3125</v>
       </c>
       <c r="L31" s="30">
-        <f t="shared" ref="L31:L34" si="31">L14/H14-1</f>
+        <f t="shared" ref="L31:L34" si="36">L14/H14-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="M31" s="30">
-        <f t="shared" ref="M31:M34" si="32">M14/I14-1</f>
+        <f t="shared" ref="M31:M34" si="37">M14/I14-1</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
@@ -10232,35 +10307,35 @@
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.25</v>
       </c>
       <c r="G32" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="H32" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.75</v>
       </c>
       <c r="I32" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J32" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="K32" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>3.875</v>
       </c>
       <c r="L32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="M32" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
     </row>
@@ -10273,35 +10348,35 @@
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.75</v>
       </c>
       <c r="G33" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.40909090909090917</v>
       </c>
       <c r="H33" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.63157894736842102</v>
       </c>
       <c r="I33" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>-3.125E-2</v>
       </c>
       <c r="J33" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.14285714285714279</v>
       </c>
       <c r="K33" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.32258064516129026</v>
       </c>
       <c r="L33" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.25</v>
       </c>
       <c r="M33" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.25</v>
       </c>
     </row>
@@ -10314,36 +10389,36 @@
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="33">
-        <f t="shared" ref="F34:K34" si="33">F17/B17-1</f>
+        <f t="shared" ref="F34:K34" si="38">F17/B17-1</f>
         <v>0.61111111111111116</v>
       </c>
       <c r="G34" s="32">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.54347826086956519</v>
       </c>
       <c r="H34" s="32">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.75609756097560976</v>
       </c>
       <c r="I34" s="32">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.17241379310344818</v>
       </c>
       <c r="J34" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.53448275862068972</v>
       </c>
       <c r="K34" s="32">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.71830985915492951</v>
       </c>
       <c r="L34" s="32">
-        <f t="shared" si="31"/>
-        <v>-1</v>
+        <f t="shared" si="36"/>
+        <v>0.54097222222222219</v>
       </c>
       <c r="M34" s="32">
-        <f t="shared" si="32"/>
-        <v>-1</v>
+        <f t="shared" si="37"/>
+        <v>0.40220588235294108</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
@@ -10368,12 +10443,12 @@
       <c r="G36" s="42"/>
       <c r="H36" s="19"/>
       <c r="I36" s="23">
-        <f t="shared" ref="I36:K36" si="34">I37-I38</f>
+        <f t="shared" ref="I36:K36" si="39">I37-I38</f>
         <v>470</v>
       </c>
       <c r="J36" s="20"/>
       <c r="K36" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>903</v>
       </c>
       <c r="L36" s="22"/>
@@ -10532,12 +10607,12 @@
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="25">
-        <f t="shared" ref="I44" si="35">I41-I37-I40</f>
+        <f t="shared" ref="I44" si="40">I41-I37-I40</f>
         <v>40</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="25">
-        <f t="shared" ref="K44" si="36">K41-K37-K40</f>
+        <f t="shared" ref="K44" si="41">K41-K37-K40</f>
         <v>183</v>
       </c>
       <c r="L44" s="22"/>
@@ -10593,12 +10668,12 @@
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="I47" s="23">
-        <f t="shared" ref="I47:K47" si="37">SUM(F22:I22)</f>
+        <f t="shared" ref="I47:K47" si="42">SUM(F22:I22)</f>
         <v>-112.13800000000001</v>
       </c>
       <c r="J47" s="21"/>
       <c r="K47" s="23">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>-94.838999999999999</v>
       </c>
       <c r="L47" s="22"/>
@@ -10616,12 +10691,12 @@
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="32">
-        <f t="shared" ref="I48" si="38">I47/I45</f>
+        <f t="shared" ref="I48" si="43">I47/I45</f>
         <v>0.30555313351498636</v>
       </c>
       <c r="J48" s="21"/>
       <c r="K48" s="32">
-        <f t="shared" ref="K48" si="39">K47/K45</f>
+        <f t="shared" ref="K48" si="44">K47/K45</f>
         <v>0.27174498567335242</v>
       </c>
       <c r="L48" s="22"/>
@@ -10639,12 +10714,12 @@
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="32">
-        <f t="shared" ref="I49" si="40">I47/I41</f>
+        <f t="shared" ref="I49" si="45">I47/I41</f>
         <v>-7.9984308131241091E-2</v>
       </c>
       <c r="J49" s="21"/>
       <c r="K49" s="32">
-        <f t="shared" ref="K49" si="41">K47/K41</f>
+        <f t="shared" ref="K49" si="46">K47/K41</f>
         <v>-3.5021787296898081E-2</v>
       </c>
       <c r="L49" s="22"/>
@@ -10662,12 +10737,12 @@
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="32">
-        <f t="shared" ref="I50" si="42">I47/(I45-I40)</f>
+        <f t="shared" ref="I50" si="47">I47/(I45-I40)</f>
         <v>0.30555313351498636</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="32">
-        <f t="shared" ref="K50" si="43">K47/(K45-K40)</f>
+        <f t="shared" ref="K50" si="48">K47/(K45-K40)</f>
         <v>0.27174498567335242</v>
       </c>
       <c r="L50" s="22"/>
@@ -10685,12 +10760,12 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="32">
-        <f t="shared" ref="I51" si="44">I47/I44</f>
+        <f t="shared" ref="I51" si="49">I47/I44</f>
         <v>-2.8034500000000002</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="32">
-        <f t="shared" ref="K51" si="45">K47/K44</f>
+        <f t="shared" ref="K51" si="50">K47/K44</f>
         <v>-0.51824590163934425</v>
       </c>
       <c r="L51" s="22"/>
@@ -10711,27 +10786,27 @@
       <c r="D53" s="32"/>
       <c r="E53" s="42"/>
       <c r="F53" s="33">
-        <f t="shared" ref="F53:K56" si="46">F3/B3-1</f>
+        <f t="shared" ref="F53:K56" si="51">F3/B3-1</f>
         <v>0.56397472815575722</v>
       </c>
       <c r="G53" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.70017813683920016</v>
       </c>
       <c r="H53" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.85762356575463361</v>
       </c>
       <c r="I53" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1.584634508686293</v>
       </c>
       <c r="J53" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1.5629998076341751</v>
       </c>
       <c r="K53" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.47024969010093853</v>
       </c>
       <c r="L53" s="32"/>
@@ -10746,27 +10821,27 @@
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
       <c r="F54" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1.4766162310866577</v>
       </c>
       <c r="G54" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>3.4548872180451129</v>
       </c>
       <c r="H54" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>2.0519814719505916</v>
       </c>
       <c r="I54" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-7.505140507196717E-2</v>
       </c>
       <c r="J54" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.65454040544293268</v>
       </c>
       <c r="K54" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.52180028129395217</v>
       </c>
       <c r="L54" s="32"/>
@@ -10781,27 +10856,27 @@
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
       <c r="F55" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.6443425577206483</v>
       </c>
       <c r="G55" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.64439985406785838</v>
       </c>
       <c r="H55" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.63836576362385022</v>
       </c>
       <c r="I55" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.37969101123595483</v>
       </c>
       <c r="J55" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.3502539334793866</v>
       </c>
       <c r="K55" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.63860847957757416</v>
       </c>
       <c r="L55" s="32"/>
@@ -10816,27 +10891,27 @@
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
       <c r="F56" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1.7484121383203957</v>
       </c>
       <c r="G56" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>11.711026615969583</v>
       </c>
       <c r="H56" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>3.2624113475177294</v>
       </c>
       <c r="I56" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-9.5841688654353572</v>
       </c>
       <c r="J56" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1.634227757093337</v>
       </c>
       <c r="K56" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.96769368830391889</v>
       </c>
       <c r="L56" s="32"/>
@@ -10901,20 +10976,20 @@
         <v>861.30600000000004</v>
       </c>
       <c r="G61" s="22">
-        <v>1300</v>
+        <v>1341.5840000000001</v>
       </c>
       <c r="I61" s="22"/>
       <c r="J61" s="21">
         <v>1475.9290000000001</v>
       </c>
       <c r="K61" s="22">
-        <v>2100</v>
+        <v>2075.1120000000001</v>
       </c>
       <c r="L61" s="22">
         <v>1800</v>
       </c>
       <c r="M61" s="22">
-        <f>M11/0.1</f>
+        <f>M10/0.1</f>
         <v>1969.81</v>
       </c>
     </row>
@@ -10936,7 +11011,7 @@
       </c>
       <c r="K62" s="32">
         <f>K61/G61-1</f>
-        <v>0.61538461538461542</v>
+        <v>0.54676263282805992</v>
       </c>
       <c r="L62" s="32"/>
       <c r="M62" s="32"/>
@@ -10959,7 +11034,7 @@
       </c>
       <c r="G64" s="32">
         <f>G11/G61</f>
-        <v>9.9981538461538455E-2</v>
+        <v>9.6882491144795996E-2</v>
       </c>
       <c r="H64" s="32"/>
       <c r="I64" s="32"/>
@@ -10969,13 +11044,16 @@
       </c>
       <c r="K64" s="32">
         <f>K11/K61</f>
-        <v>9.7162380952380945E-2</v>
+        <v>9.8327704721480086E-2</v>
       </c>
       <c r="L64" s="32">
         <f>L11/L61</f>
         <v>0.10277777777777777</v>
       </c>
-      <c r="M64" s="32"/>
+      <c r="M64" s="32">
+        <f>M11/M61</f>
+        <v>0.10000964560033709</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
